--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3112F35-2109-CE41-9E00-A5CD60E27C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0281CA23-1224-8D4B-8819-71C37D6A1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,100 +1372,6 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2064,6 +1970,70 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2180,6 +2150,36 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2194,26 +2194,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:M64" totalsRowShown="0" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:M64" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
   <autoFilter ref="A1:M64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="37">
       <calculatedColumnFormula>I2-H2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="39">
+    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="36">
       <calculatedColumnFormula>SUMIFS(K3:K47,K3:K47,"&gt;0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="38">
+    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="35">
       <calculatedColumnFormula>SUMIFS(K3:K48,K3:K48,"&lt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2222,29 +2222,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="A1:Q32" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2253,19 +2253,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:H22" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -4332,13 +4332,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L39:L44">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4359,8 +4359,8 @@
   <dimension ref="A1:V1048566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5862,15 +5862,9 @@
       <c r="E32" s="18"/>
       <c r="F32" s="15"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="22">
-        <f>相纸!I27</f>
-        <v>0</v>
-      </c>
+      <c r="H32" s="22"/>
       <c r="I32" s="57"/>
-      <c r="J32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J32" s="20"/>
       <c r="K32" s="26" t="s">
         <v>74</v>
       </c>
@@ -6476,31 +6470,31 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L2:L32">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="未上架">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K32">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="已收货">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0281CA23-1224-8D4B-8819-71C37D6A1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD668D2-3298-1B46-9760-22CBB610F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
@@ -567,11 +567,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>暂时未购买成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>富士宏敏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 拍立得 mini 90  棕色 标配 + 20张相纸</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方店铺</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,9 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2253,8 +2254,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H22" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
@@ -4358,9 +4359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4471,15 +4472,15 @@
       <c r="Q2" s="122"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
-        <v>513.69619047619051</v>
+        <v>517.69272727272721</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q26,Q4:Q26,"&lt;0")</f>
-        <v>-13489.553333333331</v>
+        <v>-13475.565454545458</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" s="66"/>
       <c r="V2" s="66"/>
@@ -4604,14 +4605,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I5" s="57">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>755.96095238095234</v>
+        <v>754.96181818181822</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>68</v>
@@ -4627,7 +4628,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="52">
         <f t="shared" si="1"/>
-        <v>-760.46095238095234</v>
+        <v>-759.46181818181822</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -4659,14 +4660,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I6" s="57">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>764.96095238095234</v>
+        <v>763.96181818181822</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>68</v>
@@ -4682,7 +4683,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="52">
         <f t="shared" si="1"/>
-        <v>-769.16095238095238</v>
+        <v>-768.16181818181826</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4709,14 +4710,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I7" s="57">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>765.96095238095234</v>
+        <v>764.96181818181822</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>68</v>
@@ -4732,7 +4733,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="52">
         <f t="shared" si="1"/>
-        <v>-770.16095238095238</v>
+        <v>-769.16181818181826</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4757,14 +4758,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I8" s="57">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1505.9219047619047</v>
+        <v>1503.9236363636364</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>68</v>
@@ -4778,7 +4779,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="52">
         <f t="shared" si="1"/>
-        <v>-1505.9219047619047</v>
+        <v>-1503.9236363636364</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
@@ -4889,14 +4890,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I11" s="57">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>985.88190476190482</v>
+        <v>983.88363636363647</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>69</v>
@@ -4914,7 +4915,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="52">
         <f t="shared" si="1"/>
-        <v>210.91809523809528</v>
+        <v>212.91636363636363</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
@@ -4939,14 +4940,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I12" s="57">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>487.96095238095239</v>
+        <v>486.96181818181822</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>69</v>
@@ -4964,7 +4965,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="52">
         <f t="shared" si="1"/>
-        <v>105.33904761904765</v>
+        <v>106.33818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -4991,14 +4992,14 @@
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I13" s="57">
         <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>1535.9219047619047</v>
+        <v>1533.9236363636364</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>68</v>
@@ -5012,7 +5013,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="52">
         <f t="shared" si="1"/>
-        <v>-1535.9219047619047</v>
+        <v>-1533.9236363636364</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -5039,14 +5040,14 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I14" s="57">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>523.96095238095234</v>
+        <v>522.96181818181822</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>68</v>
@@ -5060,7 +5061,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="52">
         <f t="shared" si="1"/>
-        <v>-523.96095238095234</v>
+        <v>-522.96181818181822</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -5087,14 +5088,14 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I15" s="57">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>513.96095238095234</v>
+        <v>512.96181818181822</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>68</v>
@@ -5108,7 +5109,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="52">
         <f t="shared" si="1"/>
-        <v>-513.96095238095234</v>
+        <v>-512.96181818181822</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5135,14 +5136,14 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I16" s="57">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>498.96095238095239</v>
+        <v>497.96181818181822</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>68</v>
@@ -5156,7 +5157,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="52">
         <f t="shared" si="1"/>
-        <v>-498.96095238095239</v>
+        <v>-497.96181818181822</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5224,14 +5225,14 @@
       </c>
       <c r="H18" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I18" s="57">
         <v>1</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>751.96095238095234</v>
+        <v>750.96181818181822</v>
       </c>
       <c r="K18" s="26" t="s">
         <v>75</v>
@@ -5247,7 +5248,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="52">
         <f t="shared" si="1"/>
-        <v>-758.06095238095236</v>
+        <v>-757.06181818181824</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
@@ -5274,14 +5275,14 @@
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>771.96095238095234</v>
+        <v>770.96181818181822</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>75</v>
@@ -5297,7 +5298,7 @@
       </c>
       <c r="Q19" s="52">
         <f t="shared" si="1"/>
-        <v>-771.96095238095234</v>
+        <v>-770.96181818181822</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5322,14 +5323,14 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I20" s="57">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>740.96095238095234</v>
+        <v>739.96181818181822</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>75</v>
@@ -5343,7 +5344,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="52">
         <f t="shared" si="1"/>
-        <v>-740.96095238095234</v>
+        <v>-739.96181818181822</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
@@ -5368,14 +5369,14 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I21" s="57">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>751.96095238095234</v>
+        <v>750.96181818181822</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>69</v>
@@ -5393,7 +5394,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="52">
         <f t="shared" si="1"/>
-        <v>67.429047619047623</v>
+        <v>68.428181818181741</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
@@ -5418,14 +5419,14 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="I22" s="57">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>808.64095238095229</v>
+        <v>807.64181818181817</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>75</v>
@@ -5439,7 +5440,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="52">
         <f t="shared" si="1"/>
-        <v>-808.64095238095229</v>
+        <v>-807.64181818181817</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
@@ -5689,7 +5690,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="18">
         <v>676.25</v>
@@ -5855,16 +5856,31 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
-      <c r="A32" s="123"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="104">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16">
+        <v>45461</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1601</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="57"/>
-      <c r="J32" s="20"/>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>1601</v>
+      </c>
       <c r="K32" s="26" t="s">
         <v>74</v>
       </c>
@@ -5877,7 +5893,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1601</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
@@ -6464,7 +6480,7 @@
     <row r="1048566" spans="10:10">
       <c r="J1048566" s="21">
         <f>SUM(J4:J1048565)</f>
-        <v>20588.177142857141</v>
+        <v>22171.192727272733</v>
       </c>
     </row>
   </sheetData>
@@ -6518,11 +6534,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6651,15 +6667,15 @@
       </c>
       <c r="I4" s="64">
         <f>AVERAGE(G:G)</f>
-        <v>93.960952380952378</v>
+        <v>92.961818181818188</v>
       </c>
       <c r="J4" s="65">
         <f>COUNT(A:A)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="64">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>1973.1799999999998</v>
+        <v>2045.16</v>
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
@@ -7079,7 +7095,7 @@
         <v>138</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="E22" s="40">
         <v>44</v>
@@ -7091,18 +7107,32 @@
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>44</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>139</v>
-      </c>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>45460</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="40">
+        <v>71.98</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>71.98</v>
+      </c>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="27" customHeight="1">
       <c r="A24" s="15"/>
@@ -7123,13 +7153,22 @@
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="27" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="38"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="27" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD668D2-3298-1B46-9760-22CBB610F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7D263-B1BB-C344-9FEF-67C3499D19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
   <si>
     <t>序号</t>
   </si>
@@ -489,9 +489,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>已发货</t>
-  </si>
-  <si>
     <t>抖音 拍立得 20张相纸</t>
   </si>
   <si>
@@ -515,10 +512,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">抖音 拍立得 mini40  + 20张相纸 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝百亿补贴 iPhone15 pro 256</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -551,18 +544,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>闪电发货 两个账号单号搞错</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>得物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>去的运费+回来运费+耳机到付</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>小红书心愿单 相纸</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -577,6 +558,37 @@
   <si>
     <t>第三方店铺</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>群抽奖中奖的相纸</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>果果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏瑞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯晶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去的运费+回来运费+耳机到付=66.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音 拍立得 mini40  一世风靡礼盒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返现6块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 大疆pocket4</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -983,6 +995,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -995,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1413,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1371,7 +1429,111 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1971,70 +2133,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2151,36 +2249,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2195,26 +2263,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:M64" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:M64" totalsRowShown="0" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
   <autoFilter ref="A1:M64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="41">
       <calculatedColumnFormula>I2-H2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="36">
+    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="40">
       <calculatedColumnFormula>SUMIFS(K3:K47,K3:K47,"&gt;0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="35">
+    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="39">
       <calculatedColumnFormula>SUMIFS(K3:K48,K3:K48,"&lt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2223,29 +2291,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="27">
-  <autoFilter ref="A1:Q32" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
-    <sortCondition ref="B1:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q31" totalsRowShown="0" tableBorderDxfId="38">
+  <autoFilter ref="A1:Q31" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q28">
+    <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="21">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2254,19 +2322,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="11">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2536,8 +2604,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2614,11 +2682,11 @@
       <c r="K2" s="93"/>
       <c r="L2" s="97">
         <f t="shared" ref="L2" si="0">SUMIFS(K3:K47,K3:K47,"&gt;0")</f>
-        <v>9868.590000000002</v>
+        <v>9768.590000000002</v>
       </c>
       <c r="M2" s="98">
         <f t="shared" ref="M2" si="1">SUMIFS(K3:K48,K3:K48,"&lt;0")</f>
-        <v>-15537</v>
+        <v>-11038</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2710,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="86">
-        <f t="shared" ref="F5:F48" si="3">D5*E5</f>
+        <f t="shared" ref="F5:F49" si="3">D5*E5</f>
         <v>7388</v>
       </c>
       <c r="H5" s="4">
@@ -3680,7 +3748,7 @@
         <v>49</v>
       </c>
       <c r="K34" s="95">
-        <f t="shared" ref="K34:K48" si="4">I34-H34-F34</f>
+        <f t="shared" ref="K34:K49" si="4">I34-H34-F34</f>
         <v>501</v>
       </c>
       <c r="L34" s="90"/>
@@ -3936,7 +4004,7 @@
         <v>45449</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="86">
         <v>6526</v>
@@ -4044,7 +4112,7 @@
         <v>45456</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="86">
         <v>6841.68</v>
@@ -4077,7 +4145,7 @@
         <v>45457</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="86">
         <v>6876</v>
@@ -4095,6 +4163,9 @@
       <c r="I46" s="86">
         <v>6880</v>
       </c>
+      <c r="J46" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="K46" s="86">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4110,7 +4181,7 @@
         <v>45453</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="86">
         <v>7579</v>
@@ -4126,11 +4197,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="86">
-        <v>7880</v>
+        <v>7780</v>
       </c>
       <c r="K47" s="86">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="L47" s="90"/>
       <c r="M47" s="86"/>
@@ -4143,40 +4214,58 @@
         <v>45459</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="86">
         <v>4499</v>
       </c>
       <c r="E48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="86">
         <f t="shared" si="3"/>
-        <v>8998</v>
+        <v>4499</v>
       </c>
       <c r="H48" s="23">
         <v>0</v>
       </c>
       <c r="K48" s="86">
         <f t="shared" si="4"/>
-        <v>-8998</v>
+        <v>-4499</v>
       </c>
       <c r="L48" s="90"/>
-      <c r="M48" s="86">
-        <f t="shared" ref="M48:M64" si="5">SUMIFS(K49:K94,K49:K94,"&lt;0")</f>
-        <v>0</v>
-      </c>
+      <c r="M48" s="86"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="K49" s="90"/>
+      <c r="B49" s="3">
+        <v>45459</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="86">
+        <v>4499</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="86">
+        <f t="shared" si="3"/>
+        <v>4499</v>
+      </c>
+      <c r="H49" s="23">
+        <v>0</v>
+      </c>
+      <c r="K49" s="86">
+        <f t="shared" si="4"/>
+        <v>-4499</v>
+      </c>
       <c r="L49" s="90"/>
       <c r="M49" s="86">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M48:M64" si="5">SUMIFS(K50:K95,K50:K95,"&lt;0")</f>
         <v>0</v>
       </c>
     </row>
@@ -4333,13 +4422,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L39:L44">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4357,11 +4446,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
-  <dimension ref="A1:V1048566"/>
+  <dimension ref="A1:V1048565"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4386,6 +4475,7 @@
     <col min="18" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="19" width="28.5" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="52" customHeight="1">
@@ -4449,7 +4539,9 @@
       <c r="T1" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="66"/>
+      <c r="U1" s="66" t="s">
+        <v>122</v>
+      </c>
       <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="23" customHeight="1">
@@ -4480,9 +4572,11 @@
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
-        <v>34</v>
-      </c>
-      <c r="U2" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="U2" s="123" t="s">
+        <v>141</v>
+      </c>
       <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1">
@@ -4508,7 +4602,7 @@
       <c r="H3" s="109"/>
       <c r="I3" s="110"/>
       <c r="J3" s="111">
-        <f t="shared" ref="J3:J32" si="0">E3*F3 - G3*F3 + H3*I3</f>
+        <f t="shared" ref="J3:J31" si="0">E3*F3 - G3*F3 + H3*I3</f>
         <v>761</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -4526,13 +4620,13 @@
         <v>56</v>
       </c>
       <c r="Q3" s="113">
-        <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
+        <f t="shared" ref="Q3:Q31" si="1">SUM(O3-J3-N3 )</f>
         <v>-769</v>
       </c>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
+      <c r="U3" s="124"/>
       <c r="V3" s="66"/>
     </row>
     <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4578,7 +4672,7 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
+      <c r="U4" s="124"/>
       <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4633,7 +4727,7 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
+      <c r="U5" s="125"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
@@ -5495,10 +5589,10 @@
         <v>45455</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="18">
         <v>520.88</v>
@@ -5543,10 +5637,10 @@
         <v>45455</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="18">
         <v>502.7</v>
@@ -5568,7 +5662,7 @@
         <v>69</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="15">
@@ -5591,10 +5685,10 @@
         <v>45455</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E26" s="18">
         <v>899</v>
@@ -5616,7 +5710,7 @@
         <v>69</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="15">
@@ -5633,32 +5727,32 @@
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="104">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="16">
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E27" s="18">
-        <v>1</v>
+        <v>676.25</v>
       </c>
       <c r="F27" s="15">
         <v>1</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22">
-        <f>相纸!I22</f>
+        <f>相纸!I23</f>
         <v>0</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>676.25</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>74</v>
@@ -5667,46 +5761,42 @@
         <v>59</v>
       </c>
       <c r="M27" s="19"/>
-      <c r="N27" s="15">
-        <v>66.8</v>
-      </c>
+      <c r="N27" s="15"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="P27" s="19"/>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
-        <v>-67.8</v>
+        <v>-676.25</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="104">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="16">
         <v>45460</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E28" s="18">
-        <v>676.25</v>
+        <v>518.69000000000005</v>
       </c>
       <c r="F28" s="15">
         <v>1</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22">
-        <f>相纸!I23</f>
+        <f>相纸!I24</f>
         <v>0</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>676.25</v>
+        <v>518.69000000000005</v>
       </c>
       <c r="K28" s="26" t="s">
         <v>74</v>
@@ -5717,40 +5807,42 @@
       <c r="M28" s="19"/>
       <c r="N28" s="15"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="19"/>
+      <c r="P28" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="Q28" s="52">
         <f t="shared" si="1"/>
-        <v>-676.25</v>
+        <v>-518.69000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="104">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="16">
         <v>45460</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="18">
-        <v>518.69000000000005</v>
+        <v>518</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22">
-        <f>相纸!I24</f>
+        <f>相纸!I25</f>
         <v>0</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
-        <v>518.69000000000005</v>
+        <v>518</v>
       </c>
       <c r="K29" s="26" t="s">
         <v>74</v>
@@ -5761,40 +5853,42 @@
       <c r="M29" s="19"/>
       <c r="N29" s="15"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="19"/>
+      <c r="P29" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="Q29" s="52">
         <f t="shared" si="1"/>
-        <v>-518.69000000000005</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="104">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="16">
         <v>45460</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="18">
-        <v>518</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="F30" s="15">
         <v>1</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22">
-        <f>相纸!I25</f>
+        <f>相纸!I26</f>
         <v>0</v>
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>74</v>
@@ -5805,40 +5899,39 @@
       <c r="M30" s="19"/>
       <c r="N30" s="15"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="Q30" s="52">
         <f t="shared" si="1"/>
-        <v>-518</v>
+        <v>-519.29999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="104">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="16">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E31" s="18">
-        <v>519.29999999999995</v>
+        <v>1601</v>
       </c>
       <c r="F31" s="15">
         <v>1</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="22">
-        <f>相纸!I26</f>
-        <v>0</v>
-      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="57"/>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>519.29999999999995</v>
+        <v>1601</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>74</v>
@@ -5852,49 +5945,27 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
-        <v>-519.29999999999995</v>
+        <v>-1601</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
-      <c r="A32" s="104">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16">
-        <v>45461</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="18">
-        <v>1601</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="57"/>
-      <c r="J32" s="20">
-        <f t="shared" si="0"/>
-        <v>1601</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="19"/>
       <c r="N32" s="15"/>
       <c r="O32" s="22"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="52">
-        <f t="shared" si="1"/>
-        <v>-1601</v>
-      </c>
+      <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="15"/>
@@ -5975,7 +6046,6 @@
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
       <c r="F37" s="15"/>
@@ -5994,6 +6064,7 @@
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
       <c r="F38" s="15"/>
@@ -6427,25 +6498,7 @@
       <c r="P60" s="19"/>
       <c r="Q60" s="53"/>
     </row>
-    <row r="61" spans="1:17" ht="30" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="53"/>
-    </row>
+    <row r="61" spans="1:17" ht="30" customHeight="1"/>
     <row r="62" spans="1:17" ht="30" customHeight="1"/>
     <row r="63" spans="1:17" ht="30" customHeight="1"/>
     <row r="64" spans="1:17" ht="30" customHeight="1"/>
@@ -6476,52 +6529,59 @@
     <row r="89" ht="30" customHeight="1"/>
     <row r="90" ht="30" customHeight="1"/>
     <row r="91" ht="30" customHeight="1"/>
-    <row r="92" ht="30" customHeight="1"/>
-    <row r="1048566" spans="10:10">
-      <c r="J1048566" s="21">
-        <f>SUM(J4:J1048565)</f>
-        <v>22171.192727272733</v>
+    <row r="1048565" spans="10:10">
+      <c r="J1048565" s="21">
+        <f>SUM(J4:J1048564)</f>
+        <v>22170.192727272733</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="U2:U5"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L32">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="已结清">
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="未上架">
+  <conditionalFormatting sqref="K3:K31">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已结清">
+  <conditionalFormatting sqref="K3:K31">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K32">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="已收货">
+  <conditionalFormatting sqref="K14:K31">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K31">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
+      <formula>NOT(ISERROR(SEARCH("未收货",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K13" xr:uid="{A744D780-F3DC-B549-A8FB-91A591FB6A59}">
       <formula1>"未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K32" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K31" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
       <formula1>"未收货,已收货,未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L31" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
       <formula1>"未发货,已发货,已结清,已取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6536,9 +6596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6579,7 +6639,7 @@
         <v>99</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
@@ -6977,10 +7037,10 @@
         <v>45455</v>
       </c>
       <c r="C17" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>122</v>
       </c>
       <c r="E17" s="91">
         <v>88</v>
@@ -6991,7 +7051,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
@@ -7002,10 +7062,10 @@
         <v>45455</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="91">
         <v>92</v>
@@ -7024,10 +7084,10 @@
         <v>45458</v>
       </c>
       <c r="C19" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>122</v>
       </c>
       <c r="E19" s="40">
         <v>98</v>
@@ -7046,10 +7106,10 @@
         <v>45458</v>
       </c>
       <c r="C20" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>122</v>
       </c>
       <c r="E20" s="40">
         <v>98</v>
@@ -7068,10 +7128,10 @@
         <v>45458</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="40">
         <v>72</v>
@@ -7083,6 +7143,9 @@
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>84</v>
       </c>
+      <c r="H21" s="25" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1">
       <c r="A22" s="15">
@@ -7092,10 +7155,10 @@
         <v>45457</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E22" s="40">
         <v>44</v>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD668D2-3298-1B46-9760-22CBB610F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59F425-59D5-734B-BDD9-67F9E98B255D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="4200" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -4359,9 +4359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048566"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6536,8 +6536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7D263-B1BB-C344-9FEF-67C3499D19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B8B391-DCF0-5B43-8572-C8C0BAE3EB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
   <si>
     <t>序号</t>
   </si>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t>淘宝 大疆pocket4</t>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1032,6 +1036,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1425,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1429,111 +1448,7 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2133,6 +2048,84 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2249,6 +2242,36 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2263,57 +2286,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:M64" totalsRowShown="0" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
-  <autoFilter ref="A1:M64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:N64" totalsRowShown="0" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
+  <autoFilter ref="A1:N64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="39">
       <calculatedColumnFormula>I2-H2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="40">
+    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="38">
       <calculatedColumnFormula>SUMIFS(K3:K47,K3:K47,"&gt;0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="39">
+    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="37">
       <calculatedColumnFormula>SUMIFS(K3:K48,K3:K48,"&lt;0")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="14" xr3:uid="{3DF4A523-4590-0743-8700-06A139BDE50A}" name="列1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q31" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q31" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="A1:Q31" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2322,19 +2346,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2601,11 +2625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2627,7 +2651,7 @@
     <col min="16" max="16" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="33">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -2667,8 +2691,11 @@
       <c r="M1" s="72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
+      <c r="N1" s="124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
@@ -2686,10 +2713,11 @@
       </c>
       <c r="M2" s="98">
         <f t="shared" ref="M2" si="1">SUMIFS(K3:K48,K3:K48,"&lt;0")</f>
-        <v>-11038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-6539</v>
+      </c>
+      <c r="N2" s="123"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2724,8 +2752,9 @@
       </c>
       <c r="L3" s="89"/>
       <c r="M3" s="99"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="86"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2760,8 +2789,9 @@
       </c>
       <c r="L4" s="89"/>
       <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2796,8 +2826,9 @@
       </c>
       <c r="L5" s="89"/>
       <c r="M5" s="86"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="86"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2832,8 +2863,9 @@
       </c>
       <c r="L6" s="89"/>
       <c r="M6" s="99"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="86"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2868,8 +2900,9 @@
       </c>
       <c r="L7" s="89"/>
       <c r="M7" s="99"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="86"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2901,8 +2934,9 @@
       </c>
       <c r="L8" s="89"/>
       <c r="M8" s="86"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="86"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2934,8 +2968,9 @@
       </c>
       <c r="L9" s="89"/>
       <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="86"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2967,8 +3002,9 @@
       </c>
       <c r="L10" s="89"/>
       <c r="M10" s="86"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="86"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3003,8 +3039,9 @@
       </c>
       <c r="L11" s="89"/>
       <c r="M11" s="86"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="86"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3036,8 +3073,9 @@
       </c>
       <c r="L12" s="89"/>
       <c r="M12" s="86"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="86"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3069,8 +3107,9 @@
       </c>
       <c r="L13" s="89"/>
       <c r="M13" s="86"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="86"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3099,8 +3138,9 @@
       </c>
       <c r="L14" s="89"/>
       <c r="M14" s="86"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="86"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3129,8 +3169,9 @@
       </c>
       <c r="L15" s="89"/>
       <c r="M15" s="86"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="86"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3159,8 +3200,9 @@
       </c>
       <c r="L16" s="89"/>
       <c r="M16" s="86"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="86"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3189,8 +3231,9 @@
       </c>
       <c r="L17" s="89"/>
       <c r="M17" s="86"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="86"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3219,8 +3262,9 @@
       </c>
       <c r="L18" s="89"/>
       <c r="M18" s="86"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="86"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3252,8 +3296,9 @@
       </c>
       <c r="L19" s="89"/>
       <c r="M19" s="86"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="86"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3288,8 +3333,9 @@
       </c>
       <c r="L20" s="90"/>
       <c r="M20" s="86"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="86"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3324,8 +3370,9 @@
       </c>
       <c r="L21" s="90"/>
       <c r="M21" s="86"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="86"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3360,8 +3407,9 @@
       </c>
       <c r="L22" s="90"/>
       <c r="M22" s="86"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="86"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3393,8 +3441,9 @@
       </c>
       <c r="L23" s="90"/>
       <c r="M23" s="86"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="86"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3426,8 +3475,9 @@
       </c>
       <c r="L24" s="90"/>
       <c r="M24" s="86"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="86"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3459,8 +3509,9 @@
       </c>
       <c r="L25" s="90"/>
       <c r="M25" s="86"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="86"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3492,8 +3543,9 @@
       </c>
       <c r="L26" s="90"/>
       <c r="M26" s="86"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="86"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3525,8 +3577,9 @@
       </c>
       <c r="L27" s="90"/>
       <c r="M27" s="86"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="86"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3558,8 +3611,9 @@
       </c>
       <c r="L28" s="90"/>
       <c r="M28" s="86"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="86"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3591,8 +3645,9 @@
       </c>
       <c r="L29" s="90"/>
       <c r="M29" s="86"/>
-    </row>
-    <row r="30" spans="1:13" ht="63" customHeight="1">
+      <c r="N29" s="86"/>
+    </row>
+    <row r="30" spans="1:14" ht="63" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3624,8 +3679,9 @@
       </c>
       <c r="L30" s="90"/>
       <c r="M30" s="86"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="86"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3660,8 +3716,9 @@
       </c>
       <c r="L31" s="90"/>
       <c r="M31" s="86"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="86"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -3690,8 +3747,9 @@
       </c>
       <c r="L32" s="90"/>
       <c r="M32" s="86"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="86"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3720,8 +3778,9 @@
       </c>
       <c r="L33" s="90"/>
       <c r="M33" s="86"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="86"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3753,8 +3812,9 @@
       </c>
       <c r="L34" s="90"/>
       <c r="M34" s="86"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="86"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3783,8 +3843,9 @@
       </c>
       <c r="L35" s="90"/>
       <c r="M35" s="86"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="86"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3819,8 +3880,9 @@
       </c>
       <c r="L36" s="90"/>
       <c r="M36" s="86"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="86"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3855,8 +3917,9 @@
       </c>
       <c r="L37" s="90"/>
       <c r="M37" s="86"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="86"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3891,8 +3954,9 @@
       </c>
       <c r="L38" s="90"/>
       <c r="M38" s="86"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="86"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3926,8 +3990,9 @@
       </c>
       <c r="L39" s="77"/>
       <c r="M39" s="100"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="86"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3960,8 +4025,12 @@
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="101"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="86">
+        <f>SUMIFS(K39:K49,K39:K49,"&gt;0")</f>
+        <v>1273.4400000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3995,8 +4064,9 @@
       </c>
       <c r="L41" s="80"/>
       <c r="M41" s="102"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="86"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4029,8 +4099,9 @@
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="101"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="86"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -4066,8 +4137,9 @@
       </c>
       <c r="L43" s="78"/>
       <c r="M43" s="103"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="86"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4103,8 +4175,9 @@
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="101"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="86"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -4136,8 +4209,9 @@
       </c>
       <c r="L45" s="90"/>
       <c r="M45" s="86"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="86"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -4172,8 +4246,9 @@
       </c>
       <c r="L46" s="90"/>
       <c r="M46" s="86"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="86"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -4205,8 +4280,9 @@
       </c>
       <c r="L47" s="90"/>
       <c r="M47" s="86"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="86"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4227,16 +4303,20 @@
         <v>4499</v>
       </c>
       <c r="H48" s="23">
-        <v>0</v>
+        <v>17.8</v>
+      </c>
+      <c r="I48" s="86">
+        <v>4600</v>
       </c>
       <c r="K48" s="86">
         <f t="shared" si="4"/>
-        <v>-4499</v>
+        <v>83.199999999999818</v>
       </c>
       <c r="L48" s="90"/>
       <c r="M48" s="86"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="86"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -4257,19 +4337,23 @@
         <v>4499</v>
       </c>
       <c r="H49" s="23">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I49" s="86">
+        <v>4727</v>
       </c>
       <c r="K49" s="86">
         <f t="shared" si="4"/>
-        <v>-4499</v>
+        <v>205</v>
       </c>
       <c r="L49" s="90"/>
       <c r="M49" s="86">
-        <f t="shared" ref="M48:M64" si="5">SUMIFS(K50:K95,K50:K95,"&lt;0")</f>
+        <f t="shared" ref="M49:M64" si="5">SUMIFS(K50:K95,K50:K95,"&lt;0")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="86"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="C50" s="6"/>
       <c r="K50" s="90"/>
       <c r="L50" s="90"/>
@@ -4277,8 +4361,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="86"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="C51" s="6"/>
       <c r="K51" s="90"/>
       <c r="L51" s="90"/>
@@ -4286,8 +4371,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="86"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="C52" s="6"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
@@ -4295,8 +4381,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="86"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="C53" s="6"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
@@ -4304,8 +4391,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="86"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="C54" s="6"/>
       <c r="K54" s="90"/>
       <c r="L54" s="90"/>
@@ -4313,8 +4401,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="86"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="C55" s="6"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
@@ -4322,8 +4411,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="86"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="C56" s="6"/>
       <c r="K56" s="90"/>
       <c r="L56" s="90"/>
@@ -4331,8 +4421,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="86"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="C57" s="6"/>
       <c r="K57" s="90"/>
       <c r="L57" s="90"/>
@@ -4340,8 +4431,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="86"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="C58" s="6"/>
       <c r="K58" s="90"/>
       <c r="L58" s="90"/>
@@ -4349,8 +4441,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="86"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="C59" s="6"/>
       <c r="K59" s="90"/>
       <c r="L59" s="90"/>
@@ -4358,8 +4451,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="86"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="C60" s="6"/>
       <c r="K60" s="90"/>
       <c r="L60" s="90"/>
@@ -4367,8 +4461,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="86"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="C61" s="6"/>
       <c r="K61" s="90"/>
       <c r="L61" s="90"/>
@@ -4376,8 +4471,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="86"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="C62" s="6"/>
       <c r="K62" s="90"/>
       <c r="L62" s="90"/>
@@ -4385,8 +4481,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="86"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="C63" s="6"/>
       <c r="K63" s="90"/>
       <c r="L63" s="90"/>
@@ -4394,8 +4491,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="86"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="C64" s="6"/>
       <c r="K64" s="90"/>
       <c r="L64" s="90"/>
@@ -4403,6 +4501,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N64" s="86"/>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="6"/>
@@ -4422,13 +4521,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L39:L44">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4448,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048565"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -4574,7 +4673,7 @@
         <f>SUM(F:F)</f>
         <v>33</v>
       </c>
-      <c r="U2" s="123" t="s">
+      <c r="U2" s="125" t="s">
         <v>141</v>
       </c>
       <c r="V2" s="66"/>
@@ -4626,7 +4725,7 @@
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="124"/>
+      <c r="U3" s="126"/>
       <c r="V3" s="66"/>
     </row>
     <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4672,7 +4771,7 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="124"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4727,7 +4826,7 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="125"/>
+      <c r="U5" s="127"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
@@ -6541,36 +6640,36 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K31">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K31">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K31">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6597,7 +6696,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B8B391-DCF0-5B43-8572-C8C0BAE3EB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B826A76-0F7E-8B46-8F93-C91A928C31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="相纸" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$M$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$K$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
   <si>
     <t>序号</t>
   </si>
@@ -78,187 +78,187 @@
   </si>
   <si>
     <t>华为mate x5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>京东原色苹果 15 pro max 256</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 7388 电脑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>抖音 6300 电脑 R7000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美团 迪士尼门票优惠券</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>支付宝 8183 联想R9000P</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 小米路由器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝直播间 天气丹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝小米门锁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 泸州老窖 特曲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 飞天 单瓶 空包裹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 飞天 双瓶 空包裹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>京东 索尼相机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 飞天双瓶 武汉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝北京卫视直播间香水</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>京东 处理器 CPU</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>总利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝直播间香水 返红包 修丽可小样</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>京东 苹果15pro 256 蓝色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>包含退差价269 + 晚赔140-100-140</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未知</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 苹果15pro  原色 256</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 苹果15  黑色 256</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝随箱礼 泸州老窖小特曲</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝李佳琪直播间迪奥口红套装</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回款日期、备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>戏曲纪念币 5元/枚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>拼多多15Promax256白色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抖音 一加ace 2 pro</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>天猫 羊排</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>283羊肉 + 83 羊肉  + 0 牛排  = 366，赔偿178。相当于188买了20斤羊肉和11块牛排</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抖音cpu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>晚发赔偿100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>葫芦娃 双瓶茅台</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3058+1405 双瓶+特产</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>i茅台</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>带票兔茅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>龙币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>龙钞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>三套 270出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1套 730出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1套已出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>瑕疵退货+8元运费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 拍立得 mini 12 白色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发货状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未发货</t>
@@ -268,31 +268,31 @@
   </si>
   <si>
     <t>淘宝直播间  娇韵诗 第八代 75ml</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 拍立得 mini 12 白色 标配 + 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 12 白色 标配 + 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 12  白色 标配 + 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 12 白色 标配 + 10张相纸 （相纸单出）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 12 白色 标配 + 10张相纸（相纸单出）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总成本价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已上架</t>
@@ -302,19 +302,19 @@
   </si>
   <si>
     <t>淘宝 拍立得 mini 7 白色 标配 + 10张相纸 （相纸单出）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">淘宝 拍立得 mini 7 白色 标配 + 20张相纸 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已搭配</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>货物状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未收货</t>
@@ -324,11 +324,11 @@
   </si>
   <si>
     <t>淘宝 拍立得 mini 12 白色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>店铺名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富士迪西</t>
@@ -338,130 +338,130 @@
   </si>
   <si>
     <t>富士恒敏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>琼姿天创</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富士海亿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富士沐橙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宏腾伟业</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火乐鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火乐鱼&amp;博融天创</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>南京航盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>博融天创</t>
   </si>
   <si>
     <t>来源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>店铺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>运费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>平均价格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 拍立得 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富士旗舰店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东海外</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得相纸 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>小红书 拍立得相纸 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总计数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>购买日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>搭配数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 拍立得 mini 7 蓝色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东 拍立得 mini 7 白色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>相机总量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10张拆出价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>20张搭配价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>相机包瑕疵 退费20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 12 蓝色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝直播间  娇韵诗 第八代 76ml</t>
@@ -471,128 +471,149 @@
   </si>
   <si>
     <t>买家取消 ，赔偿28</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 AirPodsPro 2代</t>
   </si>
   <si>
     <t>淘宝 黄金手镯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>信用卡满减5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>信用卡满减20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抖音 拍立得 20张相纸</t>
   </si>
   <si>
     <t>抖音 拍立得 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陇商专卖店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东富士</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">京东 拍立得 mini 7 白色 标配 + 20张相纸 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝百亿补贴 iPhone15 pro 256</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>京东  iPhone15 pro 256</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝百补 iPhone15PM</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抖音陇商富士</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 大疆pocket3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可以回购原价 20张 的相纸。24/7-25/6月</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群里抽奖 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群抽奖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>小红书心愿单 相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富士宏敏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 拍立得 mini 90  棕色 标配 + 20张相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第三方店铺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群抽奖中奖的相纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>果果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>苏瑞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>冯晶</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>去的运费+回来运费+耳机到付=66.8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抖音 拍立得 mini40  一世风靡礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>返现6块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音 拍立得 mini 12 白色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>淘宝 大疆pocket4</t>
-  </si>
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音 大疆pocket3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 红米K70E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 红米note12T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝IQOO neo 9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回款总额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +629,7 @@
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,22 +670,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -726,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,12 +747,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -972,29 +971,9 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1036,28 +1015,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,19 +1052,19 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1109,7 +1079,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1130,13 +1100,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,7 +1118,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1166,16 +1136,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1184,7 +1154,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1193,7 +1163,7 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1208,16 +1178,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1241,25 +1211,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="6" borderId="7" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,13 +1241,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,25 +1253,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,15 +1274,12 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,55 +1301,34 @@
     <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1337,7 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1427,20 +1358,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1448,7 +1376,81 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2049,92 +2051,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2242,36 +2158,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2286,58 +2172,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:N64" totalsRowShown="0" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
-  <autoFilter ref="A1:N64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:K64" totalsRowShown="0" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
+  <autoFilter ref="A1:K64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="36">
       <calculatedColumnFormula>I2-H2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{05DC8520-AAAE-6648-AE78-131373ED1A1D}" name="总利润" dataDxfId="38">
-      <calculatedColumnFormula>SUMIFS(K3:K47,K3:K47,"&gt;0")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{0AC4C46F-E2F2-7C48-8B7C-795192A22A97}" name="未回款总额" dataDxfId="37">
-      <calculatedColumnFormula>SUMIFS(K3:K48,K3:K48,"&lt;0")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{3DF4A523-4590-0743-8700-06A139BDE50A}" name="列1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q31" totalsRowShown="0" tableBorderDxfId="27">
-  <autoFilter ref="A1:Q31" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="35">
+  <autoFilter ref="A1:Q32" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="18">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2346,19 +2225,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="8">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2627,9 +2506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2637,18 +2516,16 @@
     <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="81" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="86" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="81" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="81" customWidth="1"/>
     <col min="10" max="10" width="41.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="96" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="16" max="16" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="90" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="33">
@@ -2661,13 +2538,13 @@
       <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="79" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="70" t="s">
@@ -2676,46 +2553,28 @@
       <c r="H1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="79" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="86" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="124" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="33">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="85"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="35"/>
       <c r="H2" s="33"/>
-      <c r="I2" s="85"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="33"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="97">
-        <f t="shared" ref="L2" si="0">SUMIFS(K3:K47,K3:K47,"&gt;0")</f>
-        <v>9768.590000000002</v>
-      </c>
-      <c r="M2" s="98">
-        <f t="shared" ref="M2" si="1">SUMIFS(K3:K48,K3:K48,"&lt;0")</f>
-        <v>-6539</v>
-      </c>
-      <c r="N2" s="123"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
@@ -2727,32 +2586,29 @@
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="81">
         <v>12999</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="81">
         <f>D3*E3</f>
         <v>12999</v>
       </c>
       <c r="H3" s="4">
         <v>17</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="81">
         <v>13700</v>
       </c>
       <c r="J3" s="4">
         <v>10.119999999999999</v>
       </c>
-      <c r="K3" s="94">
-        <f t="shared" ref="K3:K33" si="2">I3-H3-F3</f>
+      <c r="K3" s="88">
+        <f t="shared" ref="K3:K33" si="0">I3-H3-F3</f>
         <v>684</v>
       </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
@@ -2764,32 +2620,29 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="81">
         <v>9999</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="81">
         <f>D4*E4</f>
         <v>9999</v>
       </c>
       <c r="H4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="81">
         <v>10020</v>
       </c>
       <c r="J4" s="4">
         <v>10.11</v>
       </c>
-      <c r="K4" s="95">
-        <f t="shared" si="2"/>
+      <c r="K4" s="89">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
@@ -2801,32 +2654,35 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="81">
         <v>7388</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="86">
-        <f t="shared" ref="F5:F49" si="3">D5*E5</f>
+      <c r="F5" s="81">
+        <f t="shared" ref="F5:F54" si="1">D5*E5</f>
         <v>7388</v>
       </c>
       <c r="H5" s="4">
         <v>23</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="81">
         <v>7540</v>
       </c>
       <c r="J5" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="K5" s="94">
-        <f t="shared" si="2"/>
+      <c r="K5" s="88">
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
+      <c r="M5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
@@ -2838,32 +2694,37 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="81">
         <v>10098</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="86">
-        <f t="shared" si="3"/>
+      <c r="F6" s="81">
+        <f t="shared" si="1"/>
         <v>10098</v>
       </c>
       <c r="H6" s="4">
         <v>100</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="81">
         <v>10560</v>
       </c>
       <c r="J6" s="4">
         <v>10.31</v>
       </c>
-      <c r="K6" s="95">
-        <f t="shared" si="2"/>
+      <c r="K6" s="89">
+        <f t="shared" si="0"/>
         <v>362</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="86"/>
+      <c r="M6" s="113">
+        <f>SUMIFS(K3:K54,K3:K54,"&gt;0")</f>
+        <v>10056.790000000001</v>
+      </c>
+      <c r="N6" s="113">
+        <f>SUMIFS(K3:K54,K3:K54,"&lt;0")</f>
+        <v>-20737.669999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
@@ -2875,32 +2736,29 @@
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="81">
         <v>6186</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="86">
-        <f t="shared" si="3"/>
+      <c r="F7" s="81">
+        <f t="shared" si="1"/>
         <v>6186</v>
       </c>
       <c r="H7" s="4">
         <v>34</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="81">
         <v>6500</v>
       </c>
       <c r="J7" s="4">
         <v>11.02</v>
       </c>
-      <c r="K7" s="94">
-        <f t="shared" si="2"/>
+      <c r="K7" s="88">
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
@@ -2912,29 +2770,26 @@
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="81">
         <v>0</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="86">
-        <f t="shared" si="3"/>
+      <c r="F8" s="81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="81">
         <v>40</v>
       </c>
-      <c r="K8" s="95">
-        <f t="shared" si="2"/>
+      <c r="K8" s="89">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
@@ -2946,29 +2801,26 @@
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="81">
         <v>8183.1</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="86">
-        <f t="shared" si="3"/>
+      <c r="F9" s="81">
+        <f t="shared" si="1"/>
         <v>8183.1</v>
       </c>
       <c r="H9" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="81">
         <v>8350</v>
       </c>
-      <c r="K9" s="94">
-        <f t="shared" si="2"/>
+      <c r="K9" s="88">
+        <f t="shared" si="0"/>
         <v>146.5</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
@@ -2980,29 +2832,26 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="81">
         <v>95</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="86">
-        <f t="shared" si="3"/>
+      <c r="F10" s="81">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="H10" s="4">
         <v>13.2</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="81">
         <v>180</v>
       </c>
-      <c r="K10" s="95">
-        <f t="shared" si="2"/>
+      <c r="K10" s="89">
+        <f t="shared" si="0"/>
         <v>71.800000000000011</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
@@ -3014,32 +2863,29 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="81">
         <v>614</v>
       </c>
       <c r="E11" s="4">
         <v>14</v>
       </c>
-      <c r="F11" s="86">
-        <f t="shared" si="3"/>
+      <c r="F11" s="81">
+        <f t="shared" si="1"/>
         <v>8596</v>
       </c>
       <c r="H11" s="4">
         <v>107</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="81">
         <v>9211</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="94">
-        <f t="shared" si="2"/>
+      <c r="K11" s="88">
+        <f t="shared" si="0"/>
         <v>508</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
@@ -3051,29 +2897,26 @@
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="81">
         <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="86">
-        <f t="shared" si="3"/>
+      <c r="F12" s="81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="81">
         <v>304</v>
       </c>
-      <c r="K12" s="95">
-        <f t="shared" si="2"/>
+      <c r="K12" s="89">
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
@@ -3085,29 +2928,26 @@
       <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="81">
         <v>7</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="86">
-        <f t="shared" si="3"/>
+      <c r="F13" s="81">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="81">
         <v>50</v>
       </c>
-      <c r="K13" s="94">
-        <f t="shared" si="2"/>
+      <c r="K13" s="88">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
@@ -3116,29 +2956,26 @@
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="81">
         <v>2676</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="86">
-        <f t="shared" si="3"/>
+      <c r="F14" s="81">
+        <f t="shared" si="1"/>
         <v>2676</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="81">
         <v>2780</v>
       </c>
-      <c r="K14" s="95">
-        <f t="shared" si="2"/>
+      <c r="K14" s="89">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
@@ -3147,29 +2984,26 @@
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="81">
         <v>6095</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="86">
-        <f t="shared" si="3"/>
+      <c r="F15" s="81">
+        <f t="shared" si="1"/>
         <v>6095</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="81">
         <v>6190</v>
       </c>
-      <c r="K15" s="94">
-        <f t="shared" si="2"/>
+      <c r="K15" s="88">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
@@ -3178,127 +3012,115 @@
       <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="81">
         <v>9780</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="86">
-        <f t="shared" si="3"/>
+      <c r="F16" s="81">
+        <f t="shared" si="1"/>
         <v>9780</v>
       </c>
       <c r="H16" s="4">
         <v>12</v>
       </c>
-      <c r="I16" s="86">
+      <c r="I16" s="81">
         <v>12300</v>
       </c>
-      <c r="K16" s="95">
-        <f t="shared" si="2"/>
+      <c r="K16" s="89">
+        <f t="shared" si="0"/>
         <v>2508</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="81">
         <v>5299</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="86">
-        <f t="shared" si="3"/>
+      <c r="F17" s="81">
+        <f t="shared" si="1"/>
         <v>5299</v>
       </c>
       <c r="H17" s="4">
         <v>25</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="81">
         <v>5400</v>
       </c>
-      <c r="K17" s="94">
-        <f t="shared" si="2"/>
+      <c r="K17" s="88">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="81">
         <v>453.75</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="86">
-        <f t="shared" si="3"/>
+      <c r="F18" s="81">
+        <f t="shared" si="1"/>
         <v>1815</v>
       </c>
       <c r="H18" s="4">
         <v>11.4</v>
       </c>
-      <c r="I18" s="86">
+      <c r="I18" s="81">
         <v>1908</v>
       </c>
-      <c r="K18" s="95">
-        <f t="shared" si="2"/>
+      <c r="K18" s="89">
+        <f t="shared" si="0"/>
         <v>81.599999999999909</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="81">
         <v>4390</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="86">
-        <f t="shared" si="3"/>
+      <c r="F19" s="81">
+        <f t="shared" si="1"/>
         <v>4390</v>
       </c>
       <c r="H19" s="4">
         <v>31.2</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I19" s="81">
         <v>4500</v>
       </c>
       <c r="J19" s="4">
         <v>11.6</v>
       </c>
-      <c r="K19" s="94">
-        <f t="shared" si="2"/>
+      <c r="K19" s="88">
+        <f t="shared" si="0"/>
         <v>78.800000000000182</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3308,34 +3130,31 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="81">
         <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="86">
-        <f t="shared" si="3"/>
+      <c r="F20" s="81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
         <v>6</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="81">
         <v>115</v>
       </c>
       <c r="J20" s="4">
         <v>11.9</v>
       </c>
-      <c r="K20" s="95">
-        <f t="shared" si="2"/>
+      <c r="K20" s="89">
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="L20" s="90"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3345,34 +3164,31 @@
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="81">
         <v>7877</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="86">
-        <f t="shared" si="3"/>
+      <c r="F21" s="81">
+        <f t="shared" si="1"/>
         <v>7877</v>
       </c>
       <c r="H21" s="4">
         <v>28</v>
       </c>
-      <c r="I21" s="86">
+      <c r="I21" s="81">
         <v>8100</v>
       </c>
       <c r="J21" s="4">
         <v>11.7</v>
       </c>
-      <c r="K21" s="94">
-        <f t="shared" si="2"/>
+      <c r="K21" s="88">
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="L21" s="90"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3382,34 +3198,31 @@
       <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="81">
         <v>5973</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="86">
-        <f t="shared" si="3"/>
+      <c r="F22" s="81">
+        <f t="shared" si="1"/>
         <v>5973</v>
       </c>
       <c r="H22" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="I22" s="86">
+      <c r="I22" s="81">
         <v>6100</v>
       </c>
       <c r="J22" s="4">
         <v>11.1</v>
       </c>
-      <c r="K22" s="95">
-        <f t="shared" si="2"/>
+      <c r="K22" s="89">
+        <f t="shared" si="0"/>
         <v>86.800000000000182</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3419,31 +3232,28 @@
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="81">
         <v>8138.7</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="86">
-        <f t="shared" si="3"/>
+      <c r="F23" s="81">
+        <f t="shared" si="1"/>
         <v>8138.7</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="81">
         <v>8180</v>
       </c>
-      <c r="K23" s="94">
-        <f t="shared" si="2"/>
+      <c r="K23" s="88">
+        <f t="shared" si="0"/>
         <v>41.300000000000182</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3453,31 +3263,28 @@
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="81">
         <v>8115.25</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="86">
-        <f t="shared" si="3"/>
+      <c r="F24" s="81">
+        <f t="shared" si="1"/>
         <v>8115.25</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="86">
+      <c r="I24" s="81">
         <v>8180</v>
       </c>
-      <c r="K24" s="95">
-        <f t="shared" si="2"/>
+      <c r="K24" s="89">
+        <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
-      <c r="L24" s="90"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3487,31 +3294,28 @@
       <c r="C25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="81">
         <v>7</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="86">
-        <f t="shared" si="3"/>
+      <c r="F25" s="81">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H25" s="4">
         <v>16.8</v>
       </c>
-      <c r="I25" s="86">
+      <c r="I25" s="81">
         <v>186</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="88">
         <f>I25-H25-F25</f>
         <v>162.19999999999999</v>
       </c>
-      <c r="L25" s="90"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3521,31 +3325,28 @@
       <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="81">
         <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="86">
-        <f t="shared" si="3"/>
+      <c r="F26" s="81">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H26" s="4">
         <v>9</v>
       </c>
-      <c r="I26" s="86">
+      <c r="I26" s="81">
         <v>304</v>
       </c>
-      <c r="K26" s="95">
-        <f t="shared" si="2"/>
+      <c r="K26" s="89">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="L26" s="90"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3555,31 +3356,28 @@
       <c r="C27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="81">
         <v>380</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
-      <c r="F27" s="86">
-        <f t="shared" si="3"/>
+      <c r="F27" s="81">
+        <f t="shared" si="1"/>
         <v>760</v>
       </c>
       <c r="H27" s="4">
         <v>10</v>
       </c>
-      <c r="I27" s="86">
+      <c r="I27" s="81">
         <v>830</v>
       </c>
-      <c r="K27" s="94">
-        <f t="shared" si="2"/>
+      <c r="K27" s="88">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L27" s="90"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3589,31 +3387,28 @@
       <c r="C28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="81">
         <v>8896</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="86">
-        <f t="shared" si="3"/>
+      <c r="F28" s="81">
+        <f t="shared" si="1"/>
         <v>8896</v>
       </c>
       <c r="H28" s="4">
         <v>10</v>
       </c>
-      <c r="I28" s="86">
+      <c r="I28" s="81">
         <v>9070</v>
       </c>
-      <c r="K28" s="95">
-        <f t="shared" si="2"/>
+      <c r="K28" s="89">
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="L28" s="90"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3623,31 +3418,28 @@
       <c r="C29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="81">
         <v>3189</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="86">
-        <f t="shared" si="3"/>
+      <c r="F29" s="81">
+        <f t="shared" si="1"/>
         <v>3189</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="86">
+      <c r="I29" s="81">
         <v>3270</v>
       </c>
-      <c r="K29" s="94">
-        <f t="shared" si="2"/>
+      <c r="K29" s="88">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="L29" s="90"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-    </row>
-    <row r="30" spans="1:14" ht="63" customHeight="1">
+    </row>
+    <row r="30" spans="1:11" ht="63" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3657,31 +3449,28 @@
       <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="81">
         <v>366</v>
       </c>
-      <c r="F30" s="86">
-        <f t="shared" si="3"/>
+      <c r="F30" s="81">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="86">
+      <c r="I30" s="81">
         <v>178.8</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="95">
-        <f t="shared" si="2"/>
+      <c r="K30" s="89">
+        <f t="shared" si="0"/>
         <v>178.8</v>
       </c>
-      <c r="L30" s="90"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3691,65 +3480,59 @@
       <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="81">
         <v>1080</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="86">
-        <f t="shared" si="3"/>
+      <c r="F31" s="81">
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="H31" s="4">
         <v>7.2</v>
       </c>
-      <c r="I31" s="86">
+      <c r="I31" s="81">
         <v>1170</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="94">
-        <f t="shared" si="2"/>
+      <c r="K31" s="88">
+        <f t="shared" si="0"/>
         <v>82.799999999999955</v>
       </c>
-      <c r="L31" s="90"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="81">
         <v>2619</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="86">
-        <f t="shared" si="3"/>
+      <c r="F32" s="81">
+        <f t="shared" si="1"/>
         <v>2619</v>
       </c>
       <c r="H32" s="4">
         <v>9</v>
       </c>
-      <c r="I32" s="86">
+      <c r="I32" s="81">
         <v>2640</v>
       </c>
-      <c r="K32" s="95">
-        <f t="shared" si="2"/>
+      <c r="K32" s="89">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L32" s="90"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3759,93 +3542,84 @@
       <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="81">
         <v>1499</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="86">
-        <f t="shared" si="3"/>
+      <c r="F33" s="81">
+        <f t="shared" si="1"/>
         <v>2998</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="94">
+      <c r="K33" s="88">
+        <f t="shared" si="0"/>
+        <v>-2998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="81">
+        <v>2499</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="1"/>
+        <v>2499</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="81">
+        <v>3000</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="89">
+        <f t="shared" ref="K34:K55" si="2">I34-H34-F34</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="11">
+        <v>45301</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="81">
+        <v>1499</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="1"/>
+        <v>2998</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="88">
         <f t="shared" si="2"/>
         <v>-2998</v>
       </c>
-      <c r="L33" s="90"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="86">
-        <v>2499</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="86">
-        <f t="shared" si="3"/>
-        <v>2499</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="86">
-        <v>3000</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="95">
-        <f t="shared" ref="K34:K49" si="4">I34-H34-F34</f>
-        <v>501</v>
-      </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="11">
-        <v>45301</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="86">
-        <v>1499</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="86">
-        <f t="shared" si="3"/>
-        <v>2998</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="94">
-        <f t="shared" si="4"/>
-        <v>-2998</v>
-      </c>
-      <c r="L35" s="90"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3855,34 +3629,31 @@
       <c r="C36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="86">
+      <c r="D36" s="81">
         <v>200</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="86">
-        <f t="shared" si="3"/>
+      <c r="F36" s="81">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="86">
+      <c r="I36" s="81">
         <v>810</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="95">
-        <f t="shared" si="4"/>
+      <c r="K36" s="89">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="L36" s="90"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3892,34 +3663,31 @@
       <c r="C37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="86">
+      <c r="D37" s="81">
         <v>400</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="86">
-        <f t="shared" si="3"/>
+      <c r="F37" s="81">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="H37" s="4">
         <v>10</v>
       </c>
-      <c r="I37" s="86">
+      <c r="I37" s="81">
         <v>730</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="94">
-        <f t="shared" si="4"/>
+      <c r="K37" s="88">
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="L37" s="90"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3929,144 +3697,129 @@
       <c r="C38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="86">
+      <c r="D38" s="81">
         <v>400</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="86">
-        <f t="shared" si="3"/>
+      <c r="F38" s="81">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="86">
+      <c r="I38" s="81">
         <v>1300</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="86">
-        <f t="shared" si="4"/>
+      <c r="K38" s="81">
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="L38" s="90"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="11">
         <v>45301</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="83">
         <v>605</v>
       </c>
-      <c r="E39" s="74">
-        <v>1</v>
-      </c>
-      <c r="F39" s="86">
-        <f t="shared" si="3"/>
+      <c r="E39" s="72">
+        <v>1</v>
+      </c>
+      <c r="F39" s="81">
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73">
         <v>11</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="83">
         <v>625.87</v>
       </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="86">
-        <f t="shared" si="4"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="81">
+        <f t="shared" si="2"/>
         <v>9.8700000000000045</v>
       </c>
-      <c r="L39" s="77"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="86"/>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="11">
         <v>45301</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="86">
+      <c r="D40" s="81">
         <v>606</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
-      <c r="F40" s="86">
-        <f t="shared" si="3"/>
+      <c r="F40" s="81">
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23">
         <v>6</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="83">
         <v>625.87</v>
       </c>
-      <c r="K40" s="86">
-        <f t="shared" si="4"/>
+      <c r="K40" s="81">
+        <f t="shared" si="2"/>
         <v>13.870000000000005</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="86">
-        <f>SUMIFS(K39:K49,K39:K49,"&gt;0")</f>
-        <v>1273.4400000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>41</v>
       </c>
       <c r="B41" s="11">
         <v>45301</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="88">
+      <c r="D41" s="83">
         <v>543</v>
       </c>
-      <c r="E41" s="74">
-        <v>1</v>
-      </c>
-      <c r="F41" s="86">
-        <f t="shared" si="3"/>
+      <c r="E41" s="72">
+        <v>1</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="1"/>
         <v>543</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75">
+      <c r="G41" s="73"/>
+      <c r="H41" s="73">
         <v>0</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="79" t="s">
+      <c r="I41" s="83"/>
+      <c r="J41" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="K41" s="86">
-        <f t="shared" si="4"/>
+      <c r="K41" s="81">
+        <f t="shared" si="2"/>
         <v>-543</v>
       </c>
-      <c r="L41" s="80"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="86"/>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4076,70 +3829,64 @@
       <c r="C42" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="86">
+      <c r="D42" s="81">
         <v>6526</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="F42" s="86">
-        <f t="shared" si="3"/>
+      <c r="F42" s="81">
+        <f t="shared" si="1"/>
         <v>6526</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23">
         <v>0</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="81">
         <v>6830</v>
       </c>
-      <c r="K42" s="86">
-        <f t="shared" si="4"/>
+      <c r="K42" s="81">
+        <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="86"/>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="11">
         <v>45450</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="82">
         <v>1328</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="77">
         <v>2</v>
       </c>
-      <c r="F43" s="86">
-        <f t="shared" si="3"/>
+      <c r="F43" s="81">
+        <f t="shared" si="1"/>
         <v>2656</v>
       </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83">
+      <c r="G43" s="78"/>
+      <c r="H43" s="78">
         <v>17.600000000000001</v>
       </c>
-      <c r="I43" s="86">
+      <c r="I43" s="81">
         <v>2801.5</v>
       </c>
-      <c r="J43" s="79" t="s">
+      <c r="J43" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="K43" s="86">
-        <f t="shared" si="4"/>
+      <c r="K43" s="81">
+        <f t="shared" si="2"/>
         <v>127.90000000000009</v>
       </c>
-      <c r="L43" s="78"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="86"/>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4149,35 +3896,32 @@
       <c r="C44" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="86">
+      <c r="D44" s="81">
         <v>4600</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="F44" s="86">
-        <f t="shared" si="3"/>
+      <c r="F44" s="81">
+        <f t="shared" si="1"/>
         <v>9200</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23">
         <v>0</v>
       </c>
-      <c r="I44" s="86">
+      <c r="I44" s="81">
         <v>9486.2800000000007</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K44" s="86">
-        <f t="shared" si="4"/>
+      <c r="K44" s="81">
+        <f t="shared" si="2"/>
         <v>286.28000000000065</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="86"/>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -4187,31 +3931,28 @@
       <c r="C45" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="86">
+      <c r="D45" s="81">
         <v>6841.68</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="F45" s="86">
-        <f t="shared" si="3"/>
+      <c r="F45" s="81">
+        <f t="shared" si="1"/>
         <v>6841.68</v>
       </c>
       <c r="H45" s="23">
         <v>0</v>
       </c>
-      <c r="I45" s="86">
+      <c r="I45" s="81">
         <v>6880</v>
       </c>
-      <c r="K45" s="86">
-        <f t="shared" si="4"/>
+      <c r="K45" s="81">
+        <f t="shared" si="2"/>
         <v>38.319999999999709</v>
       </c>
-      <c r="L45" s="90"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -4221,34 +3962,31 @@
       <c r="C46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="86">
+      <c r="D46" s="81">
         <v>6876</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="F46" s="86">
-        <f t="shared" si="3"/>
+      <c r="F46" s="81">
+        <f t="shared" si="1"/>
         <v>6876</v>
       </c>
       <c r="H46" s="23">
         <v>0</v>
       </c>
-      <c r="I46" s="86">
+      <c r="I46" s="81">
         <v>6880</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K46" s="86">
-        <f t="shared" si="4"/>
+      <c r="K46" s="81">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L46" s="90"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -4258,31 +3996,28 @@
       <c r="C47" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="86">
+      <c r="D47" s="81">
         <v>7579</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="F47" s="86">
-        <f t="shared" si="3"/>
+      <c r="F47" s="81">
+        <f t="shared" si="1"/>
         <v>7579</v>
       </c>
       <c r="H47" s="23">
         <v>0</v>
       </c>
-      <c r="I47" s="86">
+      <c r="I47" s="81">
         <v>7780</v>
       </c>
-      <c r="K47" s="86">
-        <f t="shared" si="4"/>
+      <c r="K47" s="81">
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="L47" s="90"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4292,31 +4027,28 @@
       <c r="C48" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="86">
+      <c r="D48" s="81">
         <v>4499</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="86">
-        <f t="shared" si="3"/>
+      <c r="F48" s="81">
+        <f t="shared" si="1"/>
         <v>4499</v>
       </c>
       <c r="H48" s="23">
         <v>17.8</v>
       </c>
-      <c r="I48" s="86">
+      <c r="I48" s="81">
         <v>4600</v>
       </c>
-      <c r="K48" s="86">
-        <f t="shared" si="4"/>
+      <c r="K48" s="81">
+        <f t="shared" si="2"/>
         <v>83.199999999999818</v>
       </c>
-      <c r="L48" s="90"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -4324,184 +4056,208 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="86">
+        <v>145</v>
+      </c>
+      <c r="D49" s="81">
         <v>4499</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49" s="86">
-        <f t="shared" si="3"/>
+      <c r="F49" s="81">
+        <f t="shared" si="1"/>
         <v>4499</v>
       </c>
       <c r="H49" s="23">
         <v>23</v>
       </c>
-      <c r="I49" s="86">
+      <c r="I49" s="81">
         <v>4727</v>
       </c>
-      <c r="K49" s="86">
-        <f t="shared" si="4"/>
+      <c r="K49" s="81">
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="L49" s="90"/>
-      <c r="M49" s="86">
-        <f t="shared" ref="M49:M64" si="5">SUMIFS(K50:K95,K50:K95,"&lt;0")</f>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45459</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="81">
+        <v>1677.01</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="1"/>
+        <v>1677.01</v>
+      </c>
+      <c r="H50" s="23">
         <v>0</v>
       </c>
-      <c r="N49" s="86"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="C50" s="6"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="86">
-        <f t="shared" si="5"/>
+      <c r="K50" s="81">
+        <f t="shared" si="2"/>
+        <v>-1677.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45459</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="81">
+        <v>1316.02</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="1"/>
+        <v>1316.02</v>
+      </c>
+      <c r="H51" s="23">
         <v>0</v>
       </c>
-      <c r="N50" s="86"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="C51" s="6"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="86">
-        <f t="shared" si="5"/>
+      <c r="K51" s="81">
+        <f t="shared" si="2"/>
+        <v>-1316.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45459</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="81">
+        <v>1859.24</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="1"/>
+        <v>1859.24</v>
+      </c>
+      <c r="H52" s="23">
         <v>0</v>
       </c>
-      <c r="N51" s="86"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="C52" s="6"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="86">
-        <f t="shared" si="5"/>
+      <c r="K52" s="81">
+        <f t="shared" si="2"/>
+        <v>-1859.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45463</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="81">
+        <v>4499</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="1"/>
+        <v>4499</v>
+      </c>
+      <c r="H53" s="23">
         <v>0</v>
       </c>
-      <c r="N52" s="86"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="C53" s="6"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="86">
-        <f t="shared" si="5"/>
+      <c r="K53" s="81">
+        <f t="shared" si="2"/>
+        <v>-4499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45463</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="81">
+        <v>4847.3999999999996</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="1"/>
+        <v>4847.3999999999996</v>
+      </c>
+      <c r="H54" s="23">
         <v>0</v>
       </c>
-      <c r="N53" s="86"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="C54" s="6"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="86"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="K54" s="81">
+        <f t="shared" si="2"/>
+        <v>-4847.3999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="C55" s="6"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="86"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="K55" s="81"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="C56" s="6"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="86"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="K56" s="84"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="C57" s="6"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="86"/>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="K57" s="84"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="C58" s="6"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="86"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="K58" s="84"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="C59" s="6"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="86"/>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="K59" s="84"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="C60" s="6"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="86"/>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="K60" s="84"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="C61" s="6"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="86"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="K61" s="84"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="C62" s="6"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="86"/>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="K62" s="84"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="C63" s="6"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="86"/>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="K63" s="84"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="C64" s="6"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="86"/>
+      <c r="K64" s="84"/>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="6"/>
@@ -4519,23 +4275,7 @@
       <c r="C69" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="L39:L44">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="已结清">
-      <formula>NOT(ISERROR(SEARCH("已结清",L39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="已发货">
-      <formula>NOT(ISERROR(SEARCH("已发货",L39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
-      <formula>"未发货"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
-      <formula1>"未发货,已发货,已结清,已取消"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4545,11 +4285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
-  <dimension ref="A1:V1048565"/>
+  <dimension ref="A1:V1048566"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4644,23 +4384,23 @@
       <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="23" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
       <c r="N2" s="33"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
         <v>517.69272727272721</v>
@@ -4671,37 +4411,37 @@
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
-        <v>33</v>
-      </c>
-      <c r="U2" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="110" t="s">
         <v>141</v>
       </c>
       <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1">
-      <c r="A3" s="104">
-        <v>1</v>
-      </c>
-      <c r="B3" s="105">
+      <c r="A3" s="91">
+        <v>1</v>
+      </c>
+      <c r="B3" s="92">
         <v>45444</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="94">
         <v>761</v>
       </c>
-      <c r="F3" s="108">
-        <v>1</v>
-      </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111">
-        <f t="shared" ref="J3:J31" si="0">E3*F3 - G3*F3 + H3*I3</f>
+      <c r="F3" s="95">
+        <v>1</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98">
+        <f t="shared" ref="J3:J32" si="0">E3*F3 - G3*F3 + H3*I3</f>
         <v>761</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -4710,26 +4450,26 @@
       <c r="L3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="108">
+      <c r="M3" s="99"/>
+      <c r="N3" s="95">
         <v>8</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="106" t="s">
+      <c r="O3" s="96"/>
+      <c r="P3" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="113">
-        <f t="shared" ref="Q3:Q31" si="1">SUM(O3-J3-N3 )</f>
+      <c r="Q3" s="100">
+        <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
         <v>-769</v>
       </c>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="126"/>
+      <c r="U3" s="111"/>
       <c r="V3" s="66"/>
     </row>
     <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="104">
+      <c r="A4" s="91">
         <v>2</v>
       </c>
       <c r="B4" s="16">
@@ -4771,11 +4511,11 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="126"/>
+      <c r="U4" s="111"/>
       <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="104">
+      <c r="A5" s="91">
         <v>3</v>
       </c>
       <c r="B5" s="16">
@@ -4826,11 +4566,11 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="127"/>
+      <c r="U5" s="112"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
-      <c r="A6" s="104">
+      <c r="A6" s="91">
         <v>4</v>
       </c>
       <c r="B6" s="16">
@@ -4880,7 +4620,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
-      <c r="A7" s="104">
+      <c r="A7" s="91">
         <v>5</v>
       </c>
       <c r="B7" s="16">
@@ -4930,7 +4670,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
-      <c r="A8" s="104">
+      <c r="A8" s="91">
         <v>6</v>
       </c>
       <c r="B8" s="16">
@@ -4976,7 +4716,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
-      <c r="A9" s="104">
+      <c r="A9" s="91">
         <v>7</v>
       </c>
       <c r="B9" s="16">
@@ -5017,7 +4757,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
-      <c r="A10" s="104">
+      <c r="A10" s="91">
         <v>8</v>
       </c>
       <c r="B10" s="29">
@@ -5062,7 +4802,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
-      <c r="A11" s="104">
+      <c r="A11" s="91">
         <v>9</v>
       </c>
       <c r="B11" s="16">
@@ -5112,7 +4852,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
-      <c r="A12" s="104">
+      <c r="A12" s="91">
         <v>10</v>
       </c>
       <c r="B12" s="16">
@@ -5162,7 +4902,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
-      <c r="A13" s="104">
+      <c r="A13" s="91">
         <v>11</v>
       </c>
       <c r="B13" s="16">
@@ -5210,7 +4950,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
-      <c r="A14" s="104">
+      <c r="A14" s="91">
         <v>12</v>
       </c>
       <c r="B14" s="16">
@@ -5243,7 +4983,7 @@
         <v>522.96181818181822</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>59</v>
@@ -5258,7 +4998,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
-      <c r="A15" s="104">
+      <c r="A15" s="91">
         <v>13</v>
       </c>
       <c r="B15" s="16">
@@ -5291,7 +5031,7 @@
         <v>512.96181818181822</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>59</v>
@@ -5306,7 +5046,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="91">
         <v>14</v>
       </c>
       <c r="B16" s="16">
@@ -5339,7 +5079,7 @@
         <v>497.96181818181822</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>59</v>
@@ -5354,7 +5094,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="91">
         <v>15</v>
       </c>
       <c r="B17" s="16">
@@ -5380,7 +5120,7 @@
         <v>521</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>59</v>
@@ -5395,7 +5135,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
-      <c r="A18" s="104">
+      <c r="A18" s="91">
         <v>16</v>
       </c>
       <c r="B18" s="16">
@@ -5445,7 +5185,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
-      <c r="A19" s="104">
+      <c r="A19" s="91">
         <v>17</v>
       </c>
       <c r="B19" s="16">
@@ -5495,7 +5235,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="104">
+      <c r="A20" s="91">
         <v>18</v>
       </c>
       <c r="B20" s="16">
@@ -5541,7 +5281,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
-      <c r="A21" s="104">
+      <c r="A21" s="91">
         <v>19</v>
       </c>
       <c r="B21" s="16">
@@ -5591,7 +5331,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
-      <c r="A22" s="104">
+      <c r="A22" s="91">
         <v>20</v>
       </c>
       <c r="B22" s="16">
@@ -5637,7 +5377,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
-      <c r="A23" s="104">
+      <c r="A23" s="91">
         <v>21</v>
       </c>
       <c r="B23" s="16">
@@ -5681,7 +5421,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
-      <c r="A24" s="104">
+      <c r="A24" s="91">
         <v>22</v>
       </c>
       <c r="B24" s="16">
@@ -5729,7 +5469,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
-      <c r="A25" s="104">
+      <c r="A25" s="91">
         <v>23</v>
       </c>
       <c r="B25" s="16">
@@ -5777,7 +5517,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
-      <c r="A26" s="104">
+      <c r="A26" s="91">
         <v>24</v>
       </c>
       <c r="B26" s="16">
@@ -5825,7 +5565,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
-      <c r="A27" s="104">
+      <c r="A27" s="91">
         <v>26</v>
       </c>
       <c r="B27" s="16">
@@ -5854,7 +5594,7 @@
         <v>676.25</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>59</v>
@@ -5869,7 +5609,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
-      <c r="A28" s="104">
+      <c r="A28" s="91">
         <v>27</v>
       </c>
       <c r="B28" s="16">
@@ -5898,7 +5638,7 @@
         <v>518.69000000000005</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>59</v>
@@ -5915,7 +5655,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
-      <c r="A29" s="104">
+      <c r="A29" s="91">
         <v>28</v>
       </c>
       <c r="B29" s="16">
@@ -5944,7 +5684,7 @@
         <v>518</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>59</v>
@@ -5961,7 +5701,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
-      <c r="A30" s="104">
+      <c r="A30" s="91">
         <v>29</v>
       </c>
       <c r="B30" s="16">
@@ -5990,7 +5730,7 @@
         <v>519.29999999999995</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>59</v>
@@ -6007,7 +5747,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
-      <c r="A31" s="104">
+      <c r="A31" s="91">
         <v>30</v>
       </c>
       <c r="B31" s="16">
@@ -6026,45 +5766,79 @@
         <v>1</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="22">
+        <f>相纸!I4</f>
+        <v>92.961818181818188</v>
+      </c>
+      <c r="I31" s="57">
+        <v>2</v>
+      </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>1601</v>
+        <v>1786.9236363636364</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="22"/>
+      <c r="O31" s="22">
+        <v>2130</v>
+      </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
-        <v>-1601</v>
+        <v>343.07636363636357</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="91">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="18">
+        <v>699</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="H32" s="22">
+        <f>相纸!I4</f>
+        <v>92.961818181818188</v>
+      </c>
+      <c r="I32" s="57">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>791.96181818181822</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="15"/>
       <c r="O32" s="22"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="53"/>
+      <c r="Q32" s="52">
+        <f t="shared" si="1"/>
+        <v>-791.96181818181822</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="15"/>
@@ -6145,6 +5919,7 @@
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
       <c r="F37" s="15"/>
@@ -6163,7 +5938,6 @@
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
       <c r="F38" s="15"/>
@@ -6597,7 +6371,25 @@
       <c r="P60" s="19"/>
       <c r="Q60" s="53"/>
     </row>
-    <row r="61" spans="1:17" ht="30" customHeight="1"/>
+    <row r="61" spans="1:17" ht="30" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="53"/>
+    </row>
     <row r="62" spans="1:17" ht="30" customHeight="1"/>
     <row r="63" spans="1:17" ht="30" customHeight="1"/>
     <row r="64" spans="1:17" ht="30" customHeight="1"/>
@@ -6628,48 +6420,48 @@
     <row r="89" ht="30" customHeight="1"/>
     <row r="90" ht="30" customHeight="1"/>
     <row r="91" ht="30" customHeight="1"/>
-    <row r="1048565" spans="10:10">
-      <c r="J1048565" s="21">
-        <f>SUM(J4:J1048564)</f>
-        <v>22170.192727272733</v>
+    <row r="1048566" spans="10:10">
+      <c r="J1048566" s="21">
+        <f>SUM(J4:J1048565)</f>
+        <v>23148.078181818189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="U2:U5"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L31">
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L32">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K31">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
+  <conditionalFormatting sqref="K3:K32">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K31">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
+  <conditionalFormatting sqref="K3:K32">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K31">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
+  <conditionalFormatting sqref="K14:K32">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K31">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
+  <conditionalFormatting sqref="K27:K32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6677,10 +6469,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K13" xr:uid="{A744D780-F3DC-B549-A8FB-91A591FB6A59}">
       <formula1>"未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K31" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K32" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
       <formula1>"未收货,已收货,未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L31" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
       <formula1>"未发货,已发货,已结清,已取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6696,7 +6488,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6630,7 @@
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
@@ -7119,10 +6911,10 @@
       <c r="D16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="85">
         <v>100.97</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="38">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>100.97</v>
@@ -7141,10 +6933,10 @@
       <c r="D17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="85">
         <v>88</v>
       </c>
-      <c r="F17" s="91"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="38">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>88</v>
@@ -7166,10 +6958,10 @@
       <c r="D18" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="85">
         <v>92</v>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="38">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92</v>
@@ -7328,12 +7120,12 @@
       <c r="B27" s="49"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B826A76-0F7E-8B46-8F93-C91A928C31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DB364-57F7-624A-8826-D2819F4F9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -588,10 +588,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>抖音 拍立得 mini 12 白色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝 大疆pocket4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -613,6 +609,17 @@
   </si>
   <si>
     <t>未回款总额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发货</t>
+  </si>
+  <si>
+    <t>抖音富士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音 拍立得 mini 12 白色 小黄人童心花语套装</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1358,6 +1365,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1377,80 +1384,6 @@
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2051,6 +1984,80 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2194,29 +2201,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="A1:Q32" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2225,19 +2232,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2681,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2717,11 +2724,11 @@
         <f t="shared" si="0"/>
         <v>362</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="110">
         <f>SUMIFS(K3:K54,K3:K54,"&gt;0")</f>
         <v>10056.790000000001</v>
       </c>
-      <c r="N6" s="113">
+      <c r="N6" s="110">
         <f>SUMIFS(K3:K54,K3:K54,"&lt;0")</f>
         <v>-20737.669999999998</v>
       </c>
@@ -3587,7 +3594,7 @@
         <v>49</v>
       </c>
       <c r="K34" s="89">
-        <f t="shared" ref="K34:K55" si="2">I34-H34-F34</f>
+        <f t="shared" ref="K34:K54" si="2">I34-H34-F34</f>
         <v>501</v>
       </c>
     </row>
@@ -4056,7 +4063,7 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="81">
         <v>4499</v>
@@ -4087,7 +4094,7 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="81">
         <v>1677.01</v>
@@ -4115,7 +4122,7 @@
         <v>45459</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="81">
         <v>1316.02</v>
@@ -4143,7 +4150,7 @@
         <v>45459</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="81">
         <v>1859.24</v>
@@ -4171,7 +4178,7 @@
         <v>45463</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="81">
         <v>4499</v>
@@ -4199,7 +4206,7 @@
         <v>45463</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="81">
         <v>4847.3999999999996</v>
@@ -4288,8 +4295,8 @@
   <dimension ref="A1:V1048566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4403,17 +4410,17 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
-        <v>517.69272727272721</v>
+        <v>777.28727272727247</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q26,Q4:Q26,"&lt;0")</f>
-        <v>-13475.565454545458</v>
+        <v>-11420.680000000002</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
         <v>34</v>
       </c>
-      <c r="U2" s="110" t="s">
+      <c r="U2" s="111" t="s">
         <v>141</v>
       </c>
       <c r="V2" s="66"/>
@@ -4465,7 +4472,7 @@
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="111"/>
+      <c r="U3" s="112"/>
       <c r="V3" s="66"/>
     </row>
     <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4511,7 +4518,7 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="111"/>
+      <c r="U4" s="112"/>
       <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4566,7 +4573,7 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="112"/>
+      <c r="U5" s="113"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
@@ -4986,15 +4993,19 @@
         <v>69</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M14" s="19"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="22"/>
+      <c r="N14" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O14" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="52">
         <f t="shared" si="1"/>
-        <v>-522.96181818181822</v>
+        <v>55.658181818181745</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -5034,15 +5045,19 @@
         <v>69</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="22"/>
+      <c r="N15" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O15" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="52">
         <f t="shared" si="1"/>
-        <v>-512.96181818181822</v>
+        <v>65.658181818181745</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5082,15 +5097,19 @@
         <v>69</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M16" s="19"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="22"/>
+      <c r="N16" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O16" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="52">
         <f t="shared" si="1"/>
-        <v>-497.96181818181822</v>
+        <v>80.658181818181745</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5123,15 +5142,19 @@
         <v>69</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M17" s="19"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="22"/>
+      <c r="N17" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O17" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="52">
         <f t="shared" si="1"/>
-        <v>-521</v>
+        <v>57.619999999999962</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
@@ -5585,13 +5608,15 @@
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22">
-        <f>相纸!I23</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="57"/>
+        <f>相纸!I4</f>
+        <v>92.961818181818188</v>
+      </c>
+      <c r="I27" s="57">
+        <v>1</v>
+      </c>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>676.25</v>
+        <v>769.21181818181822</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>75</v>
@@ -5605,7 +5630,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
-        <v>-676.25</v>
+        <v>-769.21181818181822</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
@@ -5641,17 +5666,21 @@
         <v>69</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="22"/>
+      <c r="N28" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O28" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P28" s="17" t="s">
         <v>139</v>
       </c>
       <c r="Q28" s="52">
         <f t="shared" si="1"/>
-        <v>-518.69000000000005</v>
+        <v>59.929999999999907</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
@@ -5684,7 +5713,7 @@
         <v>518</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>59</v>
@@ -5730,20 +5759,24 @@
         <v>519.29999999999995</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M30" s="19"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="22"/>
+      <c r="N30" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O30" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P30" s="17" t="s">
         <v>138</v>
       </c>
       <c r="Q30" s="52">
         <f t="shared" si="1"/>
-        <v>-519.29999999999995</v>
+        <v>59.320000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
@@ -5802,10 +5835,10 @@
         <v>45463</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E32" s="18">
         <v>699</v>
@@ -5814,16 +5847,11 @@
         <v>1</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="22">
-        <f>相纸!I4</f>
-        <v>92.961818181818188</v>
-      </c>
-      <c r="I32" s="57">
-        <v>1</v>
-      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
-        <v>791.96181818181822</v>
+        <v>699</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>74</v>
@@ -5837,7 +5865,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="52">
         <f t="shared" si="1"/>
-        <v>-791.96181818181822</v>
+        <v>-699</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
@@ -6432,36 +6460,36 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L2:L32">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K32">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K32">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6489,7 +6517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DB364-57F7-624A-8826-D2819F4F9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891320BC-B9D1-684E-A29B-E36E67FA0614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -4294,7 +4294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
@@ -4410,11 +4410,11 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
-        <v>777.28727272727247</v>
+        <v>775.3781818181817</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q26,Q4:Q26,"&lt;0")</f>
-        <v>-11420.680000000002</v>
+        <v>-11423.679999999997</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
@@ -4545,14 +4545,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I5" s="57">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>754.96181818181822</v>
+        <v>755.23454545454547</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>68</v>
@@ -4568,7 +4568,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="52">
         <f t="shared" si="1"/>
-        <v>-759.46181818181822</v>
+        <v>-759.73454545454547</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -4600,14 +4600,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I6" s="57">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>763.96181818181822</v>
+        <v>764.23454545454547</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>68</v>
@@ -4623,7 +4623,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="52">
         <f t="shared" si="1"/>
-        <v>-768.16181818181826</v>
+        <v>-768.43454545454551</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4650,14 +4650,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I7" s="57">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>764.96181818181822</v>
+        <v>765.23454545454547</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>68</v>
@@ -4673,7 +4673,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="52">
         <f t="shared" si="1"/>
-        <v>-769.16181818181826</v>
+        <v>-769.43454545454551</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4698,14 +4698,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I8" s="57">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1503.9236363636364</v>
+        <v>1504.4690909090909</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>68</v>
@@ -4719,7 +4719,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="52">
         <f t="shared" si="1"/>
-        <v>-1503.9236363636364</v>
+        <v>-1504.4690909090909</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
@@ -4830,14 +4830,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I11" s="57">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>983.88363636363647</v>
+        <v>984.42909090909097</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>69</v>
@@ -4855,7 +4855,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="52">
         <f t="shared" si="1"/>
-        <v>212.91636363636363</v>
+        <v>212.37090909090912</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
@@ -4880,14 +4880,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I12" s="57">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>486.96181818181822</v>
+        <v>487.23454545454547</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>69</v>
@@ -4905,7 +4905,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="52">
         <f t="shared" si="1"/>
-        <v>106.33818181818182</v>
+        <v>106.06545454545457</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -4932,14 +4932,14 @@
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I13" s="57">
         <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>1533.9236363636364</v>
+        <v>1534.4690909090909</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>68</v>
@@ -4953,7 +4953,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="52">
         <f t="shared" si="1"/>
-        <v>-1533.9236363636364</v>
+        <v>-1534.4690909090909</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -4980,14 +4980,14 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I14" s="57">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>522.96181818181822</v>
+        <v>523.23454545454547</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>69</v>
@@ -5005,7 +5005,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="52">
         <f t="shared" si="1"/>
-        <v>55.658181818181745</v>
+        <v>55.385454545454493</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -5032,14 +5032,14 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I15" s="57">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>512.96181818181822</v>
+        <v>513.23454545454547</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>69</v>
@@ -5057,7 +5057,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="52">
         <f t="shared" si="1"/>
-        <v>65.658181818181745</v>
+        <v>65.385454545454493</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5084,14 +5084,14 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I16" s="57">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>497.96181818181822</v>
+        <v>498.23454545454547</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>69</v>
@@ -5109,7 +5109,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="52">
         <f t="shared" si="1"/>
-        <v>80.658181818181745</v>
+        <v>80.385454545454493</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H18" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I18" s="57">
         <v>1</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>750.96181818181822</v>
+        <v>751.23454545454547</v>
       </c>
       <c r="K18" s="26" t="s">
         <v>75</v>
@@ -5204,7 +5204,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="52">
         <f t="shared" si="1"/>
-        <v>-757.06181818181824</v>
+        <v>-757.33454545454549</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
@@ -5231,14 +5231,14 @@
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>770.96181818181822</v>
+        <v>771.23454545454547</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>75</v>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="Q19" s="52">
         <f t="shared" si="1"/>
-        <v>-770.96181818181822</v>
+        <v>-771.23454545454547</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5279,14 +5279,14 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I20" s="57">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>739.96181818181822</v>
+        <v>740.23454545454547</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>75</v>
@@ -5300,7 +5300,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="52">
         <f t="shared" si="1"/>
-        <v>-739.96181818181822</v>
+        <v>-740.23454545454547</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
@@ -5325,14 +5325,14 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I21" s="57">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>750.96181818181822</v>
+        <v>751.23454545454547</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>69</v>
@@ -5350,7 +5350,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="52">
         <f t="shared" si="1"/>
-        <v>68.428181818181741</v>
+        <v>68.155454545454489</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
@@ -5375,14 +5375,14 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I22" s="57">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>807.64181818181817</v>
+        <v>807.91454545454542</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>75</v>
@@ -5396,7 +5396,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="52">
         <f t="shared" si="1"/>
-        <v>-807.64181818181817</v>
+        <v>-807.91454545454542</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
@@ -5609,14 +5609,14 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I27" s="57">
         <v>1</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>769.21181818181822</v>
+        <v>769.48454545454547</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>75</v>
@@ -5630,7 +5630,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
-        <v>-769.21181818181822</v>
+        <v>-769.48454545454547</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
@@ -5801,14 +5801,14 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22">
         <f>相纸!I4</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="I31" s="57">
         <v>2</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>1786.9236363636364</v>
+        <v>1787.4690909090909</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>69</v>
@@ -5824,7 +5824,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
-        <v>343.07636363636357</v>
+        <v>342.53090909090906</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
@@ -6451,7 +6451,7 @@
     <row r="1048566" spans="10:10">
       <c r="J1048566" s="21">
         <f>SUM(J4:J1048565)</f>
-        <v>23148.078181818189</v>
+        <v>23153.805454545451</v>
       </c>
     </row>
   </sheetData>
@@ -6515,9 +6515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="I4" s="64">
         <f>AVERAGE(G:G)</f>
-        <v>92.961818181818188</v>
+        <v>93.234545454545454</v>
       </c>
       <c r="J4" s="65">
         <f>COUNT(A:A)</f>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="K4" s="64">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>2045.16</v>
+        <v>2051.16</v>
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
@@ -7080,14 +7080,14 @@
         <v>136</v>
       </c>
       <c r="E22" s="40">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="19">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H22" s="25"/>
     </row>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891320BC-B9D1-684E-A29B-E36E67FA0614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B40EB2-A85B-974F-9ED1-20B3541B7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="相纸" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$K$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$K$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>序号</t>
   </si>
@@ -317,9 +317,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>未收货</t>
-  </si>
-  <si>
     <t>已收货</t>
   </si>
   <si>
@@ -596,18 +593,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>淘宝 红米K70E</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝 红米note12T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝IQOO neo 9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>未回款总额</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -620,6 +605,10 @@
   </si>
   <si>
     <t>抖音 拍立得 mini 12 白色 小黄人童心花语套装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝 红米K70E、淘宝 红米note12T、淘宝IQOO neo 9</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1365,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1385,8 +1389,8 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1399,12 +1403,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2179,8 +2177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:K64" totalsRowShown="0" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
-  <autoFilter ref="A1:K64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:K62" totalsRowShown="0" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
+  <autoFilter ref="A1:K62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="45"/>
@@ -2232,8 +2230,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H23" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H24" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
@@ -2511,11 +2509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2668,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="81">
-        <f t="shared" ref="F5:F54" si="1">D5*E5</f>
+        <f t="shared" ref="F5:F52" si="1">D5*E5</f>
         <v>7388</v>
       </c>
       <c r="H5" s="4">
@@ -2688,7 +2686,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2725,12 +2723,12 @@
         <v>362</v>
       </c>
       <c r="M6" s="110">
-        <f>SUMIFS(K3:K54,K3:K54,"&gt;0")</f>
-        <v>10056.790000000001</v>
+        <f>SUMIFS(K3:K52,K3:K52,"&gt;0")</f>
+        <v>10386.61</v>
       </c>
       <c r="N6" s="110">
-        <f>SUMIFS(K3:K54,K3:K54,"&lt;0")</f>
-        <v>-20737.669999999998</v>
+        <f>SUMIFS(K3:K52,K3:K52,"&lt;0")</f>
+        <v>-11386.4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3594,7 +3592,7 @@
         <v>49</v>
       </c>
       <c r="K34" s="89">
-        <f t="shared" ref="K34:K54" si="2">I34-H34-F34</f>
+        <f t="shared" ref="K34:K52" si="2">I34-H34-F34</f>
         <v>501</v>
       </c>
     </row>
@@ -3769,7 +3767,7 @@
         <v>45301</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="81">
         <v>606</v>
@@ -3801,7 +3799,7 @@
         <v>45301</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="83">
         <v>543</v>
@@ -3819,7 +3817,7 @@
       </c>
       <c r="I41" s="83"/>
       <c r="J41" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41" s="81">
         <f t="shared" si="2"/>
@@ -3834,7 +3832,7 @@
         <v>45449</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="81">
         <v>6526</v>
@@ -3866,7 +3864,7 @@
         <v>45450</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="82">
         <v>1328</v>
@@ -3886,7 +3884,7 @@
         <v>2801.5</v>
       </c>
       <c r="J43" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="81">
         <f t="shared" si="2"/>
@@ -3901,7 +3899,7 @@
         <v>45451</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="81">
         <v>4600</v>
@@ -3921,7 +3919,7 @@
         <v>9486.2800000000007</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K44" s="81">
         <f t="shared" si="2"/>
@@ -3936,7 +3934,7 @@
         <v>45456</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="81">
         <v>6841.68</v>
@@ -3967,7 +3965,7 @@
         <v>45457</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="81">
         <v>6876</v>
@@ -3986,7 +3984,7 @@
         <v>6880</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46" s="81">
         <f t="shared" si="2"/>
@@ -4001,7 +3999,7 @@
         <v>45453</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="81">
         <v>7579</v>
@@ -4032,7 +4030,7 @@
         <v>45459</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="81">
         <v>4499</v>
@@ -4063,7 +4061,7 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="81">
         <v>4499</v>
@@ -4094,24 +4092,27 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="81">
-        <v>1677.01</v>
+        <v>4656.18</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50" s="81">
         <f t="shared" si="1"/>
-        <v>1677.01</v>
+        <v>4656.18</v>
       </c>
       <c r="H50" s="23">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I50" s="81">
+        <v>4845</v>
       </c>
       <c r="K50" s="81">
         <f t="shared" si="2"/>
-        <v>-1677.01</v>
+        <v>179.81999999999971</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4119,27 +4120,30 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D51" s="81">
-        <v>1316.02</v>
+        <v>4499</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="81">
         <f t="shared" si="1"/>
-        <v>1316.02</v>
+        <v>4499</v>
       </c>
       <c r="H51" s="23">
         <v>0</v>
       </c>
+      <c r="I51" s="81">
+        <v>4649</v>
+      </c>
       <c r="K51" s="81">
         <f t="shared" si="2"/>
-        <v>-1316.02</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4147,88 +4151,40 @@
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D52" s="81">
-        <v>1859.24</v>
+        <v>4847.3999999999996</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
       <c r="F52" s="81">
         <f t="shared" si="1"/>
-        <v>1859.24</v>
+        <v>4847.3999999999996</v>
       </c>
       <c r="H52" s="23">
         <v>0</v>
       </c>
       <c r="K52" s="81">
         <f t="shared" si="2"/>
-        <v>-1859.24</v>
+        <v>-4847.3999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3">
-        <v>45463</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="81">
-        <v>4499</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="81">
-        <f t="shared" si="1"/>
-        <v>4499</v>
-      </c>
-      <c r="H53" s="23">
-        <v>0</v>
-      </c>
-      <c r="K53" s="81">
-        <f t="shared" si="2"/>
-        <v>-4499</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="K53" s="81"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="2">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3">
-        <v>45463</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="81">
-        <v>4847.3999999999996</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="81">
-        <f t="shared" si="1"/>
-        <v>4847.3999999999996</v>
-      </c>
-      <c r="H54" s="23">
-        <v>0</v>
-      </c>
-      <c r="K54" s="81">
-        <f t="shared" si="2"/>
-        <v>-4847.3999999999996</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11">
       <c r="C55" s="6"/>
-      <c r="K55" s="81"/>
+      <c r="K55" s="84"/>
     </row>
     <row r="56" spans="1:11">
       <c r="C56" s="6"/>
@@ -4260,11 +4216,9 @@
     </row>
     <row r="63" spans="1:11">
       <c r="C63" s="6"/>
-      <c r="K63" s="84"/>
     </row>
     <row r="64" spans="1:11">
       <c r="C64" s="6"/>
-      <c r="K64" s="84"/>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="6"/>
@@ -4274,12 +4228,6 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4294,9 +4242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048566"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4335,22 +4283,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="46" t="s">
-        <v>109</v>
-      </c>
       <c r="I1" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>67</v>
@@ -4383,10 +4331,10 @@
         <v>10</v>
       </c>
       <c r="T1" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U1" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V1" s="66"/>
     </row>
@@ -4410,18 +4358,18 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
-        <v>775.3781818181817</v>
+        <v>773.92782608695632</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q26,Q4:Q26,"&lt;0")</f>
-        <v>-11423.679999999997</v>
+        <v>-11425.95913043478</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
         <v>34</v>
       </c>
       <c r="U2" s="111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V2" s="66"/>
     </row>
@@ -4436,7 +4384,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="94">
         <v>761</v>
@@ -4486,7 +4434,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="18">
         <v>746</v>
@@ -4532,7 +4480,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="18">
         <v>718</v>
@@ -4545,14 +4493,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I5" s="57">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>755.23454545454547</v>
+        <v>755.44173913043483</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>68</v>
@@ -4568,7 +4516,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="52">
         <f t="shared" si="1"/>
-        <v>-759.73454545454547</v>
+        <v>-759.94173913043483</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -4587,7 +4535,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="18">
         <v>727</v>
@@ -4600,14 +4548,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I6" s="57">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>764.23454545454547</v>
+        <v>764.44173913043483</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>68</v>
@@ -4623,7 +4571,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="52">
         <f t="shared" si="1"/>
-        <v>-768.43454545454551</v>
+        <v>-768.64173913043487</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4637,7 +4585,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="18">
         <v>728</v>
@@ -4650,14 +4598,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I7" s="57">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>765.23454545454547</v>
+        <v>765.44173913043483</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>68</v>
@@ -4673,7 +4621,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="52">
         <f t="shared" si="1"/>
-        <v>-769.43454545454551</v>
+        <v>-769.64173913043487</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4687,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="18">
         <v>659</v>
@@ -4698,14 +4646,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I8" s="57">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1504.4690909090909</v>
+        <v>1504.8834782608697</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>68</v>
@@ -4719,7 +4667,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="52">
         <f t="shared" si="1"/>
-        <v>-1504.4690909090909</v>
+        <v>-1504.8834782608697</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
@@ -4733,7 +4681,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="18">
         <v>759.1</v>
@@ -4774,7 +4722,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="31">
         <v>736</v>
@@ -4816,10 +4764,10 @@
         <v>45444</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="18">
         <v>398.98</v>
@@ -4830,14 +4778,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I11" s="57">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>984.42909090909097</v>
+        <v>984.84347826086957</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>69</v>
@@ -4855,7 +4803,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="52">
         <f t="shared" si="1"/>
-        <v>212.37090909090912</v>
+        <v>211.95652173913052</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
@@ -4866,10 +4814,10 @@
         <v>45444</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="18">
         <v>394</v>
@@ -4880,14 +4828,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I12" s="57">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>487.23454545454547</v>
+        <v>487.44173913043477</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>69</v>
@@ -4905,7 +4853,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="52">
         <f t="shared" si="1"/>
-        <v>106.06545454545457</v>
+        <v>105.85826086956527</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -4919,7 +4867,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="18">
         <v>732</v>
@@ -4932,14 +4880,14 @@
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I13" s="57">
         <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>1534.4690909090909</v>
+        <v>1534.8834782608697</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>68</v>
@@ -4953,7 +4901,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="52">
         <f t="shared" si="1"/>
-        <v>-1534.4690909090909</v>
+        <v>-1534.8834782608697</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -4967,7 +4915,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="18">
         <v>488</v>
@@ -4980,20 +4928,20 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I14" s="57">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>523.23454545454547</v>
+        <v>523.44173913043483</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="15">
@@ -5005,7 +4953,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="52">
         <f t="shared" si="1"/>
-        <v>55.385454545454493</v>
+        <v>55.178260869565136</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -5019,7 +4967,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="18">
         <v>478</v>
@@ -5032,20 +4980,20 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I15" s="57">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>513.23454545454547</v>
+        <v>513.44173913043483</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="15">
@@ -5057,7 +5005,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="52">
         <f t="shared" si="1"/>
-        <v>65.385454545454493</v>
+        <v>65.178260869565136</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5071,7 +5019,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="18">
         <v>463</v>
@@ -5084,20 +5032,20 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I16" s="57">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>498.23454545454547</v>
+        <v>498.44173913043477</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="15">
@@ -5109,7 +5057,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="52">
         <f t="shared" si="1"/>
-        <v>80.385454545454493</v>
+        <v>80.178260869565193</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5123,7 +5071,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="18">
         <v>521</v>
@@ -5142,7 +5090,7 @@
         <v>69</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="15">
@@ -5168,7 +5116,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="18">
         <v>717</v>
@@ -5181,17 +5129,17 @@
       </c>
       <c r="H18" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I18" s="57">
         <v>1</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>751.23454545454547</v>
+        <v>751.44173913043483</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>59</v>
@@ -5204,7 +5152,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="52">
         <f t="shared" si="1"/>
-        <v>-757.33454545454549</v>
+        <v>-757.54173913043485</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
@@ -5218,7 +5166,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="18">
         <v>736</v>
@@ -5231,17 +5179,17 @@
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>771.23454545454547</v>
+        <v>771.44173913043483</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>59</v>
@@ -5250,11 +5198,11 @@
       <c r="N19" s="15"/>
       <c r="O19" s="22"/>
       <c r="P19" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="52">
         <f t="shared" si="1"/>
-        <v>-771.23454545454547</v>
+        <v>-771.44173913043483</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5265,10 +5213,10 @@
         <v>45451</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="18">
         <v>647</v>
@@ -5279,17 +5227,17 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I20" s="57">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>740.23454545454547</v>
+        <v>740.44173913043483</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>59</v>
@@ -5300,7 +5248,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="52">
         <f t="shared" si="1"/>
-        <v>-740.23454545454547</v>
+        <v>-740.44173913043483</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
@@ -5311,10 +5259,10 @@
         <v>45451</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="18">
         <v>658</v>
@@ -5325,14 +5273,14 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I21" s="57">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>751.23454545454547</v>
+        <v>751.44173913043483</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>69</v>
@@ -5350,7 +5298,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="52">
         <f t="shared" si="1"/>
-        <v>68.155454545454489</v>
+        <v>67.948260869565132</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
@@ -5364,7 +5312,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="18">
         <v>714.68</v>
@@ -5375,17 +5323,17 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I22" s="57">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>807.91454545454542</v>
+        <v>808.12173913043478</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>59</v>
@@ -5396,7 +5344,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="52">
         <f t="shared" si="1"/>
-        <v>-807.91454545454542</v>
+        <v>-808.12173913043478</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
@@ -5410,7 +5358,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="18">
         <v>746.22</v>
@@ -5429,7 +5377,7 @@
         <v>746.22</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="20" t="s">
         <v>59</v>
@@ -5451,10 +5399,10 @@
         <v>45455</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="18">
         <v>520.88</v>
@@ -5499,10 +5447,10 @@
         <v>45455</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="18">
         <v>502.7</v>
@@ -5547,10 +5495,10 @@
         <v>45455</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="18">
         <v>899</v>
@@ -5581,7 +5529,9 @@
       <c r="O26" s="22">
         <v>964.83</v>
       </c>
-      <c r="P26" s="19"/>
+      <c r="P26" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="Q26" s="52">
         <f t="shared" si="1"/>
         <v>63.030000000000044</v>
@@ -5598,7 +5548,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="18">
         <v>676.25</v>
@@ -5609,17 +5559,17 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I27" s="57">
         <v>1</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>769.48454545454547</v>
+        <v>769.69173913043483</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>59</v>
@@ -5630,7 +5580,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
-        <v>-769.48454545454547</v>
+        <v>-769.69173913043483</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
@@ -5641,10 +5591,10 @@
         <v>45460</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="18">
         <v>518.69000000000005</v>
@@ -5666,7 +5616,7 @@
         <v>69</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="15">
@@ -5676,7 +5626,7 @@
         <v>582.04</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="52">
         <f t="shared" si="1"/>
@@ -5691,10 +5641,10 @@
         <v>45460</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="18">
         <v>518</v>
@@ -5713,7 +5663,7 @@
         <v>518</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>59</v>
@@ -5722,7 +5672,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="22"/>
       <c r="P29" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="52">
         <f t="shared" si="1"/>
@@ -5737,10 +5687,10 @@
         <v>45460</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="18">
         <v>519.29999999999995</v>
@@ -5762,7 +5712,7 @@
         <v>69</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="15">
@@ -5772,7 +5722,7 @@
         <v>582.04</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="52">
         <f t="shared" si="1"/>
@@ -5787,10 +5737,10 @@
         <v>45461</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="18">
         <v>1601</v>
@@ -5801,14 +5751,14 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22">
         <f>相纸!I4</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="I31" s="57">
         <v>2</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>1787.4690909090909</v>
+        <v>1787.8834782608697</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>69</v>
@@ -5824,7 +5774,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
-        <v>342.53090909090906</v>
+        <v>342.11652173913035</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
@@ -5835,10 +5785,10 @@
         <v>45463</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E32" s="18">
         <v>699</v>
@@ -6451,7 +6401,7 @@
     <row r="1048566" spans="10:10">
       <c r="J1048566" s="21">
         <f>SUM(J4:J1048565)</f>
-        <v>23153.805454545451</v>
+        <v>23158.156521739125</v>
       </c>
     </row>
   </sheetData>
@@ -6515,9 +6465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6528,7 +6478,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="41" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="41"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="118" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
@@ -6540,25 +6490,25 @@
         <v>54</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>99</v>
+      <c r="G1" s="115" t="s">
+        <v>98</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
@@ -6569,10 +6519,10 @@
         <v>45446</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="40">
         <v>101.78</v>
@@ -6580,7 +6530,7 @@
       <c r="F2" s="40">
         <v>0</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.78</v>
       </c>
@@ -6593,10 +6543,10 @@
         <v>45446</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="40">
         <v>99.65</v>
@@ -6604,18 +6554,18 @@
       <c r="F3" s="40">
         <v>0</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>99.65</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="63" t="s">
         <v>100</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="L3" s="63" t="s">
         <v>72</v>
@@ -6629,10 +6579,10 @@
         <v>45446</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="40">
         <v>90.9</v>
@@ -6640,21 +6590,21 @@
       <c r="F4" s="40">
         <v>0</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>90.9</v>
       </c>
       <c r="I4" s="64">
         <f>AVERAGE(G:G)</f>
-        <v>93.234545454545454</v>
+        <v>93.441739130434783</v>
       </c>
       <c r="J4" s="65">
         <f>COUNT(A:A)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="64">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>2051.16</v>
+        <v>2149.16</v>
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
@@ -6669,10 +6619,10 @@
         <v>45449</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="40">
         <v>101.9</v>
@@ -6680,7 +6630,7 @@
       <c r="F5" s="40">
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6693,10 +6643,10 @@
         <v>45449</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="40">
         <v>96.98</v>
@@ -6704,7 +6654,7 @@
       <c r="F6" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6717,10 +6667,10 @@
         <v>45451</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="E7" s="40">
         <v>96.98</v>
@@ -6728,7 +6678,7 @@
       <c r="F7" s="40">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6741,10 +6691,10 @@
         <v>45451</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="E8" s="40">
         <v>92.67</v>
@@ -6752,7 +6702,7 @@
       <c r="F8" s="40">
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92.67</v>
       </c>
@@ -6765,10 +6715,10 @@
         <v>45453</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="40">
         <v>98.8</v>
@@ -6776,7 +6726,7 @@
       <c r="F9" s="40">
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98.8</v>
       </c>
@@ -6789,10 +6739,10 @@
         <v>45453</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="40">
         <v>94.93</v>
@@ -6800,7 +6750,7 @@
       <c r="F10" s="40">
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>94.93</v>
       </c>
@@ -6813,10 +6763,10 @@
         <v>45452</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="40">
         <v>98</v>
@@ -6824,7 +6774,7 @@
       <c r="F11" s="40">
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6837,10 +6787,10 @@
         <v>45452</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="40">
         <v>102.72</v>
@@ -6848,7 +6798,7 @@
       <c r="F12" s="40">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>102.72</v>
       </c>
@@ -6861,10 +6811,10 @@
         <v>45452</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="40">
         <v>98</v>
@@ -6872,7 +6822,7 @@
       <c r="F13" s="40">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6886,10 +6836,10 @@
         <v>45452</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="40">
         <v>93</v>
@@ -6897,7 +6847,7 @@
       <c r="F14" s="40">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>93</v>
       </c>
@@ -6910,10 +6860,10 @@
         <v>45452</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="40">
         <v>91.9</v>
@@ -6921,7 +6871,7 @@
       <c r="F15" s="40">
         <v>10</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6934,16 +6884,16 @@
         <v>45453</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="85">
         <v>100.97</v>
       </c>
       <c r="F16" s="85"/>
-      <c r="G16" s="38">
+      <c r="G16" s="117">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>100.97</v>
       </c>
@@ -6956,21 +6906,21 @@
         <v>45455</v>
       </c>
       <c r="C17" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="E17" s="85">
         <v>88</v>
       </c>
       <c r="F17" s="85"/>
-      <c r="G17" s="38">
+      <c r="G17" s="117">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>88</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
@@ -6981,16 +6931,16 @@
         <v>45455</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="85">
         <v>92</v>
       </c>
       <c r="F18" s="85"/>
-      <c r="G18" s="38">
+      <c r="G18" s="117">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92</v>
       </c>
@@ -7003,16 +6953,16 @@
         <v>45458</v>
       </c>
       <c r="C19" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="E19" s="40">
         <v>98</v>
       </c>
       <c r="F19" s="40"/>
-      <c r="G19" s="19">
+      <c r="G19" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7025,16 +6975,16 @@
         <v>45458</v>
       </c>
       <c r="C20" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="E20" s="40">
         <v>98</v>
       </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="19">
+      <c r="G20" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7047,10 +6997,10 @@
         <v>45458</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="E21" s="40">
         <v>72</v>
@@ -7058,12 +7008,12 @@
       <c r="F21" s="40">
         <v>12</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1">
@@ -7074,10 +7024,10 @@
         <v>45457</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="40">
         <v>45</v>
@@ -7085,7 +7035,7 @@
       <c r="F22" s="40">
         <v>5</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>50</v>
       </c>
@@ -7099,10 +7049,10 @@
         <v>45460</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="E23" s="40">
         <v>71.98</v>
@@ -7110,20 +7060,36 @@
       <c r="F23" s="40">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="116">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>71.98</v>
       </c>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="27" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>45467</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="85">
+        <v>88</v>
+      </c>
+      <c r="F24" s="85">
+        <v>10</v>
+      </c>
+      <c r="G24" s="117">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>98</v>
+      </c>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8" ht="27" customHeight="1">
       <c r="A25" s="15"/>
@@ -7132,7 +7098,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="116"/>
     </row>
     <row r="26" spans="1:8" ht="27" customHeight="1">
       <c r="A26" s="15"/>
@@ -7141,7 +7107,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="116"/>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1">
       <c r="A27" s="51"/>
@@ -7150,7 +7116,7 @@
       <c r="D27" s="38"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="G27" s="38"/>
+      <c r="G27" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B40EB2-A85B-974F-9ED1-20B3541B7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C285A4-6C56-0B4C-861A-2E8CD3071822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1560" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="3880" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="相纸" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$K$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>火乐鱼&amp;博融天创</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>南京航盟</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -600,15 +596,15 @@
     <t>已发货</t>
   </si>
   <si>
-    <t>抖音富士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖音 拍立得 mini 12 白色 小黄人童心花语套装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝 红米K70E、淘宝 红米note12T、淘宝IQOO neo 9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书心愿单 买纸买人头</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1353,18 @@
     <xf numFmtId="8" fontId="12" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1365,21 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1387,7 +1380,7 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2113,6 +2106,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2177,21 +2174,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:K62" totalsRowShown="0" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
-  <autoFilter ref="A1:K62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:L62" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="A1:L62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{8D044339-CB21-3F41-825F-BD4958F8483B}" name="附带" dataDxfId="41"/>
     <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="40"/>
     <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="39"/>
     <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="38"/>
     <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="37"/>
     <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="36">
-      <calculatedColumnFormula>I2-H2-F2</calculatedColumnFormula>
+      <calculatedColumnFormula>J2-I2-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2199,10 +2197,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q32" totalsRowShown="0" tableBorderDxfId="27">
-  <autoFilter ref="A1:Q32" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q28">
-    <sortCondition ref="B1:B28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="27">
+  <autoFilter ref="A1:Q33" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
@@ -2230,8 +2228,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H24" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H26" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
@@ -2509,11 +2507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2523,17 +2521,17 @@
     <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="81" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="81" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="90" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="41.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="90" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="33">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="33">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -2552,36 +2550,54 @@
       <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="I1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="33">
+      <c r="N1" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="33">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
       <c r="D2" s="80"/>
       <c r="E2" s="33"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="G2" s="80"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="87"/>
+      <c r="N2" s="110">
+        <f>SUMIFS(L3:L52,L3:L52,"&gt;0")</f>
+        <v>10444.050000000003</v>
+      </c>
+      <c r="O2" s="110">
+        <f>SUMIFS(L3:L52,L3:L52,"&lt;0")</f>
+        <v>-13773.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2601,21 +2617,21 @@
         <f>D3*E3</f>
         <v>12999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>17</v>
       </c>
-      <c r="I3" s="81">
+      <c r="J3" s="81">
         <v>13700</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>10.119999999999999</v>
       </c>
-      <c r="K3" s="88">
-        <f t="shared" ref="K3:K33" si="0">I3-H3-F3</f>
+      <c r="L3" s="88">
+        <f t="shared" ref="L3:L32" si="0">J3-I3-F3</f>
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2635,21 +2651,21 @@
         <f>D4*E4</f>
         <v>9999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="81">
+      <c r="J4" s="81">
         <v>10020</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>10.11</v>
       </c>
-      <c r="K4" s="89">
+      <c r="L4" s="89">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2669,27 +2685,21 @@
         <f t="shared" ref="F5:F52" si="1">D5*E5</f>
         <v>7388</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>23</v>
       </c>
-      <c r="I5" s="81">
+      <c r="J5" s="81">
         <v>7540</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="K5" s="88">
+      <c r="L5" s="88">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="M5" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2709,29 +2719,21 @@
         <f t="shared" si="1"/>
         <v>10098</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>100</v>
       </c>
-      <c r="I6" s="81">
+      <c r="J6" s="81">
         <v>10560</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>10.31</v>
       </c>
-      <c r="K6" s="89">
+      <c r="L6" s="89">
         <f t="shared" si="0"/>
         <v>362</v>
       </c>
-      <c r="M6" s="110">
-        <f>SUMIFS(K3:K52,K3:K52,"&gt;0")</f>
-        <v>10386.61</v>
-      </c>
-      <c r="N6" s="110">
-        <f>SUMIFS(K3:K52,K3:K52,"&lt;0")</f>
-        <v>-11386.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2751,21 +2753,21 @@
         <f t="shared" si="1"/>
         <v>6186</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>34</v>
       </c>
-      <c r="I7" s="81">
+      <c r="J7" s="81">
         <v>6500</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>11.02</v>
       </c>
-      <c r="K7" s="88">
+      <c r="L7" s="88">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2785,18 +2787,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="81">
+      <c r="J8" s="81">
         <v>40</v>
       </c>
-      <c r="K8" s="89">
+      <c r="L8" s="89">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2816,18 +2818,18 @@
         <f t="shared" si="1"/>
         <v>8183.1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="I9" s="81">
+      <c r="J9" s="81">
         <v>8350</v>
       </c>
-      <c r="K9" s="88">
+      <c r="L9" s="88">
         <f t="shared" si="0"/>
         <v>146.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2847,18 +2849,18 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>13.2</v>
       </c>
-      <c r="I10" s="81">
+      <c r="J10" s="81">
         <v>180</v>
       </c>
-      <c r="K10" s="89">
+      <c r="L10" s="89">
         <f t="shared" si="0"/>
         <v>71.800000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2878,21 +2880,21 @@
         <f t="shared" si="1"/>
         <v>8596</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="I11" s="81">
+      <c r="J11" s="81">
         <v>9211</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="88">
+      <c r="L11" s="88">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2912,18 +2914,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="81">
+      <c r="J12" s="81">
         <v>304</v>
       </c>
-      <c r="K12" s="89">
+      <c r="L12" s="89">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2943,18 +2945,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="81">
+      <c r="J13" s="81">
         <v>50</v>
       </c>
-      <c r="K13" s="88">
+      <c r="L13" s="88">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2971,18 +2973,18 @@
         <f t="shared" si="1"/>
         <v>2676</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="81">
+      <c r="J14" s="81">
         <v>2780</v>
       </c>
-      <c r="K14" s="89">
+      <c r="L14" s="89">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2999,18 +3001,18 @@
         <f t="shared" si="1"/>
         <v>6095</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="81">
+      <c r="J15" s="81">
         <v>6190</v>
       </c>
-      <c r="K15" s="88">
+      <c r="L15" s="88">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3027,18 +3029,18 @@
         <f t="shared" si="1"/>
         <v>9780</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="I16" s="81">
+      <c r="J16" s="81">
         <v>12300</v>
       </c>
-      <c r="K16" s="89">
+      <c r="L16" s="89">
         <f t="shared" si="0"/>
         <v>2508</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3055,18 +3057,18 @@
         <f t="shared" si="1"/>
         <v>5299</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>25</v>
       </c>
-      <c r="I17" s="81">
+      <c r="J17" s="81">
         <v>5400</v>
       </c>
-      <c r="K17" s="88">
+      <c r="L17" s="88">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3083,18 +3085,18 @@
         <f t="shared" si="1"/>
         <v>1815</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>11.4</v>
       </c>
-      <c r="I18" s="81">
+      <c r="J18" s="81">
         <v>1908</v>
       </c>
-      <c r="K18" s="89">
+      <c r="L18" s="89">
         <f t="shared" si="0"/>
         <v>81.599999999999909</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3111,21 +3113,21 @@
         <f t="shared" si="1"/>
         <v>4390</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>31.2</v>
       </c>
-      <c r="I19" s="81">
+      <c r="J19" s="81">
         <v>4500</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>11.6</v>
       </c>
-      <c r="K19" s="88">
+      <c r="L19" s="88">
         <f t="shared" si="0"/>
         <v>78.800000000000182</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3145,21 +3147,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>6</v>
       </c>
-      <c r="I20" s="81">
+      <c r="J20" s="81">
         <v>115</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>11.9</v>
       </c>
-      <c r="K20" s="89">
+      <c r="L20" s="89">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3179,21 +3181,21 @@
         <f t="shared" si="1"/>
         <v>7877</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>28</v>
       </c>
-      <c r="I21" s="81">
+      <c r="J21" s="81">
         <v>8100</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>11.7</v>
       </c>
-      <c r="K21" s="88">
+      <c r="L21" s="88">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3213,21 +3215,21 @@
         <f t="shared" si="1"/>
         <v>5973</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="I22" s="81">
+      <c r="J22" s="81">
         <v>6100</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>11.1</v>
       </c>
-      <c r="K22" s="89">
+      <c r="L22" s="89">
         <f t="shared" si="0"/>
         <v>86.800000000000182</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3247,18 +3249,18 @@
         <f t="shared" si="1"/>
         <v>8138.7</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="81">
+      <c r="J23" s="81">
         <v>8180</v>
       </c>
-      <c r="K23" s="88">
+      <c r="L23" s="88">
         <f t="shared" si="0"/>
         <v>41.300000000000182</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3278,18 +3280,18 @@
         <f t="shared" si="1"/>
         <v>8115.25</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="81">
+      <c r="J24" s="81">
         <v>8180</v>
       </c>
-      <c r="K24" s="89">
+      <c r="L24" s="89">
         <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3309,18 +3311,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>16.8</v>
       </c>
-      <c r="I25" s="81">
+      <c r="J25" s="81">
         <v>186</v>
       </c>
-      <c r="K25" s="88">
-        <f>I25-H25-F25</f>
+      <c r="L25" s="88">
+        <f>J25-I25-F25</f>
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3340,18 +3342,18 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>9</v>
       </c>
-      <c r="I26" s="81">
+      <c r="J26" s="81">
         <v>304</v>
       </c>
-      <c r="K26" s="89">
+      <c r="L26" s="89">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3371,18 +3373,18 @@
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>10</v>
       </c>
-      <c r="I27" s="81">
+      <c r="J27" s="81">
         <v>830</v>
       </c>
-      <c r="K27" s="88">
+      <c r="L27" s="88">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3402,18 +3404,18 @@
         <f t="shared" si="1"/>
         <v>8896</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>10</v>
       </c>
-      <c r="I28" s="81">
+      <c r="J28" s="81">
         <v>9070</v>
       </c>
-      <c r="K28" s="89">
+      <c r="L28" s="89">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3433,18 +3435,18 @@
         <f t="shared" si="1"/>
         <v>3189</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="81">
+      <c r="J29" s="81">
         <v>3270</v>
       </c>
-      <c r="K29" s="88">
+      <c r="L29" s="88">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="63" customHeight="1">
+    <row r="30" spans="1:12" ht="63" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3461,21 +3463,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="81">
+      <c r="J30" s="81">
         <v>178.8</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="89">
+      <c r="L30" s="89">
         <f t="shared" si="0"/>
         <v>178.8</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3495,21 +3497,21 @@
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>7.2</v>
       </c>
-      <c r="I31" s="81">
+      <c r="J31" s="81">
         <v>1170</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="88">
+      <c r="L31" s="88">
         <f t="shared" si="0"/>
         <v>82.799999999999955</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -3526,18 +3528,18 @@
         <f t="shared" si="1"/>
         <v>2619</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>9</v>
       </c>
-      <c r="I32" s="81">
+      <c r="J32" s="81">
         <v>2640</v>
       </c>
-      <c r="K32" s="89">
+      <c r="L32" s="89">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3557,15 +3559,21 @@
         <f t="shared" si="1"/>
         <v>2998</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="G33" s="81">
+        <v>1405</v>
+      </c>
+      <c r="I33" s="4">
+        <v>60</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="88">
-        <f t="shared" si="0"/>
-        <v>-2998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="88">
+        <f>J33-G33-I33-F33</f>
+        <v>-4463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3582,21 +3590,18 @@
         <f t="shared" si="1"/>
         <v>2499</v>
       </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="81">
+      <c r="J34" s="81">
         <v>3000</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="89">
-        <f t="shared" ref="K34:K52" si="2">I34-H34-F34</f>
+      <c r="L34" s="88">
+        <f t="shared" ref="L34:L52" si="2">J34-G34-I34-F34</f>
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3616,15 +3621,21 @@
         <f t="shared" si="1"/>
         <v>2998</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="G35" s="81">
+        <v>1405</v>
+      </c>
+      <c r="I35" s="4">
+        <v>60</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="88">
+      <c r="L35" s="88">
         <f t="shared" si="2"/>
-        <v>-2998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>-4463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3644,21 +3655,21 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="81">
+      <c r="J36" s="81">
         <v>810</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="89">
+      <c r="L36" s="88">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3678,21 +3689,21 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>10</v>
       </c>
-      <c r="I37" s="81">
+      <c r="J37" s="81">
         <v>730</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="88">
+      <c r="L37" s="88">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3712,21 +3723,21 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="81">
+      <c r="J38" s="81">
         <v>1300</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="81">
+      <c r="L38" s="88">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3746,20 +3757,20 @@
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73">
+      <c r="H39" s="73"/>
+      <c r="I39" s="73">
         <v>11</v>
       </c>
-      <c r="I39" s="83">
+      <c r="J39" s="83">
         <v>625.87</v>
       </c>
-      <c r="J39" s="74"/>
-      <c r="K39" s="81">
+      <c r="K39" s="74"/>
+      <c r="L39" s="88">
         <f t="shared" si="2"/>
         <v>9.8700000000000045</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3767,7 +3778,7 @@
         <v>45301</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="81">
         <v>606</v>
@@ -3779,19 +3790,19 @@
         <f t="shared" si="1"/>
         <v>606</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23">
+      <c r="H40" s="23"/>
+      <c r="I40" s="23">
         <v>6</v>
       </c>
-      <c r="I40" s="83">
+      <c r="J40" s="83">
         <v>625.87</v>
       </c>
-      <c r="K40" s="81">
+      <c r="L40" s="88">
         <f t="shared" si="2"/>
         <v>13.870000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>45301</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="83">
         <v>543</v>
@@ -3811,20 +3822,25 @@
         <f t="shared" si="1"/>
         <v>543</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73">
+      <c r="G41" s="81">
+        <v>-28</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73">
         <v>0</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="81">
+      <c r="J41" s="83">
+        <v>541.44000000000005</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="88">
         <f t="shared" si="2"/>
-        <v>-543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>26.440000000000055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -3832,7 +3848,7 @@
         <v>45449</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="81">
         <v>6526</v>
@@ -3844,19 +3860,19 @@
         <f t="shared" si="1"/>
         <v>6526</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23">
+      <c r="H42" s="23"/>
+      <c r="I42" s="23">
         <v>0</v>
       </c>
-      <c r="I42" s="81">
+      <c r="J42" s="81">
         <v>6830</v>
       </c>
-      <c r="K42" s="81">
+      <c r="L42" s="88">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -3864,7 +3880,7 @@
         <v>45450</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="82">
         <v>1328</v>
@@ -3876,22 +3892,25 @@
         <f t="shared" si="1"/>
         <v>2656</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78">
+      <c r="G43" s="81">
+        <v>-20</v>
+      </c>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78">
         <v>17.600000000000001</v>
       </c>
-      <c r="I43" s="81">
+      <c r="J43" s="81">
         <v>2801.5</v>
       </c>
-      <c r="J43" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="81">
+      <c r="K43" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="88">
         <f t="shared" si="2"/>
-        <v>127.90000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>147.90000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -3899,7 +3918,7 @@
         <v>45451</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="81">
         <v>4600</v>
@@ -3911,22 +3930,25 @@
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23">
+      <c r="G44" s="81">
+        <v>-5</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23">
         <v>0</v>
       </c>
-      <c r="I44" s="81">
+      <c r="J44" s="81">
         <v>9486.2800000000007</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="81">
+      <c r="K44" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="88">
         <f t="shared" si="2"/>
-        <v>286.28000000000065</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>291.28000000000065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -3934,7 +3956,7 @@
         <v>45456</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="81">
         <v>6841.68</v>
@@ -3946,18 +3968,18 @@
         <f t="shared" si="1"/>
         <v>6841.68</v>
       </c>
-      <c r="H45" s="23">
+      <c r="I45" s="23">
         <v>0</v>
       </c>
-      <c r="I45" s="81">
+      <c r="J45" s="81">
         <v>6880</v>
       </c>
-      <c r="K45" s="81">
+      <c r="L45" s="88">
         <f t="shared" si="2"/>
         <v>38.319999999999709</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -3965,7 +3987,7 @@
         <v>45457</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="81">
         <v>6876</v>
@@ -3977,21 +3999,24 @@
         <f t="shared" si="1"/>
         <v>6876</v>
       </c>
-      <c r="H46" s="23">
+      <c r="G46" s="81">
+        <v>-6</v>
+      </c>
+      <c r="I46" s="23">
         <v>0</v>
       </c>
-      <c r="I46" s="81">
+      <c r="J46" s="81">
         <v>6880</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K46" s="81">
+      <c r="K46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="88">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -3999,7 +4024,7 @@
         <v>45453</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="81">
         <v>7579</v>
@@ -4011,18 +4036,18 @@
         <f t="shared" si="1"/>
         <v>7579</v>
       </c>
-      <c r="H47" s="23">
+      <c r="I47" s="23">
         <v>0</v>
       </c>
-      <c r="I47" s="81">
+      <c r="J47" s="81">
         <v>7780</v>
       </c>
-      <c r="K47" s="81">
+      <c r="L47" s="88">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4030,7 +4055,7 @@
         <v>45459</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="81">
         <v>4499</v>
@@ -4042,18 +4067,18 @@
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
-      <c r="H48" s="23">
+      <c r="I48" s="23">
         <v>17.8</v>
       </c>
-      <c r="I48" s="81">
+      <c r="J48" s="81">
         <v>4600</v>
       </c>
-      <c r="K48" s="81">
+      <c r="L48" s="88">
         <f t="shared" si="2"/>
         <v>83.199999999999818</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -4061,7 +4086,7 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="81">
         <v>4499</v>
@@ -4073,18 +4098,18 @@
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
-      <c r="H49" s="23">
+      <c r="I49" s="23">
         <v>23</v>
       </c>
-      <c r="I49" s="81">
+      <c r="J49" s="81">
         <v>4727</v>
       </c>
-      <c r="K49" s="81">
+      <c r="L49" s="88">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -4092,7 +4117,7 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="81">
         <v>4656.18</v>
@@ -4104,18 +4129,18 @@
         <f t="shared" si="1"/>
         <v>4656.18</v>
       </c>
-      <c r="H50" s="23">
+      <c r="I50" s="23">
         <v>9</v>
       </c>
-      <c r="I50" s="81">
+      <c r="J50" s="81">
         <v>4845</v>
       </c>
-      <c r="K50" s="81">
+      <c r="L50" s="88">
         <f t="shared" si="2"/>
         <v>179.81999999999971</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -4123,7 +4148,7 @@
         <v>45463</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="81">
         <v>4499</v>
@@ -4135,18 +4160,18 @@
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
-      <c r="H51" s="23">
+      <c r="I51" s="23">
         <v>0</v>
       </c>
-      <c r="I51" s="81">
+      <c r="J51" s="81">
         <v>4649</v>
       </c>
-      <c r="K51" s="81">
+      <c r="L51" s="88">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -4154,7 +4179,7 @@
         <v>45463</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" s="81">
         <v>4847.3999999999996</v>
@@ -4166,58 +4191,58 @@
         <f t="shared" si="1"/>
         <v>4847.3999999999996</v>
       </c>
-      <c r="H52" s="23">
+      <c r="I52" s="23">
         <v>0</v>
       </c>
-      <c r="K52" s="81">
+      <c r="L52" s="88">
         <f t="shared" si="2"/>
         <v>-4847.3999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="C53" s="6"/>
-      <c r="K53" s="81"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="81"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="C54" s="6"/>
-      <c r="K54" s="84"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="84"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="C55" s="6"/>
-      <c r="K55" s="84"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="84"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="C56" s="6"/>
-      <c r="K56" s="84"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="84"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="C57" s="6"/>
-      <c r="K57" s="84"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="84"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="C58" s="6"/>
-      <c r="K58" s="84"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="84"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="C59" s="6"/>
-      <c r="K59" s="84"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="84"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="C60" s="6"/>
-      <c r="K60" s="84"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="84"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="C61" s="6"/>
-      <c r="K61" s="84"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="84"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="C62" s="6"/>
-      <c r="K62" s="84"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="84"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="3:3">
@@ -4240,11 +4265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
-  <dimension ref="A1:V1048566"/>
+  <dimension ref="A1:V1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4289,16 +4314,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="46" t="s">
-        <v>108</v>
-      </c>
       <c r="I1" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>67</v>
@@ -4331,10 +4356,10 @@
         <v>10</v>
       </c>
       <c r="T1" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U1" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V1" s="66"/>
     </row>
@@ -4357,19 +4382,19 @@
       <c r="P2" s="109"/>
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
-        <f>SUMIFS(Q4:Q24,Q4:Q24,"&gt;0")</f>
-        <v>773.92782608695632</v>
+        <f>SUMIFS(Q4:Q25,Q4:Q25,"&gt;0")</f>
+        <v>771.37520000000006</v>
       </c>
       <c r="S2" s="64">
-        <f>SUMIFS(Q4:Q26,Q4:Q26,"&lt;0")</f>
-        <v>-11425.95913043478</v>
+        <f>SUMIFS(Q4:Q27,Q4:Q27,"&lt;0")</f>
+        <v>-11429.970399999997</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
-        <v>34</v>
-      </c>
-      <c r="U2" s="111" t="s">
-        <v>140</v>
+        <v>33</v>
+      </c>
+      <c r="U2" s="115" t="s">
+        <v>139</v>
       </c>
       <c r="V2" s="66"/>
     </row>
@@ -4420,7 +4445,7 @@
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66"/>
-      <c r="U3" s="112"/>
+      <c r="U3" s="116"/>
       <c r="V3" s="66"/>
     </row>
     <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4466,7 +4491,7 @@
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
-      <c r="U4" s="112"/>
+      <c r="U4" s="116"/>
       <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
@@ -4493,14 +4518,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I5" s="57">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>755.44173913043483</v>
+        <v>755.80639999999994</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>68</v>
@@ -4516,12 +4541,12 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="52">
         <f t="shared" si="1"/>
-        <v>-759.94173913043483</v>
+        <v>-760.30639999999994</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
-      <c r="U5" s="113"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
@@ -4548,14 +4573,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I6" s="57">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>764.44173913043483</v>
+        <v>764.80639999999994</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>68</v>
@@ -4571,7 +4596,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="52">
         <f t="shared" si="1"/>
-        <v>-768.64173913043487</v>
+        <v>-769.00639999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4598,14 +4623,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I7" s="57">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>765.44173913043483</v>
+        <v>765.80639999999994</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>68</v>
@@ -4621,7 +4646,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="52">
         <f t="shared" si="1"/>
-        <v>-769.64173913043487</v>
+        <v>-770.00639999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4635,7 +4660,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="18">
         <v>659</v>
@@ -4646,14 +4671,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I8" s="57">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1504.8834782608697</v>
+        <v>1505.6127999999999</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>68</v>
@@ -4667,7 +4692,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="52">
         <f t="shared" si="1"/>
-        <v>-1504.8834782608697</v>
+        <v>-1505.6127999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
@@ -4764,10 +4789,10 @@
         <v>45444</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="18">
         <v>398.98</v>
@@ -4778,14 +4803,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I11" s="57">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>984.84347826086957</v>
+        <v>985.57280000000003</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>69</v>
@@ -4803,7 +4828,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="52">
         <f t="shared" si="1"/>
-        <v>211.95652173913052</v>
+        <v>211.22720000000007</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
@@ -4814,10 +4839,10 @@
         <v>45444</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="18">
         <v>394</v>
@@ -4828,14 +4853,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I12" s="57">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>487.44173913043477</v>
+        <v>487.8064</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>69</v>
@@ -4853,7 +4878,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="52">
         <f t="shared" si="1"/>
-        <v>105.85826086956527</v>
+        <v>105.49360000000004</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -4867,27 +4892,27 @@
         <v>65</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="18">
         <v>732</v>
       </c>
       <c r="F13" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="22">
         <v>58</v>
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I13" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>1534.8834782608697</v>
+        <v>767.80639999999994</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>68</v>
@@ -4898,10 +4923,10 @@
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="19"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="52">
         <f t="shared" si="1"/>
-        <v>-1534.8834782608697</v>
+        <v>-767.80639999999994</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -4912,13 +4937,13 @@
         <v>45449</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="18">
-        <v>488</v>
+        <v>732</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -4928,32 +4953,28 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I14" s="57">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>523.44173913043483</v>
+        <v>767.80639999999994</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M14" s="19"/>
-      <c r="N14" s="15">
-        <v>3.42</v>
-      </c>
-      <c r="O14" s="22">
-        <v>582.04</v>
-      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="52">
         <f t="shared" si="1"/>
-        <v>55.178260869565136</v>
+        <v>-767.80639999999994</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -4970,7 +4991,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="18">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -4980,20 +5001,20 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I15" s="57">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>513.44173913043483</v>
+        <v>523.80639999999994</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="15">
@@ -5005,7 +5026,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="52">
         <f t="shared" si="1"/>
-        <v>65.178260869565136</v>
+        <v>54.813600000000022</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5019,10 +5040,10 @@
         <v>70</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E16" s="18">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -5032,20 +5053,20 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I16" s="57">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>498.44173913043477</v>
+        <v>513.80639999999994</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="15">
@@ -5057,7 +5078,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="52">
         <f t="shared" si="1"/>
-        <v>80.178260869565193</v>
+        <v>64.813600000000022</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5068,29 +5089,36 @@
         <v>45449</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E17" s="18">
-        <v>521</v>
+        <v>463</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="57"/>
+      <c r="G17" s="22">
+        <v>58</v>
+      </c>
+      <c r="H17" s="22">
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I17" s="57">
+        <v>1</v>
+      </c>
       <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>498.8064</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="15">
@@ -5102,7 +5130,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="52">
         <f t="shared" si="1"/>
-        <v>57.619999999999962</v>
+        <v>79.813599999999965</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
@@ -5113,46 +5141,41 @@
         <v>45449</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="18">
-        <v>717</v>
+        <v>521</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="22">
-        <v>59</v>
-      </c>
-      <c r="H18" s="22">
-        <f>相纸!I4</f>
-        <v>93.441739130434783</v>
-      </c>
-      <c r="I18" s="57">
-        <v>1</v>
-      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>751.44173913043483</v>
+        <v>521</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="15">
-        <v>6.1</v>
-      </c>
-      <c r="O18" s="22"/>
+        <v>3.42</v>
+      </c>
+      <c r="O18" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="52">
         <f t="shared" si="1"/>
-        <v>-757.54173913043485</v>
+        <v>57.619999999999962</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
@@ -5166,27 +5189,27 @@
         <v>65</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="18">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
       </c>
       <c r="G19" s="22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I19" s="57">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>771.44173913043483</v>
+        <v>751.80639999999994</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>74</v>
@@ -5195,14 +5218,14 @@
         <v>59</v>
       </c>
       <c r="M19" s="19"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="15">
+        <v>6.1</v>
+      </c>
       <c r="O19" s="22"/>
-      <c r="P19" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="P19" s="19"/>
       <c r="Q19" s="52">
         <f t="shared" si="1"/>
-        <v>-771.44173913043483</v>
+        <v>-757.90639999999996</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5210,31 +5233,33 @@
         <v>18</v>
       </c>
       <c r="B20" s="16">
-        <v>45451</v>
+        <v>45449</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E20" s="18">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="22">
+        <v>58</v>
+      </c>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I20" s="57">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>740.44173913043483</v>
+        <v>771.80639999999994</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>74</v>
@@ -5245,10 +5270,12 @@
       <c r="M20" s="19"/>
       <c r="N20" s="15"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="Q20" s="52">
         <f t="shared" si="1"/>
-        <v>-740.44173913043483</v>
+        <v>-771.80639999999994</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
@@ -5259,13 +5286,13 @@
         <v>45451</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="18">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -5273,32 +5300,28 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I21" s="57">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>751.44173913043483</v>
+        <v>740.80639999999994</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="19"/>
-      <c r="N21" s="15">
-        <v>8.4</v>
-      </c>
-      <c r="O21" s="22">
-        <v>827.79</v>
-      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="52">
         <f t="shared" si="1"/>
-        <v>67.948260869565132</v>
+        <v>-740.80639999999994</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
@@ -5306,16 +5329,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="16">
-        <v>45452</v>
+        <v>45451</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="18">
-        <v>714.68</v>
+        <v>658</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -5323,28 +5346,32 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="I22" s="57">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>808.12173913043478</v>
+        <v>751.80639999999994</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M22" s="19"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="22"/>
+      <c r="N22" s="15">
+        <v>8.4</v>
+      </c>
+      <c r="O22" s="22">
+        <v>827.79</v>
+      </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="52">
         <f t="shared" si="1"/>
-        <v>-808.12173913043478</v>
+        <v>67.583600000000018</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
@@ -5355,26 +5382,28 @@
         <v>45452</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="18">
-        <v>746.22</v>
+        <v>714.68</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22">
-        <f>相纸!I18</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="57"/>
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I23" s="57">
+        <v>1</v>
+      </c>
       <c r="J23" s="20">
         <f t="shared" si="0"/>
-        <v>746.22</v>
+        <v>808.4864</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>74</v>
@@ -5388,7 +5417,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="52">
         <f t="shared" si="1"/>
-        <v>-746.22</v>
+        <v>-808.4864</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
@@ -5396,47 +5425,43 @@
         <v>22</v>
       </c>
       <c r="B24" s="16">
-        <v>45455</v>
+        <v>45452</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="18">
-        <v>520.88</v>
+        <v>746.22</v>
       </c>
       <c r="F24" s="15">
         <v>1</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22">
-        <f>相纸!I19</f>
+        <f>相纸!I18</f>
         <v>0</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>520.88</v>
+        <v>746.22</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M24" s="19"/>
-      <c r="N24" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="O24" s="22">
-        <v>582.04</v>
-      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="52">
         <f t="shared" si="1"/>
-        <v>50.359999999999971</v>
+        <v>-746.22</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
@@ -5447,26 +5472,26 @@
         <v>45455</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="18">
-        <v>502.7</v>
+        <v>520.88</v>
       </c>
       <c r="F25" s="15">
         <v>1</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22">
-        <f>相纸!I20</f>
+        <f>相纸!I19</f>
         <v>0</v>
       </c>
       <c r="I25" s="57"/>
       <c r="J25" s="20">
         <f t="shared" si="0"/>
-        <v>502.7</v>
+        <v>520.88</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>69</v>
@@ -5476,7 +5501,7 @@
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="15">
-        <v>6.84</v>
+        <v>10.8</v>
       </c>
       <c r="O25" s="22">
         <v>582.04</v>
@@ -5484,7 +5509,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="52">
         <f t="shared" si="1"/>
-        <v>72.499999999999972</v>
+        <v>50.359999999999971</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
@@ -5495,26 +5520,26 @@
         <v>45455</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E26" s="18">
-        <v>899</v>
+        <v>502.7</v>
       </c>
       <c r="F26" s="15">
         <v>1</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22">
-        <f>相纸!I21</f>
+        <f>相纸!I20</f>
         <v>0</v>
       </c>
       <c r="I26" s="57"/>
       <c r="J26" s="20">
         <f t="shared" si="0"/>
-        <v>899</v>
+        <v>502.7</v>
       </c>
       <c r="K26" s="26" t="s">
         <v>69</v>
@@ -5524,302 +5549,309 @@
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="15">
-        <v>2.8</v>
+        <v>6.84</v>
       </c>
       <c r="O26" s="22">
-        <v>964.83</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>129</v>
-      </c>
+        <v>582.04</v>
+      </c>
+      <c r="P26" s="19"/>
       <c r="Q26" s="52">
         <f t="shared" si="1"/>
-        <v>63.030000000000044</v>
+        <v>72.499999999999972</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="16">
-        <v>45460</v>
+        <v>45455</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E27" s="18">
-        <v>676.25</v>
+        <v>899</v>
       </c>
       <c r="F27" s="15">
         <v>1</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22">
-        <f>相纸!I4</f>
-        <v>93.441739130434783</v>
-      </c>
-      <c r="I27" s="57">
-        <v>1</v>
-      </c>
+        <f>相纸!I21</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="57"/>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>769.69173913043483</v>
+        <v>899</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="19"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="19"/>
+      <c r="N27" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="O27" s="22">
+        <v>964.83</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
-        <v>-769.69173913043483</v>
+        <v>63.030000000000044</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="16">
         <v>45460</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E28" s="18">
-        <v>518.69000000000005</v>
+        <v>676.25</v>
       </c>
       <c r="F28" s="15">
         <v>1</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22">
-        <f>相纸!I24</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="57"/>
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I28" s="57">
+        <v>1</v>
+      </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>518.69000000000005</v>
+        <v>770.05639999999994</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="15">
-        <v>3.42</v>
-      </c>
-      <c r="O28" s="22">
-        <v>582.04</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="N28" s="15"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="19"/>
       <c r="Q28" s="52">
         <f t="shared" si="1"/>
-        <v>59.929999999999907</v>
+        <v>-770.05639999999994</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="91">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="16">
         <v>45460</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="18">
-        <v>518</v>
+        <v>518.69000000000005</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22">
-        <f>相纸!I25</f>
+        <f>相纸!I24</f>
         <v>0</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>518.69000000000005</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="M29" s="19"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="22"/>
+      <c r="N29" s="15">
+        <v>3.42</v>
+      </c>
+      <c r="O29" s="22">
+        <v>582.04</v>
+      </c>
       <c r="P29" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="52">
         <f t="shared" si="1"/>
-        <v>-518</v>
+        <v>59.929999999999907</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="91">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="16">
         <v>45460</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="18">
-        <v>519.29999999999995</v>
+        <v>518</v>
       </c>
       <c r="F30" s="15">
         <v>1</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22">
-        <f>相纸!I26</f>
+        <f>相纸!I25</f>
         <v>0</v>
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
-        <v>519.29999999999995</v>
+        <v>518</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M30" s="19"/>
-      <c r="N30" s="15">
-        <v>3.42</v>
-      </c>
-      <c r="O30" s="22">
-        <v>582.04</v>
-      </c>
+      <c r="N30" s="15"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="52">
         <f t="shared" si="1"/>
-        <v>59.320000000000007</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="91">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="16">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E31" s="18">
-        <v>1601</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="F31" s="15">
         <v>1</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22">
-        <f>相纸!I4</f>
-        <v>93.441739130434783</v>
-      </c>
-      <c r="I31" s="57">
-        <v>2</v>
-      </c>
+        <f>相纸!I26</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="57"/>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>1787.8834782608697</v>
+        <v>519.29999999999995</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>69</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="M31" s="19"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="15">
+        <v>3.42</v>
+      </c>
       <c r="O31" s="22">
-        <v>2130</v>
-      </c>
-      <c r="P31" s="19"/>
+        <v>582.04</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
-        <v>342.11652173913035</v>
+        <v>59.320000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="16">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E32" s="18">
-        <v>699</v>
+        <v>1601</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="57"/>
+      <c r="H32" s="22">
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I32" s="57">
+        <v>2</v>
+      </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
-        <v>699</v>
+        <v>1788.6127999999999</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M32" s="19"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="22"/>
+      <c r="O32" s="22">
+        <v>2130</v>
+      </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="52">
         <f t="shared" si="1"/>
-        <v>-699</v>
+        <v>341.38720000000012</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5829,13 +5861,13 @@
       <c r="H33" s="22"/>
       <c r="I33" s="57"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="20"/>
       <c r="M33" s="19"/>
       <c r="N33" s="15"/>
       <c r="O33" s="22"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="53"/>
+      <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="15"/>
@@ -5916,6 +5948,7 @@
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
       <c r="F38" s="15"/>
@@ -5934,7 +5967,6 @@
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
       <c r="F39" s="15"/>
@@ -6368,7 +6400,25 @@
       <c r="P61" s="19"/>
       <c r="Q61" s="53"/>
     </row>
-    <row r="62" spans="1:17" ht="30" customHeight="1"/>
+    <row r="62" spans="1:17" ht="30" customHeight="1">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="53"/>
+    </row>
     <row r="63" spans="1:17" ht="30" customHeight="1"/>
     <row r="64" spans="1:17" ht="30" customHeight="1"/>
     <row r="65" ht="30" customHeight="1"/>
@@ -6398,10 +6448,11 @@
     <row r="89" ht="30" customHeight="1"/>
     <row r="90" ht="30" customHeight="1"/>
     <row r="91" ht="30" customHeight="1"/>
-    <row r="1048566" spans="10:10">
-      <c r="J1048566" s="21">
-        <f>SUM(J4:J1048565)</f>
-        <v>23158.156521739125</v>
+    <row r="92" ht="30" customHeight="1"/>
+    <row r="1048567" spans="10:10">
+      <c r="J1048567" s="21">
+        <f>SUM(J4:J1048566)</f>
+        <v>22466.814399999996</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +6460,7 @@
     <mergeCell ref="U2:U5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L32">
+  <conditionalFormatting sqref="L2:L33">
     <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
@@ -6420,7 +6471,7 @@
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K32">
+  <conditionalFormatting sqref="K3:K33">
     <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
@@ -6428,29 +6479,29 @@
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K32">
+  <conditionalFormatting sqref="K3:K33">
     <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K32">
+  <conditionalFormatting sqref="K15:K33">
     <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
-      <formula>NOT(ISERROR(SEARCH("已收货",K14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("已收货",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K32">
+  <conditionalFormatting sqref="K28:K33">
     <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
-      <formula>NOT(ISERROR(SEARCH("未收货",K27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未收货",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K13" xr:uid="{A744D780-F3DC-B549-A8FB-91A591FB6A59}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K14" xr:uid="{A744D780-F3DC-B549-A8FB-91A591FB6A59}">
       <formula1>"未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K32" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K33" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
       <formula1>"未收货,已收货,未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
       <formula1>"未发货,已发货,已结清,已取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6466,8 +6517,8 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6478,7 +6529,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="41" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="41"/>
-    <col min="7" max="7" width="20.1640625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="114" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
@@ -6490,25 +6541,25 @@
         <v>54</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="115" t="s">
-        <v>98</v>
+      <c r="G1" s="111" t="s">
+        <v>97</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
@@ -6519,7 +6570,7 @@
         <v>45446</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>79</v>
@@ -6530,7 +6581,7 @@
       <c r="F2" s="40">
         <v>0</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.78</v>
       </c>
@@ -6543,7 +6594,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>79</v>
@@ -6554,18 +6605,18 @@
       <c r="F3" s="40">
         <v>0</v>
       </c>
-      <c r="G3" s="116">
+      <c r="G3" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>99.65</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>100</v>
       </c>
       <c r="L3" s="63" t="s">
         <v>72</v>
@@ -6579,7 +6630,7 @@
         <v>45446</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>79</v>
@@ -6590,21 +6641,21 @@
       <c r="F4" s="40">
         <v>0</v>
       </c>
-      <c r="G4" s="116">
+      <c r="G4" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>90.9</v>
       </c>
       <c r="I4" s="64">
         <f>AVERAGE(G:G)</f>
-        <v>93.441739130434783</v>
+        <v>93.806399999999996</v>
       </c>
       <c r="J4" s="65">
         <f>COUNT(A:A)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="64">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>2149.16</v>
+        <v>2345.16</v>
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
@@ -6619,7 +6670,7 @@
         <v>45449</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>79</v>
@@ -6630,7 +6681,7 @@
       <c r="F5" s="40">
         <v>0</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G5" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6643,10 +6694,10 @@
         <v>45449</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="40">
         <v>96.98</v>
@@ -6654,7 +6705,7 @@
       <c r="F6" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6667,10 +6718,10 @@
         <v>45451</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="40">
         <v>96.98</v>
@@ -6678,7 +6729,7 @@
       <c r="F7" s="40">
         <v>0</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6691,10 +6742,10 @@
         <v>45451</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E8" s="40">
         <v>92.67</v>
@@ -6702,7 +6753,7 @@
       <c r="F8" s="40">
         <v>0</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92.67</v>
       </c>
@@ -6715,10 +6766,10 @@
         <v>45453</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="40">
         <v>98.8</v>
@@ -6726,7 +6777,7 @@
       <c r="F9" s="40">
         <v>0</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98.8</v>
       </c>
@@ -6739,10 +6790,10 @@
         <v>45453</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="40">
         <v>94.93</v>
@@ -6750,7 +6801,7 @@
       <c r="F10" s="40">
         <v>0</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>94.93</v>
       </c>
@@ -6763,7 +6814,7 @@
         <v>45452</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>84</v>
@@ -6774,7 +6825,7 @@
       <c r="F11" s="40">
         <v>0</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6787,10 +6838,10 @@
         <v>45452</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="40">
         <v>102.72</v>
@@ -6798,7 +6849,7 @@
       <c r="F12" s="40">
         <v>0</v>
       </c>
-      <c r="G12" s="116">
+      <c r="G12" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>102.72</v>
       </c>
@@ -6811,7 +6862,7 @@
         <v>45452</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>81</v>
@@ -6822,7 +6873,7 @@
       <c r="F13" s="40">
         <v>0</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6836,7 +6887,7 @@
         <v>45452</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>84</v>
@@ -6847,7 +6898,7 @@
       <c r="F14" s="40">
         <v>0</v>
       </c>
-      <c r="G14" s="116">
+      <c r="G14" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>93</v>
       </c>
@@ -6860,7 +6911,7 @@
         <v>45452</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>84</v>
@@ -6871,7 +6922,7 @@
       <c r="F15" s="40">
         <v>10</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6884,7 +6935,7 @@
         <v>45453</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>79</v>
@@ -6893,7 +6944,7 @@
         <v>100.97</v>
       </c>
       <c r="F16" s="85"/>
-      <c r="G16" s="117">
+      <c r="G16" s="113">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>100.97</v>
       </c>
@@ -6906,21 +6957,21 @@
         <v>45455</v>
       </c>
       <c r="C17" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="E17" s="85">
         <v>88</v>
       </c>
       <c r="F17" s="85"/>
-      <c r="G17" s="117">
+      <c r="G17" s="113">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>88</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
@@ -6931,16 +6982,16 @@
         <v>45455</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="85">
         <v>92</v>
       </c>
       <c r="F18" s="85"/>
-      <c r="G18" s="117">
+      <c r="G18" s="113">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92</v>
       </c>
@@ -6953,16 +7004,16 @@
         <v>45458</v>
       </c>
       <c r="C19" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="E19" s="40">
         <v>98</v>
       </c>
       <c r="F19" s="40"/>
-      <c r="G19" s="116">
+      <c r="G19" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6975,16 +7026,16 @@
         <v>45458</v>
       </c>
       <c r="C20" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="E20" s="40">
         <v>98</v>
       </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="116">
+      <c r="G20" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6997,10 +7048,10 @@
         <v>45458</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="E21" s="40">
         <v>72</v>
@@ -7008,12 +7059,12 @@
       <c r="F21" s="40">
         <v>12</v>
       </c>
-      <c r="G21" s="116">
+      <c r="G21" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1">
@@ -7024,10 +7075,10 @@
         <v>45457</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="40">
         <v>45</v>
@@ -7035,11 +7086,13 @@
       <c r="F22" s="40">
         <v>5</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>50</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1">
       <c r="A23" s="15">
@@ -7049,10 +7102,10 @@
         <v>45460</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E23" s="40">
         <v>71.98</v>
@@ -7060,7 +7113,7 @@
       <c r="F23" s="40">
         <v>0</v>
       </c>
-      <c r="G23" s="116">
+      <c r="G23" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>71.98</v>
       </c>
@@ -7074,10 +7127,10 @@
         <v>45467</v>
       </c>
       <c r="C24" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="E24" s="85">
         <v>88</v>
@@ -7085,29 +7138,58 @@
       <c r="F24" s="85">
         <v>10</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="113">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
-      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8" ht="27" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="116"/>
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <v>45468</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="85">
+        <v>88</v>
+      </c>
+      <c r="F25" s="85">
+        <v>10</v>
+      </c>
+      <c r="G25" s="113">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="27" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="116"/>
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="49">
+        <v>45469</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="85">
+        <v>88</v>
+      </c>
+      <c r="F26" s="85">
+        <v>10</v>
+      </c>
+      <c r="G26" s="113">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1">
       <c r="A27" s="51"/>
@@ -7116,7 +7198,7 @@
       <c r="D27" s="38"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="G27" s="117"/>
+      <c r="G27" s="113"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C285A4-6C56-0B4C-861A-2E8CD3071822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD849B-FEB9-B146-A60E-F2BF0F345FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="3880" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="相纸" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">羊毛!$A$1:$L$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>瑕疵退货+8元运费</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>京东 拍立得 mini 12 白色</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -317,9 +313,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已收货</t>
-  </si>
-  <si>
     <t>淘宝 拍立得 mini 12 白色</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -561,14 +554,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>苏瑞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯晶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>去的运费+回来运费+耳机到付=66.8</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -605,6 +590,22 @@
   </si>
   <si>
     <t>小红书心愿单 买纸买人头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损赔偿 50+30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯晶  582.04 - 570 = 12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏瑞  582.04 - 570 = 12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵退货+8元运费;破损赔偿 50+30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2174,8 +2175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:L62" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
-  <autoFilter ref="A1:L62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:L61" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="A1:L61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="46"/>
@@ -2507,11 +2508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
@@ -2551,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>6</v>
@@ -2572,7 +2573,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="33">
@@ -2589,12 +2590,12 @@
       <c r="K2" s="33"/>
       <c r="L2" s="87"/>
       <c r="N2" s="110">
-        <f>SUMIFS(L3:L52,L3:L52,"&gt;0")</f>
+        <f>SUMIFS(L3:L51,L3:L51,"&gt;0")</f>
         <v>10444.050000000003</v>
       </c>
       <c r="O2" s="110">
-        <f>SUMIFS(L3:L52,L3:L52,"&lt;0")</f>
-        <v>-13773.4</v>
+        <f>SUMIFS(L3:L51,L3:L51,"&lt;0")</f>
+        <v>-8926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2682,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="81">
-        <f t="shared" ref="F5:F52" si="1">D5*E5</f>
+        <f t="shared" ref="F5:F51" si="1">D5*E5</f>
         <v>7388</v>
       </c>
       <c r="I5" s="4">
@@ -3539,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>-4463</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3597,11 +3598,11 @@
         <v>49</v>
       </c>
       <c r="L34" s="88">
-        <f t="shared" ref="L34:L52" si="2">J34-G34-I34-F34</f>
+        <f t="shared" ref="L34:L51" si="2">J34-G34-I34-F34</f>
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>-4463</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>45301</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="83">
         <v>605</v>
@@ -3770,7 +3771,7 @@
         <v>9.8700000000000045</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>45301</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="81">
         <v>606</v>
@@ -3802,7 +3803,7 @@
         <v>13.870000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>45301</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D41" s="83">
         <v>543</v>
@@ -3833,14 +3834,14 @@
         <v>541.44000000000005</v>
       </c>
       <c r="K41" s="75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L41" s="88">
         <f t="shared" si="2"/>
         <v>26.440000000000055</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>45449</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="81">
         <v>6526</v>
@@ -3871,8 +3872,12 @@
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="N42">
+        <f>SUMIFS(L42:L51,L42:L51,"&gt;0")</f>
+        <v>1610.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>45450</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" s="82">
         <v>1328</v>
@@ -3903,14 +3908,14 @@
         <v>2801.5</v>
       </c>
       <c r="K43" s="75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L43" s="88">
         <f t="shared" si="2"/>
         <v>147.90000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>45451</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="81">
         <v>4600</v>
@@ -3941,14 +3946,14 @@
         <v>9486.2800000000007</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L44" s="88">
         <f t="shared" si="2"/>
         <v>291.28000000000065</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>45456</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" s="81">
         <v>6841.68</v>
@@ -3979,7 +3984,7 @@
         <v>38.319999999999709</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>45457</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="81">
         <v>6876</v>
@@ -4009,14 +4014,14 @@
         <v>6880</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L46" s="88">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>45453</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="81">
         <v>7579</v>
@@ -4047,7 +4052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>45459</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" s="81">
         <v>4499</v>
@@ -4086,7 +4091,7 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D49" s="81">
         <v>4499</v>
@@ -4117,7 +4122,7 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D50" s="81">
         <v>4656.18</v>
@@ -4148,7 +4153,7 @@
         <v>45463</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D51" s="81">
         <v>4499</v>
@@ -4172,36 +4177,12 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="2">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3">
-        <v>45463</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="81">
-        <v>4847.3999999999996</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="81">
-        <f t="shared" si="1"/>
-        <v>4847.3999999999996</v>
-      </c>
-      <c r="I52" s="23">
-        <v>0</v>
-      </c>
-      <c r="L52" s="88">
-        <f t="shared" si="2"/>
-        <v>-4847.3999999999996</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="L52" s="81"/>
     </row>
     <row r="53" spans="1:12">
       <c r="C53" s="6"/>
-      <c r="L53" s="81"/>
+      <c r="L53" s="84"/>
     </row>
     <row r="54" spans="1:12">
       <c r="C54" s="6"/>
@@ -4237,7 +4218,6 @@
     </row>
     <row r="62" spans="1:12">
       <c r="C62" s="6"/>
-      <c r="L62" s="84"/>
     </row>
     <row r="63" spans="1:12">
       <c r="C63" s="6"/>
@@ -4250,9 +4230,6 @@
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4268,8 +4245,8 @@
   <dimension ref="A1:V1048567"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4308,31 +4285,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>107</v>
-      </c>
       <c r="I1" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="48" t="s">
         <v>6</v>
@@ -4356,10 +4333,10 @@
         <v>10</v>
       </c>
       <c r="T1" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U1" s="66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V1" s="66"/>
     </row>
@@ -4382,19 +4359,19 @@
       <c r="P2" s="109"/>
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
-        <f>SUMIFS(Q4:Q25,Q4:Q25,"&gt;0")</f>
-        <v>771.37520000000006</v>
+        <f>SUMIFS(Q3:Q32,Q3:Q32,"&gt;0")</f>
+        <v>1726.6468</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q27,Q4:Q27,"&lt;0")</f>
-        <v>-11429.970399999997</v>
+        <v>-10684.750399999997</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
         <v>33</v>
       </c>
       <c r="U2" s="115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V2" s="66"/>
     </row>
@@ -4406,10 +4383,10 @@
         <v>45444</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="94">
         <v>761</v>
@@ -4418,29 +4395,36 @@
         <v>1</v>
       </c>
       <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="H3" s="96">
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I3" s="97">
+        <v>1</v>
+      </c>
       <c r="J3" s="98">
         <f t="shared" ref="J3:J32" si="0">E3*F3 - G3*F3 + H3*I3</f>
-        <v>761</v>
+        <v>854.80639999999994</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>68</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M3" s="99"/>
       <c r="N3" s="95">
-        <v>8</v>
-      </c>
-      <c r="O3" s="96"/>
+        <v>15</v>
+      </c>
+      <c r="O3" s="96">
+        <v>996.42</v>
+      </c>
       <c r="P3" s="93" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="100">
         <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
-        <v>-769</v>
+        <v>126.61360000000002</v>
       </c>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
@@ -4456,10 +4440,10 @@
         <v>45444</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="18">
         <v>746</v>
@@ -4475,10 +4459,10 @@
         <v>746</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="15"/>
@@ -4502,10 +4486,10 @@
         <v>45444</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="18">
         <v>718</v>
@@ -4528,10 +4512,10 @@
         <v>755.80639999999994</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="15">
@@ -4557,10 +4541,10 @@
         <v>45444</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="18">
         <v>727</v>
@@ -4583,10 +4567,10 @@
         <v>764.80639999999994</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="15">
@@ -4607,10 +4591,10 @@
         <v>45444</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18">
         <v>728</v>
@@ -4633,10 +4617,10 @@
         <v>765.80639999999994</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="15">
@@ -4657,10 +4641,10 @@
         <v>45444</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="18">
         <v>659</v>
@@ -4681,10 +4665,10 @@
         <v>1505.6127999999999</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="15"/>
@@ -4703,10 +4687,10 @@
         <v>45444</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="18">
         <v>759.1</v>
@@ -4722,10 +4706,10 @@
         <v>1518.2</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="15"/>
@@ -4744,10 +4728,10 @@
         <v>45444</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="31">
         <v>736</v>
@@ -4763,10 +4747,10 @@
         <v>736</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="28">
@@ -4789,10 +4773,10 @@
         <v>45444</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="18">
         <v>398.98</v>
@@ -4813,10 +4797,10 @@
         <v>985.57280000000003</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="15">
@@ -4839,10 +4823,10 @@
         <v>45444</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="18">
         <v>394</v>
@@ -4863,10 +4847,10 @@
         <v>487.8064</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="15">
@@ -4889,10 +4873,10 @@
         <v>45449</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="18">
         <v>732</v>
@@ -4915,10 +4899,10 @@
         <v>767.80639999999994</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
@@ -4937,10 +4921,10 @@
         <v>45449</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="18">
         <v>732</v>
@@ -4963,10 +4947,10 @@
         <v>767.80639999999994</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="15"/>
@@ -4985,10 +4969,10 @@
         <v>45449</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="18">
         <v>488</v>
@@ -5011,10 +4995,10 @@
         <v>523.80639999999994</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="15">
@@ -5037,10 +5021,10 @@
         <v>45449</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="18">
         <v>478</v>
@@ -5063,10 +5047,10 @@
         <v>513.80639999999994</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="15">
@@ -5089,10 +5073,10 @@
         <v>45449</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="18">
         <v>463</v>
@@ -5115,10 +5099,10 @@
         <v>498.8064</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="15">
@@ -5141,10 +5125,10 @@
         <v>45449</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="18">
         <v>521</v>
@@ -5160,10 +5144,10 @@
         <v>521</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="15">
@@ -5186,10 +5170,10 @@
         <v>45449</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="18">
         <v>717</v>
@@ -5198,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="22">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
@@ -5209,13 +5193,13 @@
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>751.80639999999994</v>
+        <v>752.80639999999994</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="15">
@@ -5225,7 +5209,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="52">
         <f t="shared" si="1"/>
-        <v>-757.90639999999996</v>
+        <v>-758.90639999999996</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5236,10 +5220,10 @@
         <v>45449</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="18">
         <v>736</v>
@@ -5262,16 +5246,16 @@
         <v>771.80639999999994</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="15"/>
       <c r="O20" s="22"/>
       <c r="P20" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="52">
         <f t="shared" si="1"/>
@@ -5286,10 +5270,10 @@
         <v>45451</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="18">
         <v>647</v>
@@ -5310,10 +5294,10 @@
         <v>740.80639999999994</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="15"/>
@@ -5332,10 +5316,10 @@
         <v>45451</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="18">
         <v>658</v>
@@ -5356,10 +5340,10 @@
         <v>751.80639999999994</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="15">
@@ -5382,10 +5366,10 @@
         <v>45452</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="18">
         <v>714.68</v>
@@ -5406,15 +5390,15 @@
         <v>808.4864</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="15"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="52">
         <f t="shared" si="1"/>
         <v>-808.4864</v>
@@ -5428,10 +5412,10 @@
         <v>45452</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" s="18">
         <v>746.22</v>
@@ -5441,27 +5425,35 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22">
-        <f>相纸!I18</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="57"/>
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
+      </c>
+      <c r="I24" s="57">
+        <v>1</v>
+      </c>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>746.22</v>
+        <v>840.02639999999997</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M24" s="19"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="19"/>
+      <c r="N24" s="15">
+        <v>7</v>
+      </c>
+      <c r="O24" s="22">
+        <v>996.42</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="Q24" s="52">
         <f t="shared" si="1"/>
-        <v>-746.22</v>
+        <v>149.39359999999999</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
@@ -5472,10 +5464,10 @@
         <v>45455</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="18">
         <v>520.88</v>
@@ -5494,10 +5486,10 @@
         <v>520.88</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="15">
@@ -5520,10 +5512,10 @@
         <v>45455</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="18">
         <v>502.7</v>
@@ -5542,10 +5534,10 @@
         <v>502.7</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="15">
@@ -5568,10 +5560,10 @@
         <v>45455</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="18">
         <v>899</v>
@@ -5590,10 +5582,10 @@
         <v>899</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="15">
@@ -5603,7 +5595,7 @@
         <v>964.83</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="52">
         <f t="shared" si="1"/>
@@ -5618,10 +5610,10 @@
         <v>45460</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" s="18">
         <v>676.25</v>
@@ -5635,25 +5627,31 @@
         <v>93.806399999999996</v>
       </c>
       <c r="I28" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>770.05639999999994</v>
+        <v>863.86279999999999</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="19"/>
+      <c r="N28" s="15">
+        <v>6.75</v>
+      </c>
+      <c r="O28" s="22">
+        <v>996.42</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="Q28" s="52">
         <f t="shared" si="1"/>
-        <v>-770.05639999999994</v>
+        <v>125.80719999999997</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
@@ -5664,10 +5662,10 @@
         <v>45460</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="18">
         <v>518.69000000000005</v>
@@ -5686,24 +5684,24 @@
         <v>518.69000000000005</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="15">
         <v>3.42</v>
       </c>
       <c r="O29" s="22">
-        <v>582.04</v>
+        <v>532.04</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="52">
         <f t="shared" si="1"/>
-        <v>59.929999999999907</v>
+        <v>9.9299999999999091</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
@@ -5714,10 +5712,10 @@
         <v>45460</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" s="18">
         <v>518</v>
@@ -5736,20 +5734,24 @@
         <v>518</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M30" s="19"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="22"/>
+      <c r="N30" s="15">
+        <v>6.75</v>
+      </c>
+      <c r="O30" s="22">
+        <v>532.04</v>
+      </c>
       <c r="P30" s="17" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="52">
         <f t="shared" si="1"/>
-        <v>-518</v>
+        <v>7.2899999999999636</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
@@ -5760,10 +5762,10 @@
         <v>45460</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="18">
         <v>519.29999999999995</v>
@@ -5782,10 +5784,10 @@
         <v>519.29999999999995</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="15">
@@ -5795,7 +5797,7 @@
         <v>582.04</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="52">
         <f t="shared" si="1"/>
@@ -5810,10 +5812,10 @@
         <v>45461</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="18">
         <v>1601</v>
@@ -5834,13 +5836,15 @@
         <v>1788.6127999999999</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" s="19"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
       <c r="O32" s="22">
         <v>2130</v>
       </c>
@@ -6452,7 +6456,7 @@
     <row r="1048567" spans="10:10">
       <c r="J1048567" s="21">
         <f>SUM(J4:J1048566)</f>
-        <v>22466.814399999996</v>
+        <v>22655.427199999991</v>
       </c>
     </row>
   </sheetData>
@@ -6517,7 +6521,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -6541,25 +6545,25 @@
         <v>54</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="111" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
@@ -6570,10 +6574,10 @@
         <v>45446</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="40">
         <v>101.78</v>
@@ -6594,10 +6598,10 @@
         <v>45446</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="40">
         <v>99.65</v>
@@ -6610,16 +6614,16 @@
         <v>99.65</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L3" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1">
@@ -6630,10 +6634,10 @@
         <v>45446</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="40">
         <v>90.9</v>
@@ -6659,7 +6663,7 @@
       </c>
       <c r="L4" s="63">
         <f>SUM(拍立得!I:I)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
@@ -6670,10 +6674,10 @@
         <v>45449</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="40">
         <v>101.9</v>
@@ -6694,10 +6698,10 @@
         <v>45449</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="40">
         <v>96.98</v>
@@ -6718,10 +6722,10 @@
         <v>45451</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="40">
         <v>96.98</v>
@@ -6742,10 +6746,10 @@
         <v>45451</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="40">
         <v>92.67</v>
@@ -6766,10 +6770,10 @@
         <v>45453</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E9" s="40">
         <v>98.8</v>
@@ -6790,10 +6794,10 @@
         <v>45453</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="E10" s="40">
         <v>94.93</v>
@@ -6814,10 +6818,10 @@
         <v>45452</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="40">
         <v>98</v>
@@ -6838,10 +6842,10 @@
         <v>45452</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="40">
         <v>102.72</v>
@@ -6862,10 +6866,10 @@
         <v>45452</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="40">
         <v>98</v>
@@ -6887,10 +6891,10 @@
         <v>45452</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="40">
         <v>93</v>
@@ -6911,10 +6915,10 @@
         <v>45452</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="40">
         <v>91.9</v>
@@ -6935,10 +6939,10 @@
         <v>45453</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="85">
         <v>100.97</v>
@@ -6957,10 +6961,10 @@
         <v>45455</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="85">
         <v>88</v>
@@ -6971,7 +6975,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1">
@@ -6982,10 +6986,10 @@
         <v>45455</v>
       </c>
       <c r="C18" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>117</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>119</v>
       </c>
       <c r="E18" s="85">
         <v>92</v>
@@ -7004,10 +7008,10 @@
         <v>45458</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E19" s="40">
         <v>98</v>
@@ -7026,10 +7030,10 @@
         <v>45458</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" s="40">
         <v>98</v>
@@ -7048,10 +7052,10 @@
         <v>45458</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" s="40">
         <v>72</v>
@@ -7064,7 +7068,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1">
@@ -7075,10 +7079,10 @@
         <v>45457</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="40">
         <v>45</v>
@@ -7091,7 +7095,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1">
@@ -7102,10 +7106,10 @@
         <v>45460</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="40">
         <v>71.98</v>
@@ -7127,10 +7131,10 @@
         <v>45467</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="85">
         <v>88</v>
@@ -7151,10 +7155,10 @@
         <v>45468</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="85">
         <v>88</v>
@@ -7175,10 +7179,10 @@
         <v>45469</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="85">
         <v>88</v>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/su_nan/Documents/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C285A4-6C56-0B4C-861A-2E8CD3071822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DAA89-8E19-9843-A5AD-4209FE5089ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="3880" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="3880" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -2509,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N52" sqref="N52"/>
     </sheetView>
@@ -4267,9 +4267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048567"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4383,11 +4383,11 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="67">
         <f>SUMIFS(Q4:Q25,Q4:Q25,"&gt;0")</f>
-        <v>771.37520000000006</v>
+        <v>958.88880000000006</v>
       </c>
       <c r="S2" s="64">
         <f>SUMIFS(Q4:Q27,Q4:Q27,"&lt;0")</f>
-        <v>-11429.970399999997</v>
+        <v>-10621.483999999997</v>
       </c>
       <c r="T2" s="66">
         <f>SUM(F:F)</f>
@@ -5413,11 +5413,13 @@
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="22"/>
+      <c r="O23" s="22">
+        <v>996</v>
+      </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="52">
         <f t="shared" si="1"/>
-        <v>-808.4864</v>
+        <v>187.5136</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
@@ -5441,8 +5443,8 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22">
-        <f>相纸!I18</f>
-        <v>0</v>
+        <f>相纸!I4</f>
+        <v>93.806399999999996</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="20">
@@ -6517,7 +6519,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD849B-FEB9-B146-A60E-F2BF0F345FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D413C-07C8-9542-83D0-36BCD4D4DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -1174,9 +1174,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,6 +1371,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2229,8 +2229,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H26" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:H27" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -2520,59 +2520,59 @@
     <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="80" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="13.5" style="81" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="80" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="80" customWidth="1"/>
     <col min="11" max="11" width="41.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="90" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="89" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="33">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2580,20 +2580,20 @@
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="80"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="80"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="33"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="110">
+      <c r="L2" s="86"/>
+      <c r="N2" s="109">
         <f>SUMIFS(L3:L51,L3:L51,"&gt;0")</f>
         <v>10444.050000000003</v>
       </c>
-      <c r="O2" s="110">
+      <c r="O2" s="109">
         <f>SUMIFS(L3:L51,L3:L51,"&lt;0")</f>
         <v>-8926</v>
       </c>
@@ -2608,26 +2608,26 @@
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="80">
         <v>12999</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="80">
         <f>D3*E3</f>
         <v>12999</v>
       </c>
       <c r="I3" s="4">
         <v>17</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="80">
         <v>13700</v>
       </c>
       <c r="K3" s="4">
         <v>10.119999999999999</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="87">
         <f t="shared" ref="L3:L32" si="0">J3-I3-F3</f>
         <v>684</v>
       </c>
@@ -2642,26 +2642,26 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="80">
         <v>9999</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="80">
         <f>D4*E4</f>
         <v>9999</v>
       </c>
       <c r="I4" s="4">
         <v>13</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="80">
         <v>10020</v>
       </c>
       <c r="K4" s="4">
         <v>10.11</v>
       </c>
-      <c r="L4" s="89">
+      <c r="L4" s="88">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2676,26 +2676,26 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="80">
         <v>7388</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="80">
         <f t="shared" ref="F5:F51" si="1">D5*E5</f>
         <v>7388</v>
       </c>
       <c r="I5" s="4">
         <v>23</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <v>7540</v>
       </c>
       <c r="K5" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="87">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
@@ -2710,26 +2710,26 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="80">
         <v>10098</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="80">
         <f t="shared" si="1"/>
         <v>10098</v>
       </c>
       <c r="I6" s="4">
         <v>100</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="80">
         <v>10560</v>
       </c>
       <c r="K6" s="4">
         <v>10.31</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="88">
         <f t="shared" si="0"/>
         <v>362</v>
       </c>
@@ -2744,26 +2744,26 @@
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="80">
         <v>6186</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="80">
         <f t="shared" si="1"/>
         <v>6186</v>
       </c>
       <c r="I7" s="4">
         <v>34</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="80">
         <v>6500</v>
       </c>
       <c r="K7" s="4">
         <v>11.02</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="87">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
@@ -2778,23 +2778,23 @@
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="80">
         <v>0</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="80">
         <v>40</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="88">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2809,23 +2809,23 @@
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="80">
         <v>8183.1</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="80">
         <f t="shared" si="1"/>
         <v>8183.1</v>
       </c>
       <c r="I9" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="80">
         <v>8350</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="87">
         <f t="shared" si="0"/>
         <v>146.5</v>
       </c>
@@ -2840,23 +2840,23 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="80">
         <v>95</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="80">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="I10" s="4">
         <v>13.2</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="80">
         <v>180</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="88">
         <f t="shared" si="0"/>
         <v>71.800000000000011</v>
       </c>
@@ -2871,26 +2871,26 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="80">
         <v>614</v>
       </c>
       <c r="E11" s="4">
         <v>14</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="80">
         <f t="shared" si="1"/>
         <v>8596</v>
       </c>
       <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="80">
         <v>9211</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="87">
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
@@ -2905,23 +2905,23 @@
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="80">
         <v>304</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L12" s="88">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
@@ -2936,23 +2936,23 @@
       <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <v>7</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="80">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="80">
         <v>50</v>
       </c>
-      <c r="L13" s="88">
+      <c r="L13" s="87">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2964,23 +2964,23 @@
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="80">
         <v>2676</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="80">
         <f t="shared" si="1"/>
         <v>2676</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="80">
         <v>2780</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="88">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -2992,23 +2992,23 @@
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="80">
         <v>6095</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="80">
         <f t="shared" si="1"/>
         <v>6095</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="80">
         <v>6190</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="87">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -3020,23 +3020,23 @@
       <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="80">
         <v>9780</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="80">
         <f t="shared" si="1"/>
         <v>9780</v>
       </c>
       <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="80">
         <v>12300</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="88">
         <f t="shared" si="0"/>
         <v>2508</v>
       </c>
@@ -3048,23 +3048,23 @@
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="80">
         <v>5299</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="80">
         <f t="shared" si="1"/>
         <v>5299</v>
       </c>
       <c r="I17" s="4">
         <v>25</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="80">
         <v>5400</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="87">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -3076,23 +3076,23 @@
       <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="80">
         <v>453.75</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="80">
         <f t="shared" si="1"/>
         <v>1815</v>
       </c>
       <c r="I18" s="4">
         <v>11.4</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="80">
         <v>1908</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="88">
         <f t="shared" si="0"/>
         <v>81.599999999999909</v>
       </c>
@@ -3104,26 +3104,26 @@
       <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="80">
         <v>4390</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="80">
         <f t="shared" si="1"/>
         <v>4390</v>
       </c>
       <c r="I19" s="4">
         <v>31.2</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="80">
         <v>4500</v>
       </c>
       <c r="K19" s="4">
         <v>11.6</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="87">
         <f t="shared" si="0"/>
         <v>78.800000000000182</v>
       </c>
@@ -3138,26 +3138,26 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="80">
         <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="4">
         <v>6</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="80">
         <v>115</v>
       </c>
       <c r="K20" s="4">
         <v>11.9</v>
       </c>
-      <c r="L20" s="89">
+      <c r="L20" s="88">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
@@ -3172,26 +3172,26 @@
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="80">
         <v>7877</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="80">
         <f t="shared" si="1"/>
         <v>7877</v>
       </c>
       <c r="I21" s="4">
         <v>28</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="80">
         <v>8100</v>
       </c>
       <c r="K21" s="4">
         <v>11.7</v>
       </c>
-      <c r="L21" s="88">
+      <c r="L21" s="87">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
@@ -3206,26 +3206,26 @@
       <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="80">
         <v>5973</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="80">
         <f t="shared" si="1"/>
         <v>5973</v>
       </c>
       <c r="I22" s="4">
         <v>40.200000000000003</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="80">
         <v>6100</v>
       </c>
       <c r="K22" s="4">
         <v>11.1</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="88">
         <f t="shared" si="0"/>
         <v>86.800000000000182</v>
       </c>
@@ -3240,23 +3240,23 @@
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="80">
         <v>8138.7</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="80">
         <f t="shared" si="1"/>
         <v>8138.7</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="80">
         <v>8180</v>
       </c>
-      <c r="L23" s="88">
+      <c r="L23" s="87">
         <f t="shared" si="0"/>
         <v>41.300000000000182</v>
       </c>
@@ -3271,23 +3271,23 @@
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="80">
         <v>8115.25</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="80">
         <f t="shared" si="1"/>
         <v>8115.25</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="80">
         <v>8180</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="88">
         <f t="shared" si="0"/>
         <v>64.75</v>
       </c>
@@ -3302,23 +3302,23 @@
       <c r="C25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="80">
         <v>7</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="80">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I25" s="4">
         <v>16.8</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="80">
         <v>186</v>
       </c>
-      <c r="L25" s="88">
+      <c r="L25" s="87">
         <f>J25-I25-F25</f>
         <v>162.19999999999999</v>
       </c>
@@ -3333,23 +3333,23 @@
       <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="80">
         <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="80">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="I26" s="4">
         <v>9</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="80">
         <v>304</v>
       </c>
-      <c r="L26" s="89">
+      <c r="L26" s="88">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -3364,23 +3364,23 @@
       <c r="C27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="80">
         <v>380</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="80">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
       <c r="I27" s="4">
         <v>10</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="80">
         <v>830</v>
       </c>
-      <c r="L27" s="88">
+      <c r="L27" s="87">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3395,23 +3395,23 @@
       <c r="C28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="80">
         <v>8896</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="80">
         <f t="shared" si="1"/>
         <v>8896</v>
       </c>
       <c r="I28" s="4">
         <v>10</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="80">
         <v>9070</v>
       </c>
-      <c r="L28" s="89">
+      <c r="L28" s="88">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -3426,23 +3426,23 @@
       <c r="C29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="80">
         <v>3189</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="80">
         <f t="shared" si="1"/>
         <v>3189</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="80">
         <v>3270</v>
       </c>
-      <c r="L29" s="88">
+      <c r="L29" s="87">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
@@ -3457,23 +3457,23 @@
       <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="80">
         <v>366</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="80">
         <v>178.8</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="89">
+      <c r="L30" s="88">
         <f t="shared" si="0"/>
         <v>178.8</v>
       </c>
@@ -3488,26 +3488,26 @@
       <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="80">
         <v>1080</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="80">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="I31" s="4">
         <v>7.2</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="80">
         <v>1170</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="88">
+      <c r="L31" s="87">
         <f t="shared" si="0"/>
         <v>82.799999999999955</v>
       </c>
@@ -3519,23 +3519,23 @@
       <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="80">
         <v>2619</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="80">
         <f t="shared" si="1"/>
         <v>2619</v>
       </c>
       <c r="I32" s="4">
         <v>9</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="80">
         <v>2640</v>
       </c>
-      <c r="L32" s="89">
+      <c r="L32" s="88">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3550,17 +3550,17 @@
       <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="80">
         <v>1499</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="80">
         <f t="shared" si="1"/>
         <v>2998</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="80">
         <v>1405</v>
       </c>
       <c r="I33" s="4">
@@ -3569,7 +3569,7 @@
       <c r="K33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="88">
+      <c r="L33" s="87">
         <f>J33-G33-I33-F33</f>
         <v>-4463</v>
       </c>
@@ -3581,23 +3581,23 @@
       <c r="C34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="80">
         <v>2499</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="80">
         <f t="shared" si="1"/>
         <v>2499</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="80">
         <v>3000</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="88">
+      <c r="L34" s="87">
         <f t="shared" ref="L34:L51" si="2">J34-G34-I34-F34</f>
         <v>501</v>
       </c>
@@ -3612,17 +3612,17 @@
       <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="80">
         <v>1499</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="80">
         <f t="shared" si="1"/>
         <v>2998</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="80">
         <v>1405</v>
       </c>
       <c r="I35" s="4">
@@ -3631,7 +3631,7 @@
       <c r="K35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L35" s="88">
+      <c r="L35" s="87">
         <f t="shared" si="2"/>
         <v>-4463</v>
       </c>
@@ -3646,26 +3646,26 @@
       <c r="C36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="80">
         <v>200</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="80">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="80">
         <v>810</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="88">
+      <c r="L36" s="87">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
@@ -3680,26 +3680,26 @@
       <c r="C37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="80">
         <v>400</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="80">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="I37" s="4">
         <v>10</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="80">
         <v>730</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="88">
+      <c r="L37" s="87">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
@@ -3714,26 +3714,26 @@
       <c r="C38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="80">
         <v>400</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="80">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="80">
         <v>1300</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="88">
+      <c r="L38" s="87">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
@@ -3745,28 +3745,28 @@
       <c r="B39" s="11">
         <v>45301</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D39" s="82">
         <v>605</v>
       </c>
-      <c r="E39" s="72">
-        <v>1</v>
-      </c>
-      <c r="F39" s="81">
+      <c r="E39" s="71">
+        <v>1</v>
+      </c>
+      <c r="F39" s="80">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73">
+      <c r="H39" s="72"/>
+      <c r="I39" s="72">
         <v>11</v>
       </c>
-      <c r="J39" s="83">
+      <c r="J39" s="82">
         <v>625.87</v>
       </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="88">
+      <c r="K39" s="73"/>
+      <c r="L39" s="87">
         <f t="shared" si="2"/>
         <v>9.8700000000000045</v>
       </c>
@@ -3778,16 +3778,16 @@
       <c r="B40" s="11">
         <v>45301</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="80">
         <v>606</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="80">
         <f t="shared" si="1"/>
         <v>606</v>
       </c>
@@ -3795,10 +3795,10 @@
       <c r="I40" s="23">
         <v>6</v>
       </c>
-      <c r="J40" s="83">
+      <c r="J40" s="82">
         <v>625.87</v>
       </c>
-      <c r="L40" s="88">
+      <c r="L40" s="87">
         <f t="shared" si="2"/>
         <v>13.870000000000005</v>
       </c>
@@ -3810,33 +3810,33 @@
       <c r="B41" s="11">
         <v>45301</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D41" s="82">
         <v>543</v>
       </c>
-      <c r="E41" s="72">
-        <v>1</v>
-      </c>
-      <c r="F41" s="81">
+      <c r="E41" s="71">
+        <v>1</v>
+      </c>
+      <c r="F41" s="80">
         <f t="shared" si="1"/>
         <v>543</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="80">
         <v>-28</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73">
+      <c r="H41" s="72"/>
+      <c r="I41" s="72">
         <v>0</v>
       </c>
-      <c r="J41" s="83">
+      <c r="J41" s="82">
         <v>541.44000000000005</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="L41" s="88">
+      <c r="L41" s="87">
         <f t="shared" si="2"/>
         <v>26.440000000000055</v>
       </c>
@@ -3851,13 +3851,13 @@
       <c r="C42" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="80">
         <v>6526</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="80">
         <f t="shared" si="1"/>
         <v>6526</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="I42" s="23">
         <v>0</v>
       </c>
-      <c r="J42" s="81">
+      <c r="J42" s="80">
         <v>6830</v>
       </c>
-      <c r="L42" s="88">
+      <c r="L42" s="87">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
@@ -3884,33 +3884,33 @@
       <c r="B43" s="11">
         <v>45450</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="82">
+      <c r="D43" s="81">
         <v>1328</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="76">
         <v>2</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="80">
         <f t="shared" si="1"/>
         <v>2656</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="80">
         <v>-20</v>
       </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78">
+      <c r="H43" s="77"/>
+      <c r="I43" s="77">
         <v>17.600000000000001</v>
       </c>
-      <c r="J43" s="81">
+      <c r="J43" s="80">
         <v>2801.5</v>
       </c>
-      <c r="K43" s="75" t="s">
+      <c r="K43" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="L43" s="88">
+      <c r="L43" s="87">
         <f t="shared" si="2"/>
         <v>147.90000000000009</v>
       </c>
@@ -3925,30 +3925,30 @@
       <c r="C44" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="80">
         <v>4600</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="80">
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="80">
         <v>-5</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23">
         <v>0</v>
       </c>
-      <c r="J44" s="81">
+      <c r="J44" s="80">
         <v>9486.2800000000007</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L44" s="88">
+      <c r="L44" s="87">
         <f t="shared" si="2"/>
         <v>291.28000000000065</v>
       </c>
@@ -3963,23 +3963,23 @@
       <c r="C45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="80">
         <v>6841.68</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="80">
         <f t="shared" si="1"/>
         <v>6841.68</v>
       </c>
       <c r="I45" s="23">
         <v>0</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="80">
         <v>6880</v>
       </c>
-      <c r="L45" s="88">
+      <c r="L45" s="87">
         <f t="shared" si="2"/>
         <v>38.319999999999709</v>
       </c>
@@ -3994,29 +3994,29 @@
       <c r="C46" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="80">
         <v>6876</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="80">
         <f t="shared" si="1"/>
         <v>6876</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="80">
         <v>-6</v>
       </c>
       <c r="I46" s="23">
         <v>0</v>
       </c>
-      <c r="J46" s="81">
+      <c r="J46" s="80">
         <v>6880</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="L46" s="88">
+      <c r="L46" s="87">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4031,23 +4031,23 @@
       <c r="C47" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="80">
         <v>7579</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="F47" s="81">
+      <c r="F47" s="80">
         <f t="shared" si="1"/>
         <v>7579</v>
       </c>
       <c r="I47" s="23">
         <v>0</v>
       </c>
-      <c r="J47" s="81">
+      <c r="J47" s="80">
         <v>7780</v>
       </c>
-      <c r="L47" s="88">
+      <c r="L47" s="87">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
@@ -4062,23 +4062,23 @@
       <c r="C48" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="80">
         <v>4499</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="80">
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
       <c r="I48" s="23">
         <v>17.8</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="80">
         <v>4600</v>
       </c>
-      <c r="L48" s="88">
+      <c r="L48" s="87">
         <f t="shared" si="2"/>
         <v>83.199999999999818</v>
       </c>
@@ -4093,23 +4093,23 @@
       <c r="C49" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="80">
         <v>4499</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="80">
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
       <c r="I49" s="23">
         <v>23</v>
       </c>
-      <c r="J49" s="81">
+      <c r="J49" s="80">
         <v>4727</v>
       </c>
-      <c r="L49" s="88">
+      <c r="L49" s="87">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
@@ -4124,23 +4124,23 @@
       <c r="C50" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="80">
         <v>4656.18</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
-      <c r="F50" s="81">
+      <c r="F50" s="80">
         <f t="shared" si="1"/>
         <v>4656.18</v>
       </c>
       <c r="I50" s="23">
         <v>9</v>
       </c>
-      <c r="J50" s="81">
+      <c r="J50" s="80">
         <v>4845</v>
       </c>
-      <c r="L50" s="88">
+      <c r="L50" s="87">
         <f t="shared" si="2"/>
         <v>179.81999999999971</v>
       </c>
@@ -4155,66 +4155,66 @@
       <c r="C51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="80">
         <v>4499</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="80">
         <f t="shared" si="1"/>
         <v>4499</v>
       </c>
       <c r="I51" s="23">
         <v>0</v>
       </c>
-      <c r="J51" s="81">
+      <c r="J51" s="80">
         <v>4649</v>
       </c>
-      <c r="L51" s="88">
+      <c r="L51" s="87">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="C52" s="6"/>
-      <c r="L52" s="81"/>
+      <c r="L52" s="80"/>
     </row>
     <row r="53" spans="1:12">
       <c r="C53" s="6"/>
-      <c r="L53" s="84"/>
+      <c r="L53" s="83"/>
     </row>
     <row r="54" spans="1:12">
       <c r="C54" s="6"/>
-      <c r="L54" s="84"/>
+      <c r="L54" s="83"/>
     </row>
     <row r="55" spans="1:12">
       <c r="C55" s="6"/>
-      <c r="L55" s="84"/>
+      <c r="L55" s="83"/>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" s="6"/>
-      <c r="L56" s="84"/>
+      <c r="L56" s="83"/>
     </row>
     <row r="57" spans="1:12">
       <c r="C57" s="6"/>
-      <c r="L57" s="84"/>
+      <c r="L57" s="83"/>
     </row>
     <row r="58" spans="1:12">
       <c r="C58" s="6"/>
-      <c r="L58" s="84"/>
+      <c r="L58" s="83"/>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" s="6"/>
-      <c r="L59" s="84"/>
+      <c r="L59" s="83"/>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" s="6"/>
-      <c r="L60" s="84"/>
+      <c r="L60" s="83"/>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" s="6"/>
-      <c r="L61" s="84"/>
+      <c r="L61" s="83"/>
     </row>
     <row r="62" spans="1:12">
       <c r="C62" s="6"/>
@@ -4259,7 +4259,7 @@
     <col min="6" max="6" width="9.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="23" customWidth="1"/>
     <col min="8" max="8" width="16" style="23" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="59" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="58" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="21" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" style="21" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="21" customWidth="1"/>
@@ -4275,7 +4275,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="52" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="44" t="s">
@@ -4299,7 +4299,7 @@
       <c r="H1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>99</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -4323,88 +4323,88 @@
       <c r="P1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="66"/>
+      <c r="V1" s="65"/>
     </row>
     <row r="2" spans="1:22" ht="23" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="33"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="67">
+      <c r="O2" s="104"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="66">
         <f>SUMIFS(Q3:Q32,Q3:Q32,"&gt;0")</f>
-        <v>1726.6468</v>
-      </c>
-      <c r="S2" s="64">
+        <v>1732.5499999999995</v>
+      </c>
+      <c r="S2" s="63">
         <f>SUMIFS(Q4:Q27,Q4:Q27,"&lt;0")</f>
-        <v>-10684.750399999997</v>
-      </c>
-      <c r="T2" s="66">
+        <v>-10679.755384615384</v>
+      </c>
+      <c r="T2" s="65">
         <f>SUM(F:F)</f>
         <v>33</v>
       </c>
-      <c r="U2" s="115" t="s">
+      <c r="U2" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="V2" s="66"/>
+      <c r="V2" s="65"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1">
-      <c r="A3" s="91">
-        <v>1</v>
-      </c>
-      <c r="B3" s="92">
+      <c r="A3" s="90">
+        <v>1</v>
+      </c>
+      <c r="B3" s="91">
         <v>45444</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="94">
+      <c r="E3" s="93">
         <v>761</v>
       </c>
-      <c r="F3" s="95">
-        <v>1</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96">
+      <c r="F3" s="94">
+        <v>1</v>
+      </c>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I3" s="97">
-        <v>1</v>
-      </c>
-      <c r="J3" s="98">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I3" s="96">
+        <v>1</v>
+      </c>
+      <c r="J3" s="97">
         <f t="shared" ref="J3:J32" si="0">E3*F3 - G3*F3 + H3*I3</f>
-        <v>854.80639999999994</v>
+        <v>854.3523076923077</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>68</v>
@@ -4412,28 +4412,28 @@
       <c r="L3" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="95">
+      <c r="M3" s="98"/>
+      <c r="N3" s="94">
         <v>15</v>
       </c>
-      <c r="O3" s="96">
+      <c r="O3" s="95">
         <v>996.42</v>
       </c>
-      <c r="P3" s="93" t="s">
+      <c r="P3" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="100">
+      <c r="Q3" s="99">
         <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
-        <v>126.61360000000002</v>
-      </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="66"/>
-    </row>
-    <row r="4" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="91">
+        <v>127.06769230769225</v>
+      </c>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="65"/>
+    </row>
+    <row r="4" spans="1:22" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="90">
         <v>2</v>
       </c>
       <c r="B4" s="16">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="57"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="20">
         <f t="shared" si="0"/>
         <v>746</v>
@@ -4468,18 +4468,18 @@
       <c r="N4" s="15"/>
       <c r="O4" s="22"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="52">
+      <c r="Q4" s="51">
         <f t="shared" si="1"/>
         <v>-746</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="66"/>
-    </row>
-    <row r="5" spans="1:22" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="91">
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="65"/>
+    </row>
+    <row r="5" spans="1:22" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="90">
         <v>3</v>
       </c>
       <c r="B5" s="16">
@@ -4502,14 +4502,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I5" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I5" s="56">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>755.80639999999994</v>
+        <v>755.3523076923077</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>67</v>
@@ -4523,18 +4523,18 @@
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="52">
-        <f t="shared" si="1"/>
-        <v>-760.30639999999994</v>
-      </c>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="66"/>
+      <c r="Q5" s="51">
+        <f t="shared" si="1"/>
+        <v>-759.8523076923077</v>
+      </c>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
-      <c r="A6" s="91">
+      <c r="A6" s="90">
         <v>4</v>
       </c>
       <c r="B6" s="16">
@@ -4557,14 +4557,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I6" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I6" s="56">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>764.80639999999994</v>
+        <v>764.3523076923077</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>67</v>
@@ -4578,13 +4578,13 @@
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="52">
-        <f t="shared" si="1"/>
-        <v>-769.00639999999999</v>
+      <c r="Q6" s="51">
+        <f t="shared" si="1"/>
+        <v>-768.55230769230775</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
-      <c r="A7" s="91">
+      <c r="A7" s="90">
         <v>5</v>
       </c>
       <c r="B7" s="16">
@@ -4607,14 +4607,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I7" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I7" s="56">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>765.80639999999994</v>
+        <v>765.3523076923077</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>67</v>
@@ -4628,13 +4628,13 @@
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="52">
-        <f t="shared" si="1"/>
-        <v>-770.00639999999999</v>
+      <c r="Q7" s="51">
+        <f t="shared" si="1"/>
+        <v>-769.55230769230775</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
-      <c r="A8" s="91">
+      <c r="A8" s="90">
         <v>6</v>
       </c>
       <c r="B8" s="16">
@@ -4655,14 +4655,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I8" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I8" s="56">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1505.6127999999999</v>
+        <v>1504.7046153846154</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>67</v>
@@ -4674,13 +4674,13 @@
       <c r="N8" s="15"/>
       <c r="O8" s="22"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="52">
-        <f t="shared" si="1"/>
-        <v>-1505.6127999999999</v>
+      <c r="Q8" s="51">
+        <f t="shared" si="1"/>
+        <v>-1504.7046153846154</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
-      <c r="A9" s="91">
+      <c r="A9" s="90">
         <v>7</v>
       </c>
       <c r="B9" s="16">
@@ -4689,7 +4689,7 @@
       <c r="C9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="18">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="57"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>1518.2</v>
@@ -4715,13 +4715,13 @@
       <c r="N9" s="15"/>
       <c r="O9" s="22"/>
       <c r="P9" s="19"/>
-      <c r="Q9" s="52">
+      <c r="Q9" s="51">
         <f t="shared" si="1"/>
         <v>-1518.2</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
-      <c r="A10" s="91">
+      <c r="A10" s="90">
         <v>8</v>
       </c>
       <c r="B10" s="29">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
         <v>736</v>
@@ -4760,13 +4760,13 @@
         <v>830.65</v>
       </c>
       <c r="P10" s="30"/>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <f t="shared" si="1"/>
         <v>79.649999999999977</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
-      <c r="A11" s="91">
+      <c r="A11" s="90">
         <v>9</v>
       </c>
       <c r="B11" s="16">
@@ -4787,14 +4787,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I11" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I11" s="56">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>985.57280000000003</v>
+        <v>984.66461538461544</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>68</v>
@@ -4810,13 +4810,13 @@
         <v>1203.4000000000001</v>
       </c>
       <c r="P11" s="17"/>
-      <c r="Q11" s="52">
-        <f t="shared" si="1"/>
-        <v>211.22720000000007</v>
+      <c r="Q11" s="51">
+        <f t="shared" si="1"/>
+        <v>212.13538461538465</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
-      <c r="A12" s="91">
+      <c r="A12" s="90">
         <v>10</v>
       </c>
       <c r="B12" s="16">
@@ -4837,14 +4837,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I12" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I12" s="56">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>487.8064</v>
+        <v>487.3523076923077</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>68</v>
@@ -4860,13 +4860,13 @@
         <v>601.70000000000005</v>
       </c>
       <c r="P12" s="17"/>
-      <c r="Q12" s="52">
-        <f t="shared" si="1"/>
-        <v>105.49360000000004</v>
+      <c r="Q12" s="51">
+        <f t="shared" si="1"/>
+        <v>105.94769230769234</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
-      <c r="A13" s="91">
+      <c r="A13" s="90">
         <v>11</v>
       </c>
       <c r="B13" s="16">
@@ -4889,14 +4889,14 @@
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I13" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>767.80639999999994</v>
+        <v>767.3523076923077</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>67</v>
@@ -4908,13 +4908,13 @@
       <c r="N13" s="15"/>
       <c r="O13" s="22"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="52">
-        <f t="shared" si="1"/>
-        <v>-767.80639999999994</v>
+      <c r="Q13" s="51">
+        <f t="shared" si="1"/>
+        <v>-767.3523076923077</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
-      <c r="A14" s="91">
+      <c r="A14" s="90">
         <v>12</v>
       </c>
       <c r="B14" s="16">
@@ -4937,14 +4937,14 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I14" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I14" s="56">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>767.80639999999994</v>
+        <v>767.3523076923077</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>67</v>
@@ -4956,13 +4956,13 @@
       <c r="N14" s="15"/>
       <c r="O14" s="22"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="52">
-        <f t="shared" si="1"/>
-        <v>-767.80639999999994</v>
+      <c r="Q14" s="51">
+        <f t="shared" si="1"/>
+        <v>-767.3523076923077</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
-      <c r="A15" s="91">
+      <c r="A15" s="90">
         <v>13</v>
       </c>
       <c r="B15" s="16">
@@ -4985,14 +4985,14 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I15" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I15" s="56">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>523.80639999999994</v>
+        <v>523.3523076923077</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>68</v>
@@ -5008,13 +5008,13 @@
         <v>582.04</v>
       </c>
       <c r="P15" s="19"/>
-      <c r="Q15" s="52">
-        <f t="shared" si="1"/>
-        <v>54.813600000000022</v>
+      <c r="Q15" s="51">
+        <f t="shared" si="1"/>
+        <v>55.267692307692258</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="91">
+      <c r="A16" s="90">
         <v>14</v>
       </c>
       <c r="B16" s="16">
@@ -5037,14 +5037,14 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I16" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I16" s="56">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>513.80639999999994</v>
+        <v>513.3523076923077</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>68</v>
@@ -5060,13 +5060,13 @@
         <v>582.04</v>
       </c>
       <c r="P16" s="19"/>
-      <c r="Q16" s="52">
-        <f t="shared" si="1"/>
-        <v>64.813600000000022</v>
+      <c r="Q16" s="51">
+        <f t="shared" si="1"/>
+        <v>65.267692307692258</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
-      <c r="A17" s="91">
+      <c r="A17" s="90">
         <v>15</v>
       </c>
       <c r="B17" s="16">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H17" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I17" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I17" s="56">
         <v>1</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>498.8064</v>
+        <v>498.3523076923077</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>68</v>
@@ -5112,13 +5112,13 @@
         <v>582.04</v>
       </c>
       <c r="P17" s="19"/>
-      <c r="Q17" s="52">
-        <f t="shared" si="1"/>
-        <v>79.813599999999965</v>
+      <c r="Q17" s="51">
+        <f t="shared" si="1"/>
+        <v>80.267692307692258</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
-      <c r="A18" s="91">
+      <c r="A18" s="90">
         <v>16</v>
       </c>
       <c r="B18" s="16">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
         <v>521</v>
@@ -5157,13 +5157,13 @@
         <v>582.04</v>
       </c>
       <c r="P18" s="19"/>
-      <c r="Q18" s="52">
+      <c r="Q18" s="51">
         <f t="shared" si="1"/>
         <v>57.619999999999962</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1">
-      <c r="A19" s="91">
+      <c r="A19" s="90">
         <v>17</v>
       </c>
       <c r="B19" s="16">
@@ -5186,14 +5186,14 @@
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I19" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I19" s="56">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>752.80639999999994</v>
+        <v>752.3523076923077</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>67</v>
@@ -5207,13 +5207,13 @@
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="52">
-        <f t="shared" si="1"/>
-        <v>-758.90639999999996</v>
+      <c r="Q19" s="51">
+        <f t="shared" si="1"/>
+        <v>-758.45230769230773</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="91">
+      <c r="A20" s="90">
         <v>18</v>
       </c>
       <c r="B20" s="16">
@@ -5236,14 +5236,14 @@
       </c>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I20" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I20" s="56">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>771.80639999999994</v>
+        <v>771.3523076923077</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>67</v>
@@ -5257,13 +5257,13 @@
       <c r="P20" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="52">
-        <f t="shared" si="1"/>
-        <v>-771.80639999999994</v>
+      <c r="Q20" s="51">
+        <f t="shared" si="1"/>
+        <v>-771.3523076923077</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
-      <c r="A21" s="91">
+      <c r="A21" s="90">
         <v>19</v>
       </c>
       <c r="B21" s="16">
@@ -5284,14 +5284,14 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I21" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I21" s="56">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>740.80639999999994</v>
+        <v>740.3523076923077</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>67</v>
@@ -5303,13 +5303,13 @@
       <c r="N21" s="15"/>
       <c r="O21" s="22"/>
       <c r="P21" s="19"/>
-      <c r="Q21" s="52">
-        <f t="shared" si="1"/>
-        <v>-740.80639999999994</v>
+      <c r="Q21" s="51">
+        <f t="shared" si="1"/>
+        <v>-740.3523076923077</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
-      <c r="A22" s="91">
+      <c r="A22" s="90">
         <v>20</v>
       </c>
       <c r="B22" s="16">
@@ -5330,14 +5330,14 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I22" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I22" s="56">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>751.80639999999994</v>
+        <v>751.3523076923077</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>68</v>
@@ -5353,13 +5353,13 @@
         <v>827.79</v>
       </c>
       <c r="P22" s="19"/>
-      <c r="Q22" s="52">
-        <f t="shared" si="1"/>
-        <v>67.583600000000018</v>
+      <c r="Q22" s="51">
+        <f t="shared" si="1"/>
+        <v>68.037692307692254</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
-      <c r="A23" s="91">
+      <c r="A23" s="90">
         <v>21</v>
       </c>
       <c r="B23" s="16">
@@ -5380,14 +5380,14 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I23" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I23" s="56">
         <v>1</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="0"/>
-        <v>808.4864</v>
+        <v>808.03230769230765</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>67</v>
@@ -5399,13 +5399,13 @@
       <c r="N23" s="15"/>
       <c r="O23" s="22"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="52">
-        <f t="shared" si="1"/>
-        <v>-808.4864</v>
+      <c r="Q23" s="51">
+        <f t="shared" si="1"/>
+        <v>-808.03230769230765</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
-      <c r="A24" s="91">
+      <c r="A24" s="90">
         <v>22</v>
       </c>
       <c r="B24" s="16">
@@ -5426,14 +5426,14 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I24" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I24" s="56">
         <v>1</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>840.02639999999997</v>
+        <v>839.57230769230773</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>68</v>
@@ -5451,13 +5451,13 @@
       <c r="P24" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="52">
-        <f t="shared" si="1"/>
-        <v>149.39359999999999</v>
+      <c r="Q24" s="51">
+        <f t="shared" si="1"/>
+        <v>149.84769230769223</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
-      <c r="A25" s="91">
+      <c r="A25" s="90">
         <v>23</v>
       </c>
       <c r="B25" s="16">
@@ -5480,7 +5480,7 @@
         <f>相纸!I19</f>
         <v>0</v>
       </c>
-      <c r="I25" s="57"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="20">
         <f t="shared" si="0"/>
         <v>520.88</v>
@@ -5499,13 +5499,13 @@
         <v>582.04</v>
       </c>
       <c r="P25" s="19"/>
-      <c r="Q25" s="52">
+      <c r="Q25" s="51">
         <f t="shared" si="1"/>
         <v>50.359999999999971</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
-      <c r="A26" s="91">
+      <c r="A26" s="90">
         <v>24</v>
       </c>
       <c r="B26" s="16">
@@ -5528,7 +5528,7 @@
         <f>相纸!I20</f>
         <v>0</v>
       </c>
-      <c r="I26" s="57"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="20">
         <f t="shared" si="0"/>
         <v>502.7</v>
@@ -5547,13 +5547,13 @@
         <v>582.04</v>
       </c>
       <c r="P26" s="19"/>
-      <c r="Q26" s="52">
+      <c r="Q26" s="51">
         <f t="shared" si="1"/>
         <v>72.499999999999972</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
-      <c r="A27" s="91">
+      <c r="A27" s="90">
         <v>25</v>
       </c>
       <c r="B27" s="16">
@@ -5576,7 +5576,7 @@
         <f>相纸!I21</f>
         <v>0</v>
       </c>
-      <c r="I27" s="57"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
         <v>899</v>
@@ -5597,13 +5597,13 @@
       <c r="P27" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="Q27" s="52">
+      <c r="Q27" s="51">
         <f t="shared" si="1"/>
         <v>63.030000000000044</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
-      <c r="A28" s="91">
+      <c r="A28" s="90">
         <v>26</v>
       </c>
       <c r="B28" s="16">
@@ -5624,14 +5624,14 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I28" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I28" s="56">
         <v>2</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>863.86279999999999</v>
+        <v>862.95461538461541</v>
       </c>
       <c r="K28" s="26" t="s">
         <v>68</v>
@@ -5649,13 +5649,13 @@
       <c r="P28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="52">
-        <f t="shared" si="1"/>
-        <v>125.80719999999997</v>
+      <c r="Q28" s="51">
+        <f t="shared" si="1"/>
+        <v>126.71538461538455</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
-      <c r="A29" s="91">
+      <c r="A29" s="90">
         <v>27</v>
       </c>
       <c r="B29" s="16">
@@ -5678,7 +5678,7 @@
         <f>相纸!I24</f>
         <v>0</v>
       </c>
-      <c r="I29" s="57"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
         <v>518.69000000000005</v>
@@ -5699,13 +5699,13 @@
       <c r="P29" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="Q29" s="52">
+      <c r="Q29" s="51">
         <f t="shared" si="1"/>
         <v>9.9299999999999091</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
-      <c r="A30" s="91">
+      <c r="A30" s="90">
         <v>28</v>
       </c>
       <c r="B30" s="16">
@@ -5728,7 +5728,7 @@
         <f>相纸!I25</f>
         <v>0</v>
       </c>
-      <c r="I30" s="57"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
         <v>518</v>
@@ -5749,13 +5749,13 @@
       <c r="P30" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="51">
         <f t="shared" si="1"/>
         <v>7.2899999999999636</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
-      <c r="A31" s="91">
+      <c r="A31" s="90">
         <v>29</v>
       </c>
       <c r="B31" s="16">
@@ -5778,7 +5778,7 @@
         <f>相纸!I26</f>
         <v>0</v>
       </c>
-      <c r="I31" s="57"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
         <v>519.29999999999995</v>
@@ -5799,13 +5799,13 @@
       <c r="P31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q31" s="51">
         <f t="shared" si="1"/>
         <v>59.320000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
-      <c r="A32" s="91">
+      <c r="A32" s="90">
         <v>30</v>
       </c>
       <c r="B32" s="16">
@@ -5826,14 +5826,14 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22">
         <f>相纸!I4</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="I32" s="57">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="I32" s="56">
         <v>2</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
-        <v>1788.6127999999999</v>
+        <v>1787.7046153846154</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>68</v>
@@ -5849,13 +5849,13 @@
         <v>2130</v>
       </c>
       <c r="P32" s="19"/>
-      <c r="Q32" s="52">
-        <f t="shared" si="1"/>
-        <v>341.38720000000012</v>
+      <c r="Q32" s="51">
+        <f t="shared" si="1"/>
+        <v>342.29538461538459</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
-      <c r="A33" s="91"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5863,7 +5863,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="20"/>
       <c r="K33" s="26"/>
       <c r="L33" s="20"/>
@@ -5871,7 +5871,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="22"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="52"/>
+      <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="15"/>
@@ -5882,7 +5882,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -5890,7 +5890,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="22"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="53"/>
+      <c r="Q34" s="52"/>
     </row>
     <row r="35" spans="1:17" ht="30" customHeight="1">
       <c r="A35" s="15"/>
@@ -5901,7 +5901,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -5909,7 +5909,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="22"/>
       <c r="P35" s="19"/>
-      <c r="Q35" s="53"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="15"/>
@@ -5920,7 +5920,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -5928,7 +5928,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="22"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="53"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="15"/>
@@ -5939,7 +5939,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -5947,7 +5947,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="22"/>
       <c r="P37" s="19"/>
-      <c r="Q37" s="53"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="15"/>
@@ -5958,7 +5958,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -5966,7 +5966,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="22"/>
       <c r="P38" s="19"/>
-      <c r="Q38" s="53"/>
+      <c r="Q38" s="52"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="15"/>
@@ -5976,7 +5976,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -5984,7 +5984,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="22"/>
       <c r="P39" s="19"/>
-      <c r="Q39" s="53"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="15"/>
@@ -5995,7 +5995,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -6003,7 +6003,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="22"/>
       <c r="P40" s="19"/>
-      <c r="Q40" s="53"/>
+      <c r="Q40" s="52"/>
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="15"/>
@@ -6014,7 +6014,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -6022,7 +6022,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="22"/>
       <c r="P41" s="19"/>
-      <c r="Q41" s="53"/>
+      <c r="Q41" s="52"/>
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="15"/>
@@ -6033,7 +6033,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -6041,7 +6041,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="22"/>
       <c r="P42" s="19"/>
-      <c r="Q42" s="53"/>
+      <c r="Q42" s="52"/>
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="15"/>
@@ -6052,7 +6052,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -6060,7 +6060,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="22"/>
       <c r="P43" s="19"/>
-      <c r="Q43" s="53"/>
+      <c r="Q43" s="52"/>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="15"/>
@@ -6071,7 +6071,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
@@ -6079,7 +6079,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="22"/>
       <c r="P44" s="19"/>
-      <c r="Q44" s="53"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="15"/>
@@ -6090,7 +6090,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -6098,7 +6098,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="22"/>
       <c r="P45" s="19"/>
-      <c r="Q45" s="53"/>
+      <c r="Q45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1">
       <c r="A46" s="15"/>
@@ -6109,7 +6109,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -6117,7 +6117,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="22"/>
       <c r="P46" s="19"/>
-      <c r="Q46" s="53"/>
+      <c r="Q46" s="52"/>
     </row>
     <row r="47" spans="1:17" ht="30" customHeight="1">
       <c r="A47" s="15"/>
@@ -6128,7 +6128,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -6136,7 +6136,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="22"/>
       <c r="P47" s="19"/>
-      <c r="Q47" s="53"/>
+      <c r="Q47" s="52"/>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
       <c r="A48" s="15"/>
@@ -6147,7 +6147,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -6155,7 +6155,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="22"/>
       <c r="P48" s="19"/>
-      <c r="Q48" s="53"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" ht="30" customHeight="1">
       <c r="A49" s="15"/>
@@ -6166,7 +6166,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
@@ -6174,7 +6174,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="22"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="53"/>
+      <c r="Q49" s="52"/>
     </row>
     <row r="50" spans="1:17" ht="30" customHeight="1">
       <c r="A50" s="15"/>
@@ -6185,7 +6185,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
-      <c r="I50" s="57"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -6193,7 +6193,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="22"/>
       <c r="P50" s="19"/>
-      <c r="Q50" s="53"/>
+      <c r="Q50" s="52"/>
     </row>
     <row r="51" spans="1:17" ht="30" customHeight="1">
       <c r="A51" s="15"/>
@@ -6204,7 +6204,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -6212,7 +6212,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="22"/>
       <c r="P51" s="19"/>
-      <c r="Q51" s="53"/>
+      <c r="Q51" s="52"/>
     </row>
     <row r="52" spans="1:17" ht="30" customHeight="1">
       <c r="A52" s="15"/>
@@ -6223,7 +6223,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
-      <c r="I52" s="57"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -6231,7 +6231,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="22"/>
       <c r="P52" s="19"/>
-      <c r="Q52" s="53"/>
+      <c r="Q52" s="52"/>
     </row>
     <row r="53" spans="1:17" ht="30" customHeight="1">
       <c r="A53" s="15"/>
@@ -6242,7 +6242,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="57"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6250,7 +6250,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="22"/>
       <c r="P53" s="19"/>
-      <c r="Q53" s="53"/>
+      <c r="Q53" s="52"/>
     </row>
     <row r="54" spans="1:17" ht="30" customHeight="1">
       <c r="A54" s="15"/>
@@ -6261,7 +6261,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
-      <c r="I54" s="57"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -6269,7 +6269,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="22"/>
       <c r="P54" s="19"/>
-      <c r="Q54" s="53"/>
+      <c r="Q54" s="52"/>
     </row>
     <row r="55" spans="1:17" ht="30" customHeight="1">
       <c r="A55" s="15"/>
@@ -6280,7 +6280,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
-      <c r="I55" s="57"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -6288,7 +6288,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="22"/>
       <c r="P55" s="19"/>
-      <c r="Q55" s="53"/>
+      <c r="Q55" s="52"/>
     </row>
     <row r="56" spans="1:17" ht="30" customHeight="1">
       <c r="A56" s="15"/>
@@ -6299,7 +6299,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="57"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -6307,7 +6307,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="22"/>
       <c r="P56" s="19"/>
-      <c r="Q56" s="53"/>
+      <c r="Q56" s="52"/>
     </row>
     <row r="57" spans="1:17" ht="30" customHeight="1">
       <c r="A57" s="15"/>
@@ -6318,7 +6318,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="57"/>
+      <c r="I57" s="56"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
@@ -6326,7 +6326,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="22"/>
       <c r="P57" s="19"/>
-      <c r="Q57" s="53"/>
+      <c r="Q57" s="52"/>
     </row>
     <row r="58" spans="1:17" ht="30" customHeight="1">
       <c r="A58" s="15"/>
@@ -6337,7 +6337,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="57"/>
+      <c r="I58" s="56"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
@@ -6345,7 +6345,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="22"/>
       <c r="P58" s="19"/>
-      <c r="Q58" s="53"/>
+      <c r="Q58" s="52"/>
     </row>
     <row r="59" spans="1:17" ht="30" customHeight="1">
       <c r="A59" s="15"/>
@@ -6356,7 +6356,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
-      <c r="I59" s="57"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
@@ -6364,7 +6364,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="22"/>
       <c r="P59" s="19"/>
-      <c r="Q59" s="53"/>
+      <c r="Q59" s="52"/>
     </row>
     <row r="60" spans="1:17" ht="30" customHeight="1">
       <c r="A60" s="15"/>
@@ -6375,7 +6375,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="57"/>
+      <c r="I60" s="56"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -6383,7 +6383,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="22"/>
       <c r="P60" s="19"/>
-      <c r="Q60" s="53"/>
+      <c r="Q60" s="52"/>
     </row>
     <row r="61" spans="1:17" ht="30" customHeight="1">
       <c r="A61" s="15"/>
@@ -6394,7 +6394,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
-      <c r="I61" s="57"/>
+      <c r="I61" s="56"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -6402,7 +6402,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="22"/>
       <c r="P61" s="19"/>
-      <c r="Q61" s="53"/>
+      <c r="Q61" s="52"/>
     </row>
     <row r="62" spans="1:17" ht="30" customHeight="1">
       <c r="A62" s="15"/>
@@ -6413,7 +6413,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
-      <c r="I62" s="57"/>
+      <c r="I62" s="56"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -6421,7 +6421,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="22"/>
       <c r="P62" s="19"/>
-      <c r="Q62" s="53"/>
+      <c r="Q62" s="52"/>
     </row>
     <row r="63" spans="1:17" ht="30" customHeight="1"/>
     <row r="64" spans="1:17" ht="30" customHeight="1"/>
@@ -6456,7 +6456,7 @@
     <row r="1048567" spans="10:10">
       <c r="J1048567" s="21">
         <f>SUM(J4:J1048566)</f>
-        <v>22655.427199999991</v>
+        <v>22644.983076923083</v>
       </c>
     </row>
   </sheetData>
@@ -6520,9 +6520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6533,7 +6533,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="41" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="41"/>
-    <col min="7" max="7" width="20.1640625" style="114" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="113" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
@@ -6544,7 +6544,7 @@
       <c r="A1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="37" t="s">
@@ -6559,7 +6559,7 @@
       <c r="F1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="110" t="s">
         <v>95</v>
       </c>
       <c r="H1" s="37" t="s">
@@ -6585,7 +6585,7 @@
       <c r="F2" s="40">
         <v>0</v>
       </c>
-      <c r="G2" s="112">
+      <c r="G2" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.78</v>
       </c>
@@ -6609,20 +6609,20 @@
       <c r="F3" s="40">
         <v>0</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>99.65</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6645,23 +6645,23 @@
       <c r="F4" s="40">
         <v>0</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>90.9</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <f>AVERAGE(G:G)</f>
-        <v>93.806399999999996</v>
-      </c>
-      <c r="J4" s="65">
+        <v>93.35230769230769</v>
+      </c>
+      <c r="J4" s="64">
         <f>COUNT(A:A)</f>
-        <v>25</v>
-      </c>
-      <c r="K4" s="64">
+        <v>26</v>
+      </c>
+      <c r="K4" s="63">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>2345.16</v>
-      </c>
-      <c r="L4" s="63">
+        <v>2427.16</v>
+      </c>
+      <c r="L4" s="62">
         <f>SUM(拍立得!I:I)</f>
         <v>24</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="F5" s="40">
         <v>0</v>
       </c>
-      <c r="G5" s="112">
+      <c r="G5" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="F6" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="F7" s="40">
         <v>0</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>96.98</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="F8" s="40">
         <v>0</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92.67</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="F9" s="40">
         <v>0</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98.8</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="F10" s="40">
         <v>0</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>94.93</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="F11" s="40">
         <v>0</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="F12" s="40">
         <v>0</v>
       </c>
-      <c r="G12" s="112">
+      <c r="G12" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>102.72</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="F13" s="40">
         <v>0</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="F14" s="40">
         <v>0</v>
       </c>
-      <c r="G14" s="112">
+      <c r="G14" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>93</v>
       </c>
@@ -6926,7 +6926,7 @@
       <c r="F15" s="40">
         <v>10</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>101.9</v>
       </c>
@@ -6944,11 +6944,11 @@
       <c r="D16" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="84">
         <v>100.97</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="113">
+      <c r="F16" s="84"/>
+      <c r="G16" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>100.97</v>
       </c>
@@ -6966,11 +6966,11 @@
       <c r="D17" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="84">
         <v>88</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="113">
+      <c r="F17" s="84"/>
+      <c r="G17" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>88</v>
       </c>
@@ -6991,11 +6991,11 @@
       <c r="D18" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="84">
         <v>92</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="113">
+      <c r="F18" s="84"/>
+      <c r="G18" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>92</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>98</v>
       </c>
       <c r="F19" s="40"/>
-      <c r="G19" s="112">
+      <c r="G19" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="112">
+      <c r="G20" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7063,7 +7063,7 @@
       <c r="F21" s="40">
         <v>12</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>84</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="F22" s="40">
         <v>5</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>50</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="F23" s="40">
         <v>0</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="111">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>71.98</v>
       </c>
@@ -7136,13 +7136,13 @@
       <c r="D24" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="84">
         <v>88</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="84">
         <v>10</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7160,13 +7160,13 @@
       <c r="D25" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <v>88</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="84">
         <v>10</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
@@ -7184,25 +7184,41 @@
       <c r="D26" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <v>88</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="84">
         <v>10</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="112">
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="113"/>
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="49">
+        <v>45475</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="84">
+        <v>72</v>
+      </c>
+      <c r="F27" s="84">
+        <v>10</v>
+      </c>
+      <c r="G27" s="112">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>82</v>
+      </c>
+      <c r="H27" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D413C-07C8-9542-83D0-36BCD4D4DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DBB944-D495-5646-8416-FBAD9B7E889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -578,9 +578,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已发货</t>
-  </si>
-  <si>
     <t>淘宝 红米K70E、淘宝 红米note12T、淘宝IQOO neo 9</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -607,6 +604,9 @@
   <si>
     <t>瑕疵退货+8元运费;破损赔偿 50+30</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1382,6 +1379,80 @@
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="51">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1976,80 +2047,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2198,29 +2195,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="35">
   <autoFilter ref="A1:Q33" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="18">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2229,19 +2226,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:H27" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="8">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2511,7 +2508,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -2552,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H1" s="69" t="s">
         <v>6</v>
@@ -4122,7 +4119,7 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="80">
         <v>4656.18</v>
@@ -4244,9 +4241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048567"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4410,7 +4407,7 @@
         <v>68</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M3" s="98"/>
       <c r="N3" s="94">
@@ -4420,7 +4417,7 @@
         <v>996.42</v>
       </c>
       <c r="P3" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="99">
         <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
@@ -4998,7 +4995,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="15">
@@ -5050,7 +5047,7 @@
         <v>68</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="15">
@@ -5102,7 +5099,7 @@
         <v>68</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="15">
@@ -5147,7 +5144,7 @@
         <v>68</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="15">
@@ -5439,7 +5436,7 @@
         <v>68</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="15">
@@ -5449,7 +5446,7 @@
         <v>996.42</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="1"/>
@@ -5637,7 +5634,7 @@
         <v>68</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="15">
@@ -5647,7 +5644,7 @@
         <v>996.42</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="51">
         <f t="shared" si="1"/>
@@ -5697,7 +5694,7 @@
         <v>532.04</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="51">
         <f t="shared" si="1"/>
@@ -5737,21 +5734,21 @@
         <v>68</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="15">
-        <v>6.75</v>
+        <v>3.42</v>
       </c>
       <c r="O30" s="22">
         <v>532.04</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="51">
         <f t="shared" si="1"/>
-        <v>7.2899999999999636</v>
+        <v>10.619999999999964</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
@@ -5787,11 +5784,11 @@
         <v>68</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="15">
-        <v>3.42</v>
+        <v>6.75</v>
       </c>
       <c r="O31" s="22">
         <v>582.04</v>
@@ -5801,7 +5798,7 @@
       </c>
       <c r="Q31" s="51">
         <f t="shared" si="1"/>
-        <v>59.320000000000007</v>
+        <v>55.990000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
@@ -5906,7 +5903,6 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="15"/>
       <c r="O35" s="22"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="52"/>
@@ -6465,36 +6461,36 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L2:L33">
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K33">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K33">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6520,7 +6516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
@@ -7095,7 +7091,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1">
@@ -7218,7 +7214,6 @@
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>82</v>
       </c>
-      <c r="H27" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DBB944-D495-5646-8416-FBAD9B7E889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E8DFC-FEB1-6B40-B067-DA26305F6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
   <si>
     <t>序号</t>
   </si>
@@ -607,6 +607,10 @@
   </si>
   <si>
     <t>已取消</t>
+  </si>
+  <si>
+    <t>7月回购</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1380,80 +1384,6 @@
   </cellStyles>
   <dxfs count="51">
     <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2047,6 +1977,80 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2195,29 +2199,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="A1:Q33" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2226,19 +2230,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:H27" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -4241,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
   <dimension ref="A1:V1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
@@ -6461,36 +6465,36 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L2:L33">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="未上架">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="已结清">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K33">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="已收货">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K33">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未收货">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6516,9 +6520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -7214,6 +7218,9 @@
         <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
         <v>82</v>
       </c>
+      <c r="H27" s="25" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/羊毛毛8882.xlsx
+++ b/羊毛毛8882.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunan_n/Documents/workspace/project/GetAppInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E8DFC-FEB1-6B40-B067-DA26305F6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F84691-7ACA-6A4C-916F-AA4304E98E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="羊毛" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -550,10 +550,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>果果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>去的运费+回来运费+耳机到付=66.8</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -610,6 +606,17 @@
   </si>
   <si>
     <t>7月回购</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上架</t>
+  </si>
+  <si>
+    <t>果果;;暂未扣除31保证金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损赔偿 50+30;暂未扣除49保证金</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,6 +1382,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1382,7 +1401,111 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1977,80 +2100,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2176,21 +2225,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:L61" totalsRowShown="0" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8C98486C-3F0A-B145-821E-3DE1ABB0B61F}" name="表4" displayName="表4" ref="A1:L61" totalsRowShown="0" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A1:L61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{8D044339-CB21-3F41-825F-BD4958F8483B}" name="附带" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{90CDFAA9-0167-2B49-9B25-5FF66960A467}" name="序号" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{62ECEA15-055B-4C42-B0E2-AAEEA91FB0D8}" name="下单日期" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{C65A10E8-A102-7441-A3E6-648FA7588AEE}" name="项目" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{ADE8464A-1BB8-A247-8685-39F60706579F}" name="单价" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{CE3B20F1-C159-E949-80E7-C2CA5A1A6457}" name="数量" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{836E7E1D-18E0-D540-8E9A-CC4EB783204F}" name="总价" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{8D044339-CB21-3F41-825F-BD4958F8483B}" name="附带" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{5B05862E-FC7B-DE47-941D-AA4D398C6CCE}" name="物流单号" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{93635F8E-BF33-C64E-95E4-ED9DCCBCA099}" name="快递费" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{5BD14CAF-F0E9-1C47-AFE1-1C309D99765B}" name="回款价" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{B561B797-8C07-8A47-9DB9-07219096B489}" name="回款日期、备注" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{B3D88930-47E7-CF4A-8E65-D8CF11A1CE42}" name="利润" dataDxfId="39">
       <calculatedColumnFormula>J2-I2-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2199,29 +2248,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q33" totalsRowShown="0" tableBorderDxfId="27">
-  <autoFilter ref="A1:Q33" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}" name="表3" displayName="表3" ref="A1:Q35" totalsRowShown="0" tableBorderDxfId="38">
+  <autoFilter ref="A1:Q35" xr:uid="{4B4CC7C3-7217-0F4C-AEAF-41E47E47B9A4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AD84357B-497E-EE40-8FDF-E5D9F2ACFC26}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B018C1AC-A511-F74A-A99C-C5D18AFE9D10}" name="下单日期" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2FA34CF5-0AEA-5A42-91DF-D0B7B8B896BD}" name="项目" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{C7CDFA98-F76E-374C-A7AE-C825BFE78611}" name="店铺名称" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{97A083AA-5A42-9D42-B34A-094725E12A9E}" name="单价" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{E47A818F-5370-1849-B951-ACB91928BD5C}" name="数量" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{103254E3-DE3D-804E-B4A3-4C362E10B8B7}" name="10张拆出价" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{303BD280-CCAF-BB44-A560-F7CB46433F85}" name="20张搭配价" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{27A788B2-EDCD-6B4C-8CE2-25C7824CFE5A}" name="搭配数量" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{C45724C8-6D57-FB43-82F6-04E4F1443AF0}" name="总成本价" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{56F7D234-011E-1443-A255-106E8097D1D2}" name="货物状态" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{4A50C7B5-82D9-0343-A48C-B4ADCC5CC979}" name="发货状态" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{7D5DA011-3922-2E44-B1C1-D8157EEC151B}" name="物流单号" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{4265C796-FA0A-CE4A-8C94-CEA5419E06D4}" name="快递费" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{566BA953-47C1-CC49-A5F6-5BBE06E0E20F}" name="回款价" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{13441ABF-6831-AB4E-ADB9-007D534F8423}" name="回款日期、备注" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{5D86B8FE-51D8-BB41-BEE8-DD8AF4BC3791}" name="利润" dataDxfId="21">
       <calculatedColumnFormula>SUM(O2-J2-N2+G2-H2 )</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2230,19 +2279,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:H27" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}" name="表1" displayName="表1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:H28" xr:uid="{22C9E594-494F-8D40-BB84-B92C3AA54F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{4DE5D57B-F8D6-DF47-9FE2-A6BECEC185ED}" name="序号" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{489BB2EE-0750-304B-A665-57C99FE0C432}" name="购买日期" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BC23173D-3CD5-604A-900C-73AFFCD3FEAB}" name="来源" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{020809D8-8FFC-7742-85BC-9C6774A0EC3B}" name="店铺" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{996D8DAF-BDE4-1B44-BB3A-CD54428A63C4}" name="价格" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{68073025-D4F4-9D44-8184-7BFB96B79564}" name="运费" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{66EEA90F-2C7A-B544-8EEA-E123F482D92B}" name="总价" dataDxfId="11">
       <calculatedColumnFormula>SUM(表1[[#This Row],[价格]:[运费]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DD43EF87-46C9-4B40-B562-A91A3CF6E935}" name="备注"/>
@@ -2553,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="69" t="s">
         <v>6</v>
@@ -2574,7 +2623,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="33">
@@ -4015,7 +4064,7 @@
         <v>6880</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L46" s="87">
         <f t="shared" si="2"/>
@@ -4092,7 +4141,7 @@
         <v>45459</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="80">
         <v>4499</v>
@@ -4123,7 +4172,7 @@
         <v>45459</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="80">
         <v>4656.18</v>
@@ -4154,7 +4203,7 @@
         <v>45463</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" s="80">
         <v>4499</v>
@@ -4243,11 +4292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FF7A4-CF5F-B24F-B3C7-E28F16D210CC}">
-  <dimension ref="A1:V1048567"/>
+  <dimension ref="A1:V1048568"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4267,7 +4316,7 @@
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="16" max="16" width="39" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" style="24" customWidth="1"/>
     <col min="18" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="19" width="28.5" customWidth="1"/>
@@ -4361,18 +4410,18 @@
       <c r="Q2" s="108"/>
       <c r="R2" s="66">
         <f>SUMIFS(Q3:Q32,Q3:Q32,"&gt;0")</f>
-        <v>1732.5499999999995</v>
+        <v>2514.223333333332</v>
       </c>
       <c r="S2" s="63">
         <f>SUMIFS(Q4:Q27,Q4:Q27,"&lt;0")</f>
-        <v>-10679.755384615384</v>
+        <v>0</v>
       </c>
       <c r="T2" s="65">
         <f>SUM(F:F)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U2" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V2" s="65"/>
     </row>
@@ -4398,14 +4447,14 @@
       <c r="G3" s="95"/>
       <c r="H3" s="95">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I3" s="96">
         <v>1</v>
       </c>
       <c r="J3" s="97">
-        <f t="shared" ref="J3:J32" si="0">E3*F3 - G3*F3 + H3*I3</f>
-        <v>854.3523076923077</v>
+        <f t="shared" ref="J3:J35" si="0">E3*F3 - G3*F3 + H3*I3</f>
+        <v>854.5244444444445</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>68</v>
@@ -4421,11 +4470,11 @@
         <v>996.42</v>
       </c>
       <c r="P3" s="92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="99">
-        <f t="shared" ref="Q3:Q32" si="1">SUM(O3-J3-N3 )</f>
-        <v>127.06769230769225</v>
+        <f t="shared" ref="Q3:Q35" si="1">SUM(O3-J3-N3 )</f>
+        <v>126.89555555555546</v>
       </c>
       <c r="R3" s="65"/>
       <c r="S3" s="65"/>
@@ -4467,11 +4516,13 @@
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="22"/>
+      <c r="O4" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="51">
         <f t="shared" si="1"/>
-        <v>-746</v>
+        <v>65.590000000000032</v>
       </c>
       <c r="R4" s="65"/>
       <c r="S4" s="65"/>
@@ -4503,14 +4554,14 @@
       </c>
       <c r="H5" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I5" s="56">
         <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>755.3523076923077</v>
+        <v>755.5244444444445</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>67</v>
@@ -4522,11 +4573,13 @@
       <c r="N5" s="15">
         <v>4.5</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="51">
         <f t="shared" si="1"/>
-        <v>-759.8523076923077</v>
+        <v>51.565555555555534</v>
       </c>
       <c r="R5" s="65"/>
       <c r="S5" s="65"/>
@@ -4558,14 +4611,14 @@
       </c>
       <c r="H6" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I6" s="56">
         <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>764.3523076923077</v>
+        <v>764.5244444444445</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>67</v>
@@ -4577,11 +4630,13 @@
       <c r="N6" s="15">
         <v>4.2</v>
       </c>
-      <c r="O6" s="22"/>
+      <c r="O6" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="51">
         <f t="shared" si="1"/>
-        <v>-768.55230769230775</v>
+        <v>42.865555555555531</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4608,14 +4663,14 @@
       </c>
       <c r="H7" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I7" s="56">
         <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>765.3523076923077</v>
+        <v>765.5244444444445</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>67</v>
@@ -4627,11 +4682,13 @@
       <c r="N7" s="15">
         <v>4.2</v>
       </c>
-      <c r="O7" s="22"/>
+      <c r="O7" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="51">
         <f t="shared" si="1"/>
-        <v>-769.55230769230775</v>
+        <v>41.865555555555531</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4656,14 +4713,14 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I8" s="56">
         <v>2</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>1504.7046153846154</v>
+        <v>1505.048888888889</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>67</v>
@@ -4673,11 +4730,13 @@
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="22"/>
+      <c r="O8" s="22">
+        <v>1623.18</v>
+      </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="51">
         <f t="shared" si="1"/>
-        <v>-1504.7046153846154</v>
+        <v>118.13111111111107</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1">
@@ -4714,11 +4773,13 @@
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="22"/>
+      <c r="O9" s="22">
+        <v>1623.18</v>
+      </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="51">
         <f t="shared" si="1"/>
-        <v>-1518.2</v>
+        <v>104.98000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
@@ -4788,14 +4849,14 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I11" s="56">
         <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>984.66461538461544</v>
+        <v>985.00888888888892</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>68</v>
@@ -4813,7 +4874,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="51">
         <f t="shared" si="1"/>
-        <v>212.13538461538465</v>
+        <v>211.79111111111118</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
@@ -4838,14 +4899,14 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I12" s="56">
         <v>1</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>487.3523076923077</v>
+        <v>487.52444444444444</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>68</v>
@@ -4863,7 +4924,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="51">
         <f t="shared" si="1"/>
-        <v>105.94769230769234</v>
+        <v>105.7755555555556</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
@@ -4890,14 +4951,14 @@
       </c>
       <c r="H13" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>767.3523076923077</v>
+        <v>767.5244444444445</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>67</v>
@@ -4907,11 +4968,13 @@
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="22"/>
+      <c r="O13" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="51">
         <f t="shared" si="1"/>
-        <v>-767.3523076923077</v>
+        <v>44.065555555555534</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -4938,14 +5001,14 @@
       </c>
       <c r="H14" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I14" s="56">
         <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>767.3523076923077</v>
+        <v>767.5244444444445</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>67</v>
@@ -4955,11 +5018,13 @@
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="22"/>
+      <c r="O14" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="51">
         <f t="shared" si="1"/>
-        <v>-767.3523076923077</v>
+        <v>44.065555555555534</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
@@ -4986,14 +5051,14 @@
       </c>
       <c r="H15" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I15" s="56">
         <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>523.3523076923077</v>
+        <v>523.5244444444445</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>68</v>
@@ -5011,7 +5076,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="51">
         <f t="shared" si="1"/>
-        <v>55.267692307692258</v>
+        <v>55.095555555555464</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -5038,14 +5103,14 @@
       </c>
       <c r="H16" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I16" s="56">
         <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>513.3523076923077</v>
+        <v>513.5244444444445</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>68</v>
@@ -5063,7 +5128,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="51">
         <f t="shared" si="1"/>
-        <v>65.267692307692258</v>
+        <v>65.095555555555464</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1">
@@ -5090,14 +5155,14 @@
       </c>
       <c r="H17" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I17" s="56">
         <v>1</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>498.3523076923077</v>
+        <v>498.52444444444444</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>68</v>
@@ -5115,7 +5180,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="51">
         <f t="shared" si="1"/>
-        <v>80.267692307692258</v>
+        <v>80.095555555555521</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
@@ -5187,14 +5252,14 @@
       </c>
       <c r="H19" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I19" s="56">
         <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>752.3523076923077</v>
+        <v>752.5244444444445</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>67</v>
@@ -5206,11 +5271,13 @@
       <c r="N19" s="15">
         <v>6.1</v>
       </c>
-      <c r="O19" s="22"/>
+      <c r="O19" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="51">
         <f t="shared" si="1"/>
-        <v>-758.45230769230773</v>
+        <v>52.965555555555532</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
@@ -5237,14 +5304,14 @@
       </c>
       <c r="H20" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I20" s="56">
         <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>771.3523076923077</v>
+        <v>771.5244444444445</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>67</v>
@@ -5254,13 +5321,15 @@
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="22"/>
+      <c r="O20" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="Q20" s="51">
         <f t="shared" si="1"/>
-        <v>-771.3523076923077</v>
+        <v>40.065555555555534</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1">
@@ -5285,14 +5354,14 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I21" s="56">
         <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>740.3523076923077</v>
+        <v>740.5244444444445</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>67</v>
@@ -5302,11 +5371,13 @@
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="22"/>
+      <c r="O21" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="51">
         <f t="shared" si="1"/>
-        <v>-740.3523076923077</v>
+        <v>71.065555555555534</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1">
@@ -5331,14 +5402,14 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I22" s="56">
         <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>751.3523076923077</v>
+        <v>751.5244444444445</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>68</v>
@@ -5356,7 +5427,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="51">
         <f t="shared" si="1"/>
-        <v>68.037692307692254</v>
+        <v>67.86555555555546</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
@@ -5378,17 +5449,19 @@
       <c r="F23" s="15">
         <v>1</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="22">
+        <v>59</v>
+      </c>
       <c r="H23" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I23" s="56">
         <v>1</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="0"/>
-        <v>808.03230769230765</v>
+        <v>749.20444444444433</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>67</v>
@@ -5397,12 +5470,16 @@
         <v>58</v>
       </c>
       <c r="M23" s="19"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="22"/>
+      <c r="N23" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="O23" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="51">
         <f t="shared" si="1"/>
-        <v>-808.03230769230765</v>
+        <v>61.635555555555698</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
@@ -5427,14 +5504,14 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I24" s="56">
         <v>1</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>839.57230769230773</v>
+        <v>839.74444444444453</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>68</v>
@@ -5450,11 +5527,11 @@
         <v>996.42</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="1"/>
-        <v>149.84769230769223</v>
+        <v>149.67555555555543</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
@@ -5561,7 +5638,7 @@
         <v>45455</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>124</v>
@@ -5622,37 +5699,39 @@
       <c r="F28" s="15">
         <v>1</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="22">
+        <v>59</v>
+      </c>
       <c r="H28" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I28" s="56">
         <v>2</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>862.95461538461541</v>
+        <v>804.29888888888888</v>
       </c>
       <c r="K28" s="26" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="15">
-        <v>6.75</v>
+        <v>14.1</v>
       </c>
       <c r="O28" s="22">
         <v>996.42</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="51">
         <f t="shared" si="1"/>
-        <v>126.71538461538455</v>
+        <v>178.02111111111108</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
@@ -5698,7 +5777,7 @@
         <v>532.04</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="51">
         <f t="shared" si="1"/>
@@ -5748,7 +5827,7 @@
         <v>532.04</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="51">
         <f t="shared" si="1"/>
@@ -5788,21 +5867,21 @@
         <v>68</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="15">
-        <v>6.75</v>
+        <v>13.35</v>
       </c>
       <c r="O31" s="22">
         <v>582.04</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q31" s="51">
         <f t="shared" si="1"/>
-        <v>55.990000000000009</v>
+        <v>49.390000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
@@ -5827,14 +5906,14 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22">
         <f>相纸!I4</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="I32" s="56">
         <v>2</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
-        <v>1787.7046153846154</v>
+        <v>1788.048888888889</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>68</v>
@@ -5852,64 +5931,162 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="51">
         <f t="shared" si="1"/>
-        <v>342.29538461538459</v>
+        <v>341.951111111111</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="20"/>
+      <c r="A33" s="90">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16">
+        <v>45475</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="18">
+        <v>708</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>59</v>
+      </c>
+      <c r="H33" s="22">
+        <f>相纸!I4</f>
+        <v>93.524444444444441</v>
+      </c>
+      <c r="I33" s="56">
+        <v>1</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="0"/>
+        <v>742.5244444444445</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M33" s="19"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="22"/>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P33" s="19"/>
-      <c r="Q33" s="51"/>
+      <c r="Q33" s="51">
+        <f t="shared" si="1"/>
+        <v>69.065555555555534</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="A34" s="90">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16">
+        <v>45475</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="18">
+        <v>698</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <v>59</v>
+      </c>
+      <c r="H34" s="22">
+        <f>相纸!I4</f>
+        <v>93.524444444444441</v>
+      </c>
+      <c r="I34" s="56">
+        <v>1</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="0"/>
+        <v>732.5244444444445</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M34" s="19"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="22"/>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>811.59</v>
+      </c>
       <c r="P34" s="19"/>
-      <c r="Q34" s="52"/>
+      <c r="Q34" s="51">
+        <f t="shared" si="1"/>
+        <v>79.065555555555534</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="30" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="19"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="52"/>
+      <c r="A35" s="90">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16">
+        <v>45475</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="117">
+        <v>703</v>
+      </c>
+      <c r="F35" s="118">
+        <v>1</v>
+      </c>
+      <c r="G35" s="119"/>
+      <c r="H35" s="22">
+        <f>相纸!I4</f>
+        <v>93.524444444444441</v>
+      </c>
+      <c r="I35" s="120">
+        <v>1</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="0"/>
+        <v>796.5244444444445</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="38"/>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>811.59</v>
+      </c>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="51">
+        <f t="shared" si="1"/>
+        <v>15.065555555555534</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="15"/>
@@ -5925,7 +6102,6 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="19"/>
-      <c r="N36" s="15"/>
       <c r="O36" s="22"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="52"/>
@@ -5971,6 +6147,7 @@
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
       <c r="F39" s="15"/>
@@ -5989,7 +6166,6 @@
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="15"/>
@@ -6423,7 +6599,25 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="52"/>
     </row>
-    <row r="63" spans="1:17" ht="30" customHeight="1"/>
+    <row r="63" spans="1:17" ht="30" customHeight="1">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="52"/>
+    </row>
     <row r="64" spans="1:17" ht="30" customHeight="1"/>
     <row r="65" ht="30" customHeight="1"/>
     <row r="66" ht="30" customHeight="1"/>
@@ -6453,10 +6647,10 @@
     <row r="90" ht="30" customHeight="1"/>
     <row r="91" ht="30" customHeight="1"/>
     <row r="92" ht="30" customHeight="1"/>
-    <row r="1048567" spans="10:10">
-      <c r="J1048567" s="21">
-        <f>SUM(J4:J1048566)</f>
-        <v>22644.983076923083</v>
+    <row r="1048568" spans="10:10">
+      <c r="J1048568" s="21">
+        <f>SUM(J4:J1048567)</f>
+        <v>24802.515555555561</v>
       </c>
     </row>
   </sheetData>
@@ -6464,37 +6658,37 @@
     <mergeCell ref="U2:U5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L33">
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="已结清">
+  <conditionalFormatting sqref="L2:L35">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="已发货">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="已发货">
       <formula>NOT(ISERROR(SEARCH("已发货",L2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"未发货"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="未上架">
+  <conditionalFormatting sqref="K3:K35">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="未上架">
       <formula>NOT(ISERROR(SEARCH("未上架",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="已上架">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="已上架">
       <formula>NOT(ISERROR(SEARCH("已上架",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K33">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="已结清">
+  <conditionalFormatting sqref="K3:K35">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="已结清">
       <formula>NOT(ISERROR(SEARCH("已结清",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K33">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="已收货">
+  <conditionalFormatting sqref="K15:K35">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="已收货">
       <formula>NOT(ISERROR(SEARCH("已收货",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K33">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="未收货">
+  <conditionalFormatting sqref="K28:K35">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未收货">
       <formula>NOT(ISERROR(SEARCH("未收货",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6502,10 +6696,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K14" xr:uid="{A744D780-F3DC-B549-A8FB-91A591FB6A59}">
       <formula1>"未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K33" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K35" xr:uid="{C5442C4D-5BD0-B24F-8F39-D9CD5B1232F7}">
       <formula1>"未收货,已收货,未上架,已上架,已退回,已售出,已结清"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L35" xr:uid="{EF77A0FD-19E4-5749-A016-A94870622F18}">
       <formula1>"未发货,已发货,已结清,已取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6518,11 +6712,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C369B440-9B57-5C4B-9F32-6C11CA46E2AC}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1"/>
@@ -6651,19 +6845,19 @@
       </c>
       <c r="I4" s="63">
         <f>AVERAGE(G:G)</f>
-        <v>93.35230769230769</v>
+        <v>93.524444444444441</v>
       </c>
       <c r="J4" s="64">
         <f>COUNT(A:A)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="63">
         <f>SUMPRODUCT(I4,J4)</f>
-        <v>2427.16</v>
+        <v>2525.16</v>
       </c>
       <c r="L4" s="62">
         <f>SUM(拍立得!I:I)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
@@ -7095,7 +7289,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1">
@@ -7219,7 +7413,31 @@
         <v>82</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" customHeight="1">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="49">
+        <v>45477</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="84">
+        <v>88</v>
+      </c>
+      <c r="F28" s="84">
+        <v>10</v>
+      </c>
+      <c r="G28" s="112">
+        <f>SUM(表1[[#This Row],[价格]:[运费]])</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
